--- a/DDAf_2023_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>

--- a/DDAf_2023_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869DE1E9-B228-4951-85AC-1EF83430BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{196A91CB-6B06-474B-8249-E3B62D3F01B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{68AF7581-242F-4882-B1B4-CA7DD12225C3}"/>
+    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{AC0963E9-7837-4325-BDED-3551EDDC14B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="176">
   <si>
     <t>Tableau 20 : Apports financiers extérieurs</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
-  </si>
-  <si>
-    <t>Source : Comité d'aide au développement de l'OCDE (consulté le 19/12/2022), Centre de données en ligne UNCTADStat (consulté le 21/12/2022), Global Knowledge Partnership on Migration and Development (Banque mondiale-KNOMAD) novembre 2022, statistiques de la balance des paiements du FMI ( consulté le 19 décembre 2022), Base de données des perspectives de l'économie mondiale du FMI, octobre 2022.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1540,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269CFC68-C967-4CAB-9743-49174AA64B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCDA97E-D27E-42A6-9F05-DA00274F2DE2}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1630,25 +1627,25 @@
         <v>18</v>
       </c>
       <c r="C3" s="12">
-        <v>-5.5202166431563997</v>
+        <v>-5.5489143187041003</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
       </c>
       <c r="E3" s="13">
-        <v>0.30823613931861998</v>
+        <v>0.30983855119664</v>
       </c>
       <c r="F3" s="13">
-        <v>1.6801349421670001E-2</v>
+        <v>1.688869376079E-2</v>
       </c>
       <c r="G3" s="14">
-        <v>-5.1951791544160999</v>
+        <v>-5.2221870737467002</v>
       </c>
       <c r="H3" s="12">
-        <v>-5.7929673002708002</v>
+        <v>-5.8230829110861997</v>
       </c>
       <c r="I3" s="15">
-        <v>4.1968090706010699</v>
+        <v>4.2186268130610598</v>
       </c>
       <c r="J3" s="16">
         <v>-4150.0643160999998</v>
@@ -1680,25 +1677,25 @@
         <v>20</v>
       </c>
       <c r="C4" s="21">
-        <v>0.31313440356993</v>
+        <v>0.29388384438038001</v>
       </c>
       <c r="D4" s="22">
-        <v>0.41151477297457001</v>
+        <v>0.38621608524110002</v>
       </c>
       <c r="E4" s="22">
-        <v>0.54746509307624003</v>
+        <v>0.51380858948440999</v>
       </c>
       <c r="F4" s="22">
-        <v>0.32717999137762999</v>
+        <v>0.30706595179000001</v>
       </c>
       <c r="G4" s="23">
-        <v>1.59929426099837</v>
+        <v>1.5009744708958901</v>
       </c>
       <c r="H4" s="21">
-        <v>0.31313439417373001</v>
+        <v>0.29388383556183001</v>
       </c>
       <c r="I4" s="24">
-        <v>3.3731945425609902</v>
+        <v>3.1658207105606202</v>
       </c>
       <c r="J4" s="25">
         <v>55.155207004300003</v>
@@ -1730,25 +1727,25 @@
         <v>22</v>
       </c>
       <c r="C5" s="30">
-        <v>2.6533570931476298</v>
+        <v>2.65335709317299</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="31">
-        <v>2.6359593739847198</v>
+        <v>2.6359593740099099</v>
       </c>
       <c r="F5" s="31">
-        <v>2.7862289720956599</v>
+        <v>2.7862289721222901</v>
       </c>
       <c r="G5" s="32">
-        <v>8.0755454392280193</v>
+        <v>8.0755454393051895</v>
       </c>
       <c r="H5" s="30">
-        <v>2.37930513922722</v>
+        <v>2.37930513924996</v>
       </c>
       <c r="I5" s="33">
-        <v>4.9168648631421297</v>
+        <v>4.9168648631891196</v>
       </c>
       <c r="J5" s="34">
         <v>125.86528237180001</v>
@@ -1780,25 +1777,25 @@
         <v>25</v>
       </c>
       <c r="C6" s="30">
-        <v>1.0804750162090799</v>
+        <v>1.0445117539562601</v>
       </c>
       <c r="D6" s="31">
-        <v>8.9583671902100006E-3</v>
+        <v>8.6601908290899997E-3</v>
       </c>
       <c r="E6" s="31">
-        <v>7.1898444524814602</v>
+        <v>6.9505327999929198</v>
       </c>
       <c r="F6" s="31">
-        <v>20.2516063727745</v>
+        <v>19.577538189707901</v>
       </c>
       <c r="G6" s="32">
-        <v>28.530884208655198</v>
+        <v>27.581242934486099</v>
       </c>
       <c r="H6" s="30">
-        <v>-0.50194187642050003</v>
+        <v>-0.48523490303700001</v>
       </c>
       <c r="I6" s="33">
-        <v>5.2643209532538497</v>
+        <v>5.0890997290842002</v>
       </c>
       <c r="J6" s="34">
         <v>26.632256600000002</v>
@@ -1830,25 +1827,25 @@
         <v>27</v>
       </c>
       <c r="C7" s="30">
-        <v>0.41873180821459</v>
+        <v>0.40320909892146001</v>
       </c>
       <c r="D7" s="31">
-        <v>-1.2196467942025999</v>
+        <v>-1.1744335520860001</v>
       </c>
       <c r="E7" s="31">
-        <v>9.6206826582159195</v>
+        <v>9.2640365731196894</v>
       </c>
       <c r="F7" s="31">
-        <v>2.15689079622573</v>
+        <v>2.0769332000984799</v>
       </c>
       <c r="G7" s="32">
-        <v>10.9766584684536</v>
+        <v>10.569745320053601</v>
       </c>
       <c r="H7" s="30">
-        <v>0.38673219054074998</v>
+        <v>0.37239573161813</v>
       </c>
       <c r="I7" s="33">
-        <v>1.6051797562446299</v>
+        <v>1.5456745115257</v>
       </c>
       <c r="J7" s="34">
         <v>50.2533916</v>
@@ -1880,25 +1877,25 @@
         <v>29</v>
       </c>
       <c r="C8" s="30">
-        <v>32.336619720976998</v>
+        <v>32.3366197217672</v>
       </c>
       <c r="D8" s="31">
         <v>0</v>
       </c>
       <c r="E8" s="31">
-        <v>14.286781918175301</v>
+        <v>14.286781918524399</v>
       </c>
       <c r="F8" s="31">
-        <v>2.8774750115821499</v>
+        <v>2.8774750116524701</v>
       </c>
       <c r="G8" s="32">
-        <v>49.500876650734497</v>
+        <v>49.500876651944203</v>
       </c>
       <c r="H8" s="30">
-        <v>33.564554113425999</v>
+        <v>33.564554114246199</v>
       </c>
       <c r="I8" s="33">
-        <v>-2.0663413698828998</v>
+        <v>-2.0663413699333999</v>
       </c>
       <c r="J8" s="34">
         <v>5101.6679544999997</v>
@@ -1930,25 +1927,25 @@
         <v>31</v>
       </c>
       <c r="C9" s="30">
-        <v>3.3444755288238599</v>
+        <v>3.3444755287200998</v>
       </c>
       <c r="D9" s="31">
-        <v>-4.0947539416185998</v>
+        <v>-4.0947539414914997</v>
       </c>
       <c r="E9" s="31">
-        <v>1.48016264287125</v>
+        <v>1.4801626428253301</v>
       </c>
       <c r="F9" s="31">
-        <v>0.37768499243716003</v>
+        <v>0.37768499242544001</v>
       </c>
       <c r="G9" s="32">
-        <v>1.1075692225137199</v>
+        <v>1.1075692224793501</v>
       </c>
       <c r="H9" s="30">
-        <v>5.2741892395339098</v>
+        <v>5.2741892393702798</v>
       </c>
       <c r="I9" s="33">
-        <v>6.4542965505135097</v>
+        <v>6.4542965503132699</v>
       </c>
       <c r="J9" s="34">
         <v>411.61902715230002</v>
@@ -1980,25 +1977,25 @@
         <v>33</v>
       </c>
       <c r="C10" s="30">
-        <v>9.7608166284757392</v>
+        <v>9.7608166283782491</v>
       </c>
       <c r="D10" s="31">
-        <v>-6.6304112685697003</v>
+        <v>-6.6304112685034999</v>
       </c>
       <c r="E10" s="31">
-        <v>0.24817424457619</v>
+        <v>0.24817424457372</v>
       </c>
       <c r="F10" s="31">
-        <v>0.22120666504063999</v>
+        <v>0.22120666503843001</v>
       </c>
       <c r="G10" s="32">
-        <v>3.5997862695228799</v>
+        <v>3.59978626948693</v>
       </c>
       <c r="H10" s="30">
-        <v>9.8580616397026706</v>
+        <v>9.8580616396042107</v>
       </c>
       <c r="I10" s="33">
-        <v>0.23721652557608</v>
+        <v>0.23721652557371001</v>
       </c>
       <c r="J10" s="34">
         <v>40888.772324561098</v>
@@ -2030,25 +2027,25 @@
         <v>35</v>
       </c>
       <c r="C11" s="21">
-        <v>-2.1429273888483</v>
+        <v>-2.0622051640097001</v>
       </c>
       <c r="D11" s="22">
-        <v>4.4044063428885298</v>
+        <v>4.2384961580910403</v>
       </c>
       <c r="E11" s="22">
-        <v>5.0238895321653301</v>
+        <v>4.8346439504016203</v>
       </c>
       <c r="F11" s="22">
-        <v>1.1339757638372301</v>
+        <v>1.0912598757271601</v>
       </c>
       <c r="G11" s="23">
-        <v>8.4193442500427604</v>
+        <v>8.1021948202101299</v>
       </c>
       <c r="H11" s="21">
-        <v>-3.861814730886</v>
+        <v>-3.7163435037161001</v>
       </c>
       <c r="I11" s="24">
-        <v>14.1665392779542</v>
+        <v>13.632897972732399</v>
       </c>
       <c r="J11" s="25">
         <v>-456.7299731</v>
@@ -2080,19 +2077,19 @@
         <v>37</v>
       </c>
       <c r="C12" s="30">
-        <v>0.50505082945822999</v>
+        <v>0.46152936405863998</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="31">
-        <v>2.9645570946735198</v>
+        <v>2.7090939581030198</v>
       </c>
       <c r="F12" s="31">
-        <v>6.0301852047362203</v>
+        <v>5.5105493949652402</v>
       </c>
       <c r="G12" s="32">
-        <v>9.4997931288679691</v>
+        <v>8.6811727171269002</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>23</v>
@@ -2130,25 +2127,25 @@
         <v>39</v>
       </c>
       <c r="C13" s="40">
-        <v>6.3811624121950699</v>
+        <v>6.3683350832237497</v>
       </c>
       <c r="D13" s="41">
-        <v>-4.2606418152592003</v>
+        <v>-4.2633636056766004</v>
       </c>
       <c r="E13" s="41">
-        <v>1.3283064823950701</v>
+        <v>1.30496783660269</v>
       </c>
       <c r="F13" s="41">
-        <v>0.63607600709100998</v>
+        <v>0.61441176984556001</v>
       </c>
       <c r="G13" s="42">
-        <v>4.0849030864219298</v>
+        <v>4.0243510839953602</v>
       </c>
       <c r="H13" s="40">
-        <v>6.5389828836729</v>
+        <v>6.5272077888766704</v>
       </c>
       <c r="I13" s="43">
-        <v>1.8759859970173201</v>
+        <v>1.84476906707928</v>
       </c>
       <c r="J13" s="44">
         <v>42219.171154589501</v>
@@ -2180,19 +2177,19 @@
         <v>41</v>
       </c>
       <c r="C14" s="30">
-        <v>0.23570509409026999</v>
+        <v>0.23570509409154999</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="31">
-        <v>17.620516017765102</v>
+        <v>17.620516017860599</v>
       </c>
       <c r="F14" s="31">
-        <v>1.4324894887670401</v>
+        <v>1.4324894887748101</v>
       </c>
       <c r="G14" s="32">
-        <v>19.288710600622402</v>
+        <v>19.288710600727001</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>23</v>
@@ -2230,25 +2227,25 @@
         <v>43</v>
       </c>
       <c r="C15" s="30">
-        <v>1.8725602435750399</v>
+        <v>1.8725602435620301</v>
       </c>
       <c r="D15" s="31">
-        <v>-0.28806927135549998</v>
+        <v>-0.28806927135350002</v>
       </c>
       <c r="E15" s="31">
-        <v>2.4814780060907702</v>
+        <v>2.4814780060735302</v>
       </c>
       <c r="F15" s="31">
-        <v>0.77150788889791</v>
+        <v>0.77150788889254995</v>
       </c>
       <c r="G15" s="32">
-        <v>4.8374768672082</v>
+        <v>4.83747686717461</v>
       </c>
       <c r="H15" s="30">
-        <v>2.12271367928185</v>
+        <v>2.1227136792671102</v>
       </c>
       <c r="I15" s="33">
-        <v>3.7254898930401898</v>
+        <v>3.7254898930143101</v>
       </c>
       <c r="J15" s="34">
         <v>849.98311569999998</v>
@@ -2280,13 +2277,13 @@
         <v>45</v>
       </c>
       <c r="C16" s="30">
-        <v>1.16784022721716</v>
+        <v>1.1674514740131801</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="31">
-        <v>25.255064571173801</v>
+        <v>25.246657610153001</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>23</v>
@@ -2330,13 +2327,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="49">
-        <v>4.7657120498770302</v>
+        <v>4.7640389195220001</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="50">
-        <v>6.1219651076122004</v>
+        <v>6.1198158284390702</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>23</v>
@@ -2380,13 +2377,13 @@
         <v>49</v>
       </c>
       <c r="C18" s="49">
-        <v>29.196774179876499</v>
+        <v>30.424962812189602</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="50">
-        <v>1.53364202505644</v>
+        <v>1.59815605970998</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>23</v>
@@ -2430,25 +2427,25 @@
         <v>51</v>
       </c>
       <c r="C19" s="21">
-        <v>3.3066856552802002</v>
+        <v>3.3088675276539301</v>
       </c>
       <c r="D19" s="22">
-        <v>-4.7052554553000002E-3</v>
+        <v>-4.7083601553000003E-3</v>
       </c>
       <c r="E19" s="22">
-        <v>6.2519674498467701</v>
+        <v>6.2560927270827698</v>
       </c>
       <c r="F19" s="22">
-        <v>2.3533310155023601</v>
+        <v>2.3548838295476799</v>
       </c>
       <c r="G19" s="23">
-        <v>11.907278865174</v>
+        <v>11.915135724129099</v>
       </c>
       <c r="H19" s="21">
-        <v>2.9665472907299599</v>
+        <v>2.96850472734589</v>
       </c>
       <c r="I19" s="24">
-        <v>8.0287903998533299</v>
+        <v>8.0340880899860494</v>
       </c>
       <c r="J19" s="25">
         <v>1870.0325028</v>
@@ -2480,13 +2477,13 @@
         <v>53</v>
       </c>
       <c r="C20" s="49">
-        <v>4.0025689571704204</v>
+        <v>4.00256895712121</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="50">
-        <v>0.10416162922492</v>
+        <v>0.10416162922364</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>23</v>
@@ -2530,19 +2527,19 @@
         <v>55</v>
       </c>
       <c r="C21" s="49">
-        <v>8.0763063485959492</v>
+        <v>8.0763063486677709</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="50">
-        <v>0.47949271780896002</v>
+        <v>0.47949271781322</v>
       </c>
       <c r="F21" s="50">
-        <v>6.9162353691789996E-2</v>
+        <v>6.916235369241E-2</v>
       </c>
       <c r="G21" s="51">
-        <v>8.6249614200966995</v>
+        <v>8.6249614201734008</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>23</v>
@@ -2580,25 +2577,25 @@
         <v>57</v>
       </c>
       <c r="C22" s="30">
-        <v>11.5979673024767</v>
+        <v>11.313468181806099</v>
       </c>
       <c r="D22" s="31">
-        <v>0.42033217802834</v>
+        <v>0.41002139408492</v>
       </c>
       <c r="E22" s="31">
-        <v>13.4814141540402</v>
+        <v>13.150713922508899</v>
       </c>
       <c r="F22" s="31">
-        <v>2.04538440460618</v>
+        <v>1.9952109518478101</v>
       </c>
       <c r="G22" s="32">
-        <v>27.545098039151501</v>
+        <v>26.869414450247699</v>
       </c>
       <c r="H22" s="30">
-        <v>11.3938579661258</v>
+        <v>11.1143656647708</v>
       </c>
       <c r="I22" s="33">
-        <v>5.2127468074400802</v>
+        <v>5.0848776865572498</v>
       </c>
       <c r="J22" s="34">
         <v>60.057059899999999</v>
@@ -2630,25 +2627,25 @@
         <v>58</v>
       </c>
       <c r="C23" s="40">
-        <v>4.9373250349674702</v>
+        <v>5.0765438390886297</v>
       </c>
       <c r="D23" s="41">
-        <v>-0.14253620926800001</v>
+        <v>-0.14052298666310001</v>
       </c>
       <c r="E23" s="41">
-        <v>4.3381311984985702</v>
+        <v>4.3515916539770503</v>
       </c>
       <c r="F23" s="41">
-        <v>1.36955411513879</v>
+        <v>1.3822958818146101</v>
       </c>
       <c r="G23" s="42">
-        <v>10.502474139336799</v>
+        <v>10.6699083882172</v>
       </c>
       <c r="H23" s="40">
-        <v>2.5874473043601398</v>
+        <v>2.5929045448255899</v>
       </c>
       <c r="I23" s="43">
-        <v>5.8950423393070404</v>
+        <v>5.9290725098386403</v>
       </c>
       <c r="J23" s="44">
         <v>9197.0339614923996</v>
@@ -2680,25 +2677,25 @@
         <v>60</v>
       </c>
       <c r="C24" s="30">
-        <v>0.31824312795894999</v>
+        <v>0.31799229148447</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="31">
-        <v>11.866480404088399</v>
+        <v>11.8571273471092</v>
       </c>
       <c r="F24" s="31">
-        <v>18.9466579837719</v>
+        <v>18.931724392205201</v>
       </c>
       <c r="G24" s="32">
-        <v>31.131381515819299</v>
+        <v>31.1068440307989</v>
       </c>
       <c r="H24" s="30">
-        <v>0.31338504087437002</v>
+        <v>0.31313803350202002</v>
       </c>
       <c r="I24" s="33">
-        <v>2.8524415629555602</v>
+        <v>2.8501932932445899</v>
       </c>
       <c r="J24" s="34">
         <v>4.0871640999999999</v>
@@ -2730,25 +2727,25 @@
         <v>62</v>
       </c>
       <c r="C25" s="30">
-        <v>4.94471839476497</v>
+        <v>4.9447183948248101</v>
       </c>
       <c r="D25" s="31">
-        <v>-5.9146135765501002</v>
+        <v>-5.9146135766216998</v>
       </c>
       <c r="E25" s="31">
-        <v>5.1985242813102897</v>
+        <v>5.1985242813732002</v>
       </c>
       <c r="F25" s="31">
-        <v>1.9274660788612701</v>
+        <v>1.9274660788845901</v>
       </c>
       <c r="G25" s="32">
-        <v>6.1560951783863898</v>
+        <v>6.1560951784608902</v>
       </c>
       <c r="H25" s="30">
-        <v>4.9446957047241904</v>
+        <v>4.9446957047840403</v>
       </c>
       <c r="I25" s="33">
-        <v>15.518685949215</v>
+        <v>15.5186859494028</v>
       </c>
       <c r="J25" s="34">
         <v>166.75089600000001</v>
@@ -2780,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="C26" s="30">
-        <v>3.2020552627796199</v>
+        <v>3.18596137566285</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="31">
-        <v>1.8829204519467</v>
+        <v>1.8734566836114901</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>23</v>
@@ -2830,25 +2827,25 @@
         <v>66</v>
       </c>
       <c r="C27" s="30">
-        <v>4.2907926790261701</v>
+        <v>4.2907926790152899</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="31">
-        <v>4.0108220723392396</v>
+        <v>4.01082207232907</v>
       </c>
       <c r="F27" s="31">
-        <v>0.43962719283134</v>
+        <v>0.43962719283022</v>
       </c>
       <c r="G27" s="32">
-        <v>8.7412419441967408</v>
+        <v>8.7412419441745808</v>
       </c>
       <c r="H27" s="30">
-        <v>4.2907932678103098</v>
+        <v>4.2907932677994403</v>
       </c>
       <c r="I27" s="33">
-        <v>0.24597250666805001</v>
+        <v>0.24597250666743001</v>
       </c>
       <c r="J27" s="34">
         <v>4259.4452107999996</v>
@@ -2880,25 +2877,25 @@
         <v>68</v>
       </c>
       <c r="C28" s="30">
-        <v>0.40546954002746999</v>
+        <v>0.40610303998649999</v>
       </c>
       <c r="D28" s="31">
-        <v>0.76196225052664002</v>
+        <v>0.76315272972875003</v>
       </c>
       <c r="E28" s="31">
-        <v>2.8437526986311901</v>
+        <v>2.8481957382191898</v>
       </c>
       <c r="F28" s="31">
-        <v>3.41124521419755</v>
+        <v>3.4165748961837399</v>
       </c>
       <c r="G28" s="32">
-        <v>7.4224297033828597</v>
+        <v>7.4340264041181801</v>
       </c>
       <c r="H28" s="30">
-        <v>0.41924648771318002</v>
+        <v>0.41990151258329</v>
       </c>
       <c r="I28" s="33">
-        <v>5.8729735055246497</v>
+        <v>5.8821493574884602</v>
       </c>
       <c r="J28" s="34">
         <v>448.12272810000002</v>
@@ -2930,25 +2927,25 @@
         <v>70</v>
       </c>
       <c r="C29" s="30">
-        <v>2.10153347635198</v>
+        <v>2.0623782018158798</v>
       </c>
       <c r="D29" s="31">
         <v>0</v>
       </c>
       <c r="E29" s="31">
-        <v>7.3377296571146999</v>
+        <v>7.2010148141540302</v>
       </c>
       <c r="F29" s="31">
-        <v>4.3031212376694503</v>
+        <v>4.2229465008312896</v>
       </c>
       <c r="G29" s="32">
-        <v>13.742384371136099</v>
+        <v>13.4863395168012</v>
       </c>
       <c r="H29" s="30">
-        <v>2.50313178469283</v>
+        <v>2.4564940254886198</v>
       </c>
       <c r="I29" s="33">
-        <v>4.5444006536782098</v>
+        <v>4.4597304558445297</v>
       </c>
       <c r="J29" s="34">
         <v>300.1740762</v>
@@ -2980,25 +2977,25 @@
         <v>72</v>
       </c>
       <c r="C30" s="30">
-        <v>2.2694047617079902</v>
+        <v>2.2058163013073</v>
       </c>
       <c r="D30" s="31">
-        <v>14.868197319271401</v>
+        <v>14.451592140495601</v>
       </c>
       <c r="E30" s="31">
-        <v>2.62803207045582</v>
+        <v>2.5543949141126099</v>
       </c>
       <c r="F30" s="31">
-        <v>2.4422645844772002</v>
+        <v>2.3738326117245099</v>
       </c>
       <c r="G30" s="32">
-        <v>22.207898735912401</v>
+        <v>21.585635967640101</v>
       </c>
       <c r="H30" s="30">
-        <v>82.093171152427004</v>
+        <v>79.7929299389275</v>
       </c>
       <c r="I30" s="33">
-        <v>25.2378332612892</v>
+        <v>24.530672076112701</v>
       </c>
       <c r="J30" s="34">
         <v>253.1892527542</v>
@@ -3030,25 +3027,25 @@
         <v>74</v>
       </c>
       <c r="C31" s="30">
-        <v>1.9146601138286401</v>
+        <v>1.9146601137644499</v>
       </c>
       <c r="D31" s="31">
-        <v>1.8910185062616001</v>
+        <v>1.8910185061982001</v>
       </c>
       <c r="E31" s="31">
-        <v>11.8790611150516</v>
+        <v>11.8790611146534</v>
       </c>
       <c r="F31" s="31">
-        <v>3.5349391751499999</v>
+        <v>3.53493917503148</v>
       </c>
       <c r="G31" s="32">
-        <v>19.219678910291901</v>
+        <v>19.219678909647499</v>
       </c>
       <c r="H31" s="30">
-        <v>1.9146601134319801</v>
+        <v>1.9146601133677801</v>
       </c>
       <c r="I31" s="33">
-        <v>4.9989034872302902</v>
+        <v>4.9989034870626901</v>
       </c>
       <c r="J31" s="34">
         <v>211.89612890000001</v>
@@ -3080,25 +3077,25 @@
         <v>76</v>
       </c>
       <c r="C32" s="30">
-        <v>10.7678057129466</v>
+        <v>10.767805713142501</v>
       </c>
       <c r="D32" s="31">
-        <v>-0.40621521409279998</v>
+        <v>-0.40621521410020001</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="31">
-        <v>0.65367605201303003</v>
+        <v>0.65367605202492995</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="30">
-        <v>7.24008544446552</v>
+        <v>7.2400854445972804</v>
       </c>
       <c r="I32" s="33">
-        <v>17.257056223458498</v>
+        <v>17.257056223772501</v>
       </c>
       <c r="J32" s="34">
         <v>156.89926840000001</v>
@@ -3180,25 +3177,25 @@
         <v>80</v>
       </c>
       <c r="C34" s="21">
-        <v>1.3064702238749999</v>
+        <v>1.1373050030335901</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="22">
-        <v>40.794000474850201</v>
+        <v>35.511885373241199</v>
       </c>
       <c r="F34" s="22">
-        <v>23.9229214327334</v>
+        <v>20.825318277770702</v>
       </c>
       <c r="G34" s="23">
-        <v>66.023392131458607</v>
+        <v>57.474508654045501</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="24">
-        <v>24.653383451237701</v>
+        <v>21.461198141689</v>
       </c>
       <c r="J34" s="25">
         <v>67.5</v>
@@ -3230,25 +3227,25 @@
         <v>82</v>
       </c>
       <c r="C35" s="30">
-        <v>1.3160749954398201</v>
+        <v>1.33129948068443</v>
       </c>
       <c r="D35" s="31">
-        <v>8.4508222965899993E-3</v>
+        <v>8.5485822417299996E-3</v>
       </c>
       <c r="E35" s="31">
-        <v>10.714779287721001</v>
+        <v>10.838728910447999</v>
       </c>
       <c r="F35" s="31">
-        <v>3.2031361995288199</v>
+        <v>3.24019039474959</v>
       </c>
       <c r="G35" s="32">
-        <v>15.242441304986301</v>
+        <v>15.418767368123699</v>
       </c>
       <c r="H35" s="30">
-        <v>1.4879508501185701</v>
+        <v>1.5051636121882299</v>
       </c>
       <c r="I35" s="33">
-        <v>7.9121174271665904</v>
+        <v>8.0036455812922291</v>
       </c>
       <c r="J35" s="34">
         <v>462.4720155</v>
@@ -3280,19 +3277,19 @@
         <v>84</v>
       </c>
       <c r="C36" s="30">
-        <v>1.31110355433257</v>
+        <v>1.31806120039398</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="31">
-        <v>3.65179751033586</v>
+        <v>3.6711765399181502</v>
       </c>
       <c r="F36" s="31">
-        <v>0.80985122096366002</v>
+        <v>0.81414886636263994</v>
       </c>
       <c r="G36" s="32">
-        <v>5.7727522856320901</v>
+        <v>5.8033866066747803</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>23</v>
@@ -3330,25 +3327,25 @@
         <v>86</v>
       </c>
       <c r="C37" s="30">
-        <v>2.6588150740923799</v>
+        <v>2.6599622988855098</v>
       </c>
       <c r="D37" s="31">
-        <v>1.03722564187848</v>
+        <v>1.0376731837116999</v>
       </c>
       <c r="E37" s="31">
-        <v>5.85505652227942</v>
+        <v>5.8575828604489999</v>
       </c>
       <c r="F37" s="31">
-        <v>2.5203768532313502</v>
+        <v>2.5214643447392202</v>
       </c>
       <c r="G37" s="32">
-        <v>12.071474091481599</v>
+        <v>12.0766826877854</v>
       </c>
       <c r="H37" s="30">
-        <v>2.56162182122715</v>
+        <v>2.56272710910241</v>
       </c>
       <c r="I37" s="33">
-        <v>6.5072461557284296</v>
+        <v>6.5100539005007603</v>
       </c>
       <c r="J37" s="34">
         <v>1142.2122964</v>
@@ -3380,25 +3377,25 @@
         <v>87</v>
       </c>
       <c r="C38" s="40">
-        <v>2.1748770294398301</v>
+        <v>2.17841319152364</v>
       </c>
       <c r="D38" s="41">
-        <v>1.10435203640937</v>
+        <v>1.1053074049865701</v>
       </c>
       <c r="E38" s="41">
-        <v>6.0095483234443696</v>
+        <v>5.8352557023948401</v>
       </c>
       <c r="F38" s="41">
-        <v>2.6832988785893201</v>
+        <v>2.5719307982211101</v>
       </c>
       <c r="G38" s="42">
-        <v>11.972076267882899</v>
+        <v>11.6909070971262</v>
       </c>
       <c r="H38" s="40">
-        <v>4.4980035479664702</v>
+        <v>4.5060247308343397</v>
       </c>
       <c r="I38" s="43">
-        <v>5.3649825944067997</v>
+        <v>5.2506708897146703</v>
       </c>
       <c r="J38" s="44">
         <v>8920.5475955542006</v>
@@ -3430,25 +3427,25 @@
         <v>89</v>
       </c>
       <c r="C39" s="49">
-        <v>0.53449541500484998</v>
+        <v>0.53309619334266001</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="50">
-        <v>0.13175522884182</v>
+        <v>0.13141031518096</v>
       </c>
       <c r="F39" s="50">
-        <v>1.08111762695892</v>
+        <v>1.0782874376616101</v>
       </c>
       <c r="G39" s="51">
-        <v>1.74736827080559</v>
+        <v>1.74279394618524</v>
       </c>
       <c r="H39" s="49">
-        <v>0.53418474064302002</v>
+        <v>0.53278633227554995</v>
       </c>
       <c r="I39" s="52">
-        <v>1.5236649843276799</v>
+        <v>1.51967627835915</v>
       </c>
       <c r="J39" s="53">
         <v>869.68181890000005</v>
@@ -3480,25 +3477,25 @@
         <v>91</v>
       </c>
       <c r="C40" s="30">
-        <v>1.2104583582109001</v>
+        <v>1.21001558333708</v>
       </c>
       <c r="D40" s="31">
-        <v>1.43655505863082</v>
+        <v>1.4360295796000799</v>
       </c>
       <c r="E40" s="31">
-        <v>1.94732783783846</v>
+        <v>1.94661552267963</v>
       </c>
       <c r="F40" s="31">
-        <v>7.4411757760614501</v>
+        <v>7.4384538603152599</v>
       </c>
       <c r="G40" s="32">
-        <v>12.0355170307416</v>
+        <v>12.0311145459321</v>
       </c>
       <c r="H40" s="30">
-        <v>1.2105292558109599</v>
+        <v>1.21008645500342</v>
       </c>
       <c r="I40" s="33">
-        <v>2.2644764354017202</v>
+        <v>2.2636481101139099</v>
       </c>
       <c r="J40" s="34">
         <v>5122</v>
@@ -3536,7 +3533,7 @@
         <v>23</v>
       </c>
       <c r="E41" s="50">
-        <v>0.88462515639057004</v>
+        <v>0.88462515639780004</v>
       </c>
       <c r="F41" s="50" t="s">
         <v>23</v>
@@ -3580,25 +3577,25 @@
         <v>95</v>
       </c>
       <c r="C42" s="49">
-        <v>0.22420714595774999</v>
+        <v>0.22420714595664001</v>
       </c>
       <c r="D42" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="50">
-        <v>4.2947743463948802</v>
+        <v>4.29477434637373</v>
       </c>
       <c r="F42" s="50">
-        <v>1.705495109074</v>
+        <v>1.7054951090656001</v>
       </c>
       <c r="G42" s="51">
-        <v>6.2244766014266304</v>
+        <v>6.2244766013959696</v>
       </c>
       <c r="H42" s="49">
-        <v>10.8198605868696</v>
+        <v>10.819860586816301</v>
       </c>
       <c r="I42" s="52">
-        <v>-6.0085029132199999E-2</v>
+        <v>-6.0085029131900003E-2</v>
       </c>
       <c r="J42" s="53">
         <v>22.1775749</v>
@@ -3630,25 +3627,25 @@
         <v>97</v>
       </c>
       <c r="C43" s="30">
-        <v>1.5072179857415899</v>
+        <v>1.50721798569205</v>
       </c>
       <c r="D43" s="31">
-        <v>-0.1733499687285</v>
+        <v>-0.17334996872280001</v>
       </c>
       <c r="E43" s="31">
-        <v>0.67560935449073001</v>
+        <v>0.67560935446852999</v>
       </c>
       <c r="F43" s="31">
-        <v>7.4928858828411302</v>
+        <v>7.4928858825948197</v>
       </c>
       <c r="G43" s="32">
-        <v>9.5023632543449192</v>
+        <v>9.5023632540325593</v>
       </c>
       <c r="H43" s="30">
-        <v>1.5054883945331601</v>
+        <v>1.5054883944836699</v>
       </c>
       <c r="I43" s="33">
-        <v>1.59312015769617</v>
+        <v>1.5931201576438001</v>
       </c>
       <c r="J43" s="34">
         <v>2153.3108363991</v>
@@ -3680,25 +3677,25 @@
         <v>99</v>
       </c>
       <c r="C44" s="30">
-        <v>1.4095030712599199</v>
+        <v>1.41412656541883</v>
       </c>
       <c r="D44" s="31">
-        <v>-7.1277318284600003E-2</v>
+        <v>-7.1511124277299998E-2</v>
       </c>
       <c r="E44" s="31">
-        <v>2.3342518461421</v>
+        <v>2.3419087289088898</v>
       </c>
       <c r="F44" s="31">
-        <v>4.6849420855668997</v>
+        <v>4.7003097728100904</v>
       </c>
       <c r="G44" s="32">
-        <v>8.3574196846843201</v>
+        <v>8.3848339428605296</v>
       </c>
       <c r="H44" s="30">
-        <v>1.13806882152816</v>
+        <v>1.14180194893743</v>
       </c>
       <c r="I44" s="33">
-        <v>3.9977178869401202</v>
+        <v>4.0108313207992703</v>
       </c>
       <c r="J44" s="34">
         <v>660.23323946929997</v>
@@ -3730,25 +3727,25 @@
         <v>100</v>
       </c>
       <c r="C45" s="40">
-        <v>1.1051055756756401</v>
+        <v>1.10734101820709</v>
       </c>
       <c r="D45" s="41">
-        <v>1.0498883599012501</v>
+        <v>1.0497174920578101</v>
       </c>
       <c r="E45" s="41">
-        <v>1.40271637716529</v>
+        <v>1.4088345382074501</v>
       </c>
       <c r="F45" s="41">
-        <v>5.8642026835268801</v>
+        <v>5.8832805146201999</v>
       </c>
       <c r="G45" s="42">
-        <v>9.4219129962690609</v>
+        <v>9.4491735630925398</v>
       </c>
       <c r="H45" s="40">
-        <v>1.2044169332917201</v>
+        <v>1.20647596388587</v>
       </c>
       <c r="I45" s="43">
-        <v>2.0863887679336499</v>
+        <v>2.08954852017439</v>
       </c>
       <c r="J45" s="44">
         <v>8827.4034696683993</v>
@@ -3780,25 +3777,25 @@
         <v>102</v>
       </c>
       <c r="C46" s="30">
-        <v>1.3692575049214499</v>
+        <v>1.36925750494773</v>
       </c>
       <c r="D46" s="31">
-        <v>5.3990317703362898</v>
+        <v>5.3990317704399304</v>
       </c>
       <c r="E46" s="31">
-        <v>4.7662115417542497</v>
+        <v>4.7662115418457498</v>
       </c>
       <c r="F46" s="31">
-        <v>1.1541978845643699</v>
+        <v>1.1541978845865299</v>
       </c>
       <c r="G46" s="32">
-        <v>12.688698701576399</v>
+        <v>12.6886987018199</v>
       </c>
       <c r="H46" s="30">
-        <v>1.95478706904388</v>
+        <v>1.9547870690814</v>
       </c>
       <c r="I46" s="33">
-        <v>2.6054754165090799</v>
+        <v>2.6054754165590999</v>
       </c>
       <c r="J46" s="34">
         <v>242.35011989239999</v>
@@ -3830,19 +3827,19 @@
         <v>104</v>
       </c>
       <c r="C47" s="30">
-        <v>0.71941956211093006</v>
+        <v>0.69562380281862002</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="31">
-        <v>8.3145796751779706</v>
+        <v>8.0395638888588206</v>
       </c>
       <c r="F47" s="31">
-        <v>2.93560185236197</v>
+        <v>2.8385029149186898</v>
       </c>
       <c r="G47" s="32">
-        <v>11.969601089650901</v>
+        <v>11.5736906065961</v>
       </c>
       <c r="H47" s="30" t="s">
         <v>23</v>
@@ -3880,25 +3877,25 @@
         <v>106</v>
       </c>
       <c r="C48" s="49">
-        <v>5.5645227221404197</v>
+        <v>5.5645227220996398</v>
       </c>
       <c r="D48" s="50">
         <v>3.2604326770000001E-4</v>
       </c>
       <c r="E48" s="50">
-        <v>7.1067840991658597</v>
+        <v>7.1067840991137796</v>
       </c>
       <c r="F48" s="50">
-        <v>14.775272704228501</v>
+        <v>14.775272704120299</v>
       </c>
       <c r="G48" s="51">
-        <v>27.446905568802499</v>
+        <v>27.446905568601402</v>
       </c>
       <c r="H48" s="49">
-        <v>4.2265883289983197</v>
+        <v>4.2265883289673498</v>
       </c>
       <c r="I48" s="52">
-        <v>10.642630020243001</v>
+        <v>10.642630020165001</v>
       </c>
       <c r="J48" s="53">
         <v>117.5420752047</v>
@@ -3930,19 +3927,19 @@
         <v>108</v>
       </c>
       <c r="C49" s="30">
-        <v>1.97252050398884</v>
+        <v>1.9276304319306601</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="31">
-        <v>2.2136120821684702</v>
+        <v>2.1632353151455401</v>
       </c>
       <c r="F49" s="31">
-        <v>0.49657513349747001</v>
+        <v>0.48527421496206002</v>
       </c>
       <c r="G49" s="32">
-        <v>4.6827077196547799</v>
+        <v>4.5761399620382601</v>
       </c>
       <c r="H49" s="30" t="s">
         <v>23</v>
@@ -3980,25 +3977,25 @@
         <v>110</v>
       </c>
       <c r="C50" s="30">
-        <v>12.377973863115599</v>
+        <v>12.3779738628938</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="31">
-        <v>12.041634429106001</v>
+        <v>12.0416344288902</v>
       </c>
       <c r="F50" s="31">
-        <v>26.889514488305998</v>
+        <v>26.889514487824201</v>
       </c>
       <c r="G50" s="32">
-        <v>51.309122780527602</v>
+        <v>51.309122779608202</v>
       </c>
       <c r="H50" s="30">
-        <v>12.3779738634776</v>
+        <v>12.3779738632558</v>
       </c>
       <c r="I50" s="33">
-        <v>3.72173736271735</v>
+        <v>3.7217373626506598</v>
       </c>
       <c r="J50" s="34">
         <v>251.82262879999999</v>
@@ -4030,25 +4027,25 @@
         <v>112</v>
       </c>
       <c r="C51" s="21">
-        <v>3.3020531489114</v>
+        <v>3.3020531488917202</v>
       </c>
       <c r="D51" s="22">
-        <v>2.61421394215935</v>
+        <v>2.61421394214377</v>
       </c>
       <c r="E51" s="22">
-        <v>1.5506154770344101</v>
+        <v>1.5506154770251701</v>
       </c>
       <c r="F51" s="22">
-        <v>5.6931884552906897</v>
+        <v>5.6931884552567498</v>
       </c>
       <c r="G51" s="23">
-        <v>13.160071023395901</v>
+        <v>13.1600710233174</v>
       </c>
       <c r="H51" s="21">
-        <v>3.3007709590628398</v>
+        <v>3.3007709590431702</v>
       </c>
       <c r="I51" s="24">
-        <v>-1.028041466381</v>
+        <v>-1.0280414663749</v>
       </c>
       <c r="J51" s="25">
         <v>2613.8047350000002</v>
@@ -4080,25 +4077,25 @@
         <v>114</v>
       </c>
       <c r="C52" s="30">
-        <v>1.07164927559866</v>
+        <v>1.0710601753406499</v>
       </c>
       <c r="D52" s="31">
         <v>0</v>
       </c>
       <c r="E52" s="31">
-        <v>3.63337188388219</v>
+        <v>3.6313745696834401</v>
       </c>
       <c r="F52" s="31">
-        <v>2.1299439617255702</v>
+        <v>2.1287731024099701</v>
       </c>
       <c r="G52" s="32">
-        <v>6.8349651212064204</v>
+        <v>6.8312078474340598</v>
       </c>
       <c r="H52" s="30">
-        <v>1.22386155179143</v>
+        <v>1.2231887783642099</v>
       </c>
       <c r="I52" s="33">
-        <v>-5.8019621493534004</v>
+        <v>-5.7987727314375004</v>
       </c>
       <c r="J52" s="34">
         <v>173.03314499999999</v>
@@ -4130,19 +4127,19 @@
         <v>116</v>
       </c>
       <c r="C53" s="30">
-        <v>1.3986265831945</v>
+        <v>1.3802236018059899</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="31">
-        <v>9.7559320969340799</v>
+        <v>9.6275645691287703</v>
       </c>
       <c r="F53" s="31">
-        <v>10.45362336416</v>
+        <v>10.316075688086499</v>
       </c>
       <c r="G53" s="32">
-        <v>21.608182044288601</v>
+        <v>21.323863859021198</v>
       </c>
       <c r="H53" s="30" t="s">
         <v>23</v>
@@ -4180,19 +4177,19 @@
         <v>118</v>
       </c>
       <c r="C54" s="30">
-        <v>1.3019054237301899</v>
+        <v>1.3018460426306699</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="31">
-        <v>17.0715483747843</v>
+        <v>17.070769725817499</v>
       </c>
       <c r="F54" s="31">
-        <v>9.6350645469005691</v>
+        <v>9.6346250827764095</v>
       </c>
       <c r="G54" s="32">
-        <v>28.008518345415101</v>
+        <v>28.007240851224601</v>
       </c>
       <c r="H54" s="30" t="s">
         <v>23</v>
@@ -4230,19 +4227,19 @@
         <v>120</v>
       </c>
       <c r="C55" s="30">
-        <v>3.4446456154352001</v>
+        <v>3.3560780032866102</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="31">
-        <v>7.4008508719883297</v>
+        <v>7.2105625919218097</v>
       </c>
       <c r="F55" s="31">
-        <v>5.4985119474241397</v>
+        <v>5.3571359895108799</v>
       </c>
       <c r="G55" s="32">
-        <v>16.344008434847701</v>
+        <v>15.923776584719301</v>
       </c>
       <c r="H55" s="30" t="s">
         <v>23</v>
@@ -4280,19 +4277,19 @@
         <v>122</v>
       </c>
       <c r="C56" s="30">
-        <v>5.0442190556883499</v>
+        <v>5.0563919500758097</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="31">
-        <v>11.865771347734</v>
+        <v>11.894406262246401</v>
       </c>
       <c r="F56" s="31">
-        <v>3.6212940720505</v>
+        <v>3.6300331116914002</v>
       </c>
       <c r="G56" s="32">
-        <v>20.531284475472798</v>
+        <v>20.580831324013602</v>
       </c>
       <c r="H56" s="30" t="s">
         <v>23</v>
@@ -4330,25 +4327,25 @@
         <v>124</v>
       </c>
       <c r="C57" s="49">
-        <v>1.0971355476165501</v>
+        <v>1.09742672343351</v>
       </c>
       <c r="D57" s="50">
-        <v>1.3813397086627901</v>
+        <v>1.38170631123896</v>
       </c>
       <c r="E57" s="50">
-        <v>0.76033407639588002</v>
+        <v>0.76053586631722003</v>
       </c>
       <c r="F57" s="50">
-        <v>4.41258746437091</v>
+        <v>4.4137585491677003</v>
       </c>
       <c r="G57" s="51">
-        <v>7.6513967970461296</v>
+        <v>7.6534274501573902</v>
       </c>
       <c r="H57" s="49">
-        <v>0.75037351632036997</v>
+        <v>0.75057266274500001</v>
       </c>
       <c r="I57" s="52">
-        <v>2.2385170027697798</v>
+        <v>2.2391110971079602</v>
       </c>
       <c r="J57" s="53">
         <v>4844.3080528</v>
@@ -4380,19 +4377,19 @@
         <v>126</v>
       </c>
       <c r="C58" s="30">
-        <v>8.0749992717404009</v>
+        <v>8.0749992717558197</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="31">
-        <v>4.99115699626498</v>
+        <v>4.9911569962745199</v>
       </c>
       <c r="F58" s="31">
-        <v>9.6147989312192408</v>
+        <v>9.6147989312376101</v>
       </c>
       <c r="G58" s="32">
-        <v>22.680955199224599</v>
+        <v>22.680955199267899</v>
       </c>
       <c r="H58" s="30" t="s">
         <v>23</v>
@@ -4430,19 +4427,19 @@
         <v>128</v>
       </c>
       <c r="C59" s="30">
-        <v>5.2628962372058501</v>
+        <v>5.2628962371427299</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="31">
-        <v>16.7980168122678</v>
+        <v>16.798016812066301</v>
       </c>
       <c r="F59" s="31">
-        <v>4.3308487056119196</v>
+        <v>4.3308487055599798</v>
       </c>
       <c r="G59" s="32">
-        <v>26.3917617550856</v>
+        <v>26.391761754769</v>
       </c>
       <c r="H59" s="30" t="s">
         <v>23</v>
@@ -4480,19 +4477,19 @@
         <v>130</v>
       </c>
       <c r="C60" s="21">
-        <v>1.54067985990166</v>
+        <v>1.54067985991023</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="22">
-        <v>4.0253181071747504</v>
+        <v>4.0253181071971502</v>
       </c>
       <c r="F60" s="22">
-        <v>7.9948855289105101</v>
+        <v>7.9948855289549901</v>
       </c>
       <c r="G60" s="23">
-        <v>13.5608834959869</v>
+        <v>13.560883496062401</v>
       </c>
       <c r="H60" s="21" t="s">
         <v>23</v>
@@ -4528,25 +4525,25 @@
         <v>131</v>
       </c>
       <c r="C61" s="40">
-        <v>1.8661185819413499</v>
+        <v>1.8592478284733001</v>
       </c>
       <c r="D61" s="41">
-        <v>1.6395693378424101</v>
+        <v>1.6396304292583499</v>
       </c>
       <c r="E61" s="41">
-        <v>2.1840947084553402</v>
+        <v>2.16793640033069</v>
       </c>
       <c r="F61" s="41">
-        <v>4.4063712075563402</v>
+        <v>4.3973762588308301</v>
       </c>
       <c r="G61" s="42">
-        <v>10.0961538357954</v>
+        <v>10.0641909168932</v>
       </c>
       <c r="H61" s="40">
-        <v>1.2069879411365001</v>
+        <v>1.2071308073435201</v>
       </c>
       <c r="I61" s="43">
-        <v>1.6215358407021001</v>
+        <v>1.62104827270664</v>
       </c>
       <c r="J61" s="44">
         <v>13826.3822211648</v>
@@ -4576,25 +4573,25 @@
         <v>132</v>
       </c>
       <c r="C62" s="60">
-        <v>2.64592697040578</v>
+        <v>2.6524847283959798</v>
       </c>
       <c r="D62" s="61">
-        <v>-7.9691057615000005E-2</v>
+        <v>-7.9859480894399995E-2</v>
       </c>
       <c r="E62" s="61">
-        <v>2.4901004524918999</v>
+        <v>2.4544366090482699</v>
       </c>
       <c r="F62" s="61">
-        <v>3.79035949651862</v>
+        <v>3.77070544091253</v>
       </c>
       <c r="G62" s="62">
-        <v>8.8466958618013098</v>
+        <v>8.7977672974624301</v>
       </c>
       <c r="H62" s="60">
-        <v>2.8536059387013601</v>
+        <v>2.8549677897274499</v>
       </c>
       <c r="I62" s="63">
-        <v>2.59182838813574</v>
+        <v>2.5692526910999498</v>
       </c>
       <c r="J62" s="64">
         <v>82990.538402469305</v>
@@ -4624,25 +4621,25 @@
         <v>133</v>
       </c>
       <c r="C63" s="69">
-        <v>1.5911835592474499</v>
+        <v>1.5815004749944499</v>
       </c>
       <c r="D63" s="70">
-        <v>2.6560300473111398</v>
+        <v>2.6331248510199199</v>
       </c>
       <c r="E63" s="70">
-        <v>0.21387197540218</v>
+        <v>0.21778151182370001</v>
       </c>
       <c r="F63" s="70">
-        <v>1.15716140345885</v>
+        <v>1.15626764506506</v>
       </c>
       <c r="G63" s="71">
-        <v>5.6182469854196304</v>
+        <v>5.5886744829031301</v>
       </c>
       <c r="H63" s="69">
-        <v>1.95951205031898</v>
+        <v>1.9452422002684999</v>
       </c>
       <c r="I63" s="72">
-        <v>3.52896860280581</v>
+        <v>3.5045663609825302</v>
       </c>
       <c r="J63" s="73">
         <v>1342236.9676911</v>
@@ -4672,25 +4669,25 @@
         <v>134</v>
       </c>
       <c r="C64" s="60">
-        <v>2.6616817277756502</v>
+        <v>2.6453222036288899</v>
       </c>
       <c r="D64" s="61">
-        <v>1.08467439079006</v>
+        <v>1.0642442791937201</v>
       </c>
       <c r="E64" s="61">
-        <v>0.22181898152762999</v>
+        <v>0.22049504849616</v>
       </c>
       <c r="F64" s="61">
-        <v>2.6755739524884401</v>
+        <v>2.6847594800577599</v>
       </c>
       <c r="G64" s="62">
-        <v>6.6437490525817902</v>
+        <v>6.61482101137653</v>
       </c>
       <c r="H64" s="60">
-        <v>2.8018818756759201</v>
+        <v>2.7866465479085298</v>
       </c>
       <c r="I64" s="63">
-        <v>1.8549748029227699</v>
+        <v>1.83852926131184</v>
       </c>
       <c r="J64" s="64">
         <v>135500.65559887799</v>
@@ -4720,25 +4717,25 @@
         <v>135</v>
       </c>
       <c r="C65" s="79">
-        <v>1.31553791734544</v>
+        <v>1.3271653672714501</v>
       </c>
       <c r="D65" s="80">
-        <v>0.77253450542191004</v>
+        <v>0.77150687924658001</v>
       </c>
       <c r="E65" s="80">
-        <v>0.18604661196439001</v>
+        <v>0.19137546423075999</v>
       </c>
       <c r="F65" s="80">
-        <v>1.8024186246321401</v>
+        <v>1.8039979376556601</v>
       </c>
       <c r="G65" s="81">
-        <v>4.07653765936388</v>
+        <v>4.0940456484044496</v>
       </c>
       <c r="H65" s="79">
-        <v>1.88515735860594</v>
+        <v>1.88419769610749</v>
       </c>
       <c r="I65" s="82">
-        <v>1.7781976021788699</v>
+        <v>1.78625670379095</v>
       </c>
       <c r="J65" s="83">
         <v>313651.91381856397</v>
@@ -4768,25 +4765,25 @@
         <v>136</v>
       </c>
       <c r="C66" s="88">
-        <v>1.6457085773703499</v>
+        <v>1.6366178100453701</v>
       </c>
       <c r="D66" s="89">
-        <v>2.54564498371635</v>
+        <v>2.5239097564154802</v>
       </c>
       <c r="E66" s="89">
-        <v>0.44344786667032998</v>
+        <v>0.44257498550070001</v>
       </c>
       <c r="F66" s="89">
-        <v>1.2913135311341499</v>
+        <v>1.28884514497812</v>
       </c>
       <c r="G66" s="90">
-        <v>5.9261149588911799</v>
+        <v>5.8919476969396696</v>
       </c>
       <c r="H66" s="88">
-        <v>2.0009903251305698</v>
+        <v>1.98727990731532</v>
       </c>
       <c r="I66" s="91">
-        <v>3.4854172063348199</v>
+        <v>3.4613072072194901</v>
       </c>
       <c r="J66" s="92">
         <v>1425227.50609357</v>
@@ -4816,25 +4813,25 @@
         <v>137</v>
       </c>
       <c r="C67" s="97">
-        <v>1.61144639864926</v>
+        <v>1.61357584850034</v>
       </c>
       <c r="D67" s="98">
-        <v>1.2429751170300101</v>
+        <v>1.23610442556193</v>
       </c>
       <c r="E67" s="98">
-        <v>3.6832439456458999</v>
+        <v>3.6779883417414001</v>
       </c>
       <c r="F67" s="98">
-        <v>5.1758092287622102</v>
+        <v>5.1676353302023301</v>
       </c>
       <c r="G67" s="99">
-        <v>11.7134746900874</v>
+        <v>11.695303946006</v>
       </c>
       <c r="H67" s="97">
-        <v>2.33021747190601</v>
+        <v>2.33436646035338</v>
       </c>
       <c r="I67" s="100">
-        <v>3.90487834183913</v>
+        <v>3.89783038689324</v>
       </c>
       <c r="J67" s="101">
         <v>15476.773509987701</v>
@@ -4864,25 +4861,25 @@
         <v>138</v>
       </c>
       <c r="C68" s="79">
-        <v>1.5892442968535001</v>
+        <v>1.5862497747176401</v>
       </c>
       <c r="D68" s="80">
-        <v>1.2210797561580899</v>
+        <v>1.22067223053747</v>
       </c>
       <c r="E68" s="80">
-        <v>2.5114555401617</v>
+        <v>2.5090126638824102</v>
       </c>
       <c r="F68" s="80">
-        <v>5.7653575893539299</v>
+        <v>5.7641810281207597</v>
       </c>
       <c r="G68" s="81">
-        <v>11.087137182527201</v>
+        <v>11.0801156972583</v>
       </c>
       <c r="H68" s="79">
-        <v>1.3223593665977</v>
+        <v>1.3230312174041901</v>
       </c>
       <c r="I68" s="82">
-        <v>2.3106299429487098</v>
+        <v>2.3162012636656901</v>
       </c>
       <c r="J68" s="83">
         <v>23372.503774728499</v>
@@ -4912,25 +4909,25 @@
         <v>139</v>
       </c>
       <c r="C69" s="79">
-        <v>1.18224896963786</v>
+        <v>1.18040120295659</v>
       </c>
       <c r="D69" s="80">
-        <v>0.92544206371670001</v>
+        <v>0.92615684159025002</v>
       </c>
       <c r="E69" s="80">
-        <v>5.05499043012599</v>
+        <v>4.6814078855348997</v>
       </c>
       <c r="F69" s="80">
-        <v>2.8472488356414898</v>
+        <v>2.6268604853904098</v>
       </c>
       <c r="G69" s="81">
-        <v>10.009930299122001</v>
+        <v>9.4148264154721701</v>
       </c>
       <c r="H69" s="79">
-        <v>1.12674627697865</v>
+        <v>1.1251763803345201</v>
       </c>
       <c r="I69" s="82">
-        <v>6.4881644011211099</v>
+        <v>6.2066896984350404</v>
       </c>
       <c r="J69" s="83">
         <v>2799.4557414924002</v>
@@ -4960,25 +4957,25 @@
         <v>140</v>
       </c>
       <c r="C70" s="79">
-        <v>0.91841542526274</v>
+        <v>1.00914215775988</v>
       </c>
       <c r="D70" s="80">
-        <v>6.3537873897749994E-2</v>
+        <v>6.2918161222990002E-2</v>
       </c>
       <c r="E70" s="80">
-        <v>3.2662115104397098</v>
+        <v>3.2782620053415901</v>
       </c>
       <c r="F70" s="80">
-        <v>0.93312261871372004</v>
+        <v>0.94098295729253001</v>
       </c>
       <c r="G70" s="81">
-        <v>5.1812874283139196</v>
+        <v>5.2913052816169897</v>
       </c>
       <c r="H70" s="79">
-        <v>-1.3415649822611</v>
+        <v>-1.3335246984166</v>
       </c>
       <c r="I70" s="82">
-        <v>5.0465328376565797</v>
+        <v>5.0769975799468696</v>
       </c>
       <c r="J70" s="83">
         <v>5258.8657742923997</v>
@@ -5008,25 +5005,25 @@
         <v>141</v>
       </c>
       <c r="C71" s="79">
-        <v>1.8661185819413499</v>
+        <v>1.8592478284733001</v>
       </c>
       <c r="D71" s="80">
-        <v>1.6395693378424101</v>
+        <v>1.6396304292583499</v>
       </c>
       <c r="E71" s="80">
-        <v>2.1840947084553402</v>
+        <v>2.16793640033069</v>
       </c>
       <c r="F71" s="80">
-        <v>4.4063712075563402</v>
+        <v>4.3973762588308301</v>
       </c>
       <c r="G71" s="81">
-        <v>10.0961538357954</v>
+        <v>10.0641909168932</v>
       </c>
       <c r="H71" s="79">
-        <v>1.2069879411365001</v>
+        <v>1.2071308073435201</v>
       </c>
       <c r="I71" s="82">
-        <v>1.6215358407021001</v>
+        <v>1.62104827270664</v>
       </c>
       <c r="J71" s="83">
         <v>13826.3822211648</v>
@@ -5056,25 +5053,25 @@
         <v>142</v>
       </c>
       <c r="C72" s="79">
-        <v>2.3314561527521298</v>
+        <v>2.33978427380793</v>
       </c>
       <c r="D72" s="80">
-        <v>0.50319850881767003</v>
+        <v>0.50325821376563995</v>
       </c>
       <c r="E72" s="80">
-        <v>6.2839437609678797</v>
+        <v>6.0642817163783098</v>
       </c>
       <c r="F72" s="80">
-        <v>2.9068615489490801</v>
+        <v>2.7657201295537699</v>
       </c>
       <c r="G72" s="81">
-        <v>12.0254599714868</v>
+        <v>11.673044333505599</v>
       </c>
       <c r="H72" s="79">
-        <v>2.2908746009665202</v>
+        <v>2.2947050236718098</v>
       </c>
       <c r="I72" s="82">
-        <v>4.77846007502494</v>
+        <v>4.6523902830044204</v>
       </c>
       <c r="J72" s="83">
         <v>7072.4751468000004</v>
@@ -5104,25 +5101,25 @@
         <v>143</v>
       </c>
       <c r="C73" s="79">
-        <v>5.4564170464575001</v>
+        <v>5.4385645744670699</v>
       </c>
       <c r="D73" s="80">
-        <v>-3.4410521498315001</v>
+        <v>-3.4317553555057998</v>
       </c>
       <c r="E73" s="80">
-        <v>2.0976608593619801</v>
+        <v>2.0866580354609598</v>
       </c>
       <c r="F73" s="80">
-        <v>0.92447135350167997</v>
+        <v>0.90945499398717999</v>
       </c>
       <c r="G73" s="81">
-        <v>5.0374971094896699</v>
+        <v>5.00292224840938</v>
       </c>
       <c r="H73" s="79">
-        <v>7.5423191603188799</v>
+        <v>7.51961330404548</v>
       </c>
       <c r="I73" s="82">
-        <v>2.88488429033873</v>
+        <v>2.8668763028231701</v>
       </c>
       <c r="J73" s="83">
         <v>45725.379977243698</v>
@@ -5152,25 +5149,25 @@
         <v>143</v>
       </c>
       <c r="C74" s="79">
-        <v>0.95686078764171001</v>
+        <v>0.96122365047459002</v>
       </c>
       <c r="D74" s="80">
-        <v>-0.1433987912487</v>
+        <v>-0.14321469514980001</v>
       </c>
       <c r="E74" s="80">
-        <v>0.73181632236548999</v>
+        <v>0.73947421057131002</v>
       </c>
       <c r="F74" s="80">
-        <v>3.6452006200573601</v>
+        <v>3.6700952398348501</v>
       </c>
       <c r="G74" s="81">
-        <v>5.1904789388158603</v>
+        <v>5.2275784057309904</v>
       </c>
       <c r="H74" s="79">
-        <v>1.19581611673564</v>
+        <v>1.2013378319868</v>
       </c>
       <c r="I74" s="82">
-        <v>1.8357967296414901</v>
+        <v>1.8417853689688299</v>
       </c>
       <c r="J74" s="83">
         <v>3705.4034696683998</v>
@@ -5200,25 +5197,25 @@
         <v>144</v>
       </c>
       <c r="C75" s="88">
-        <v>0.76235367941287002</v>
+        <v>0.71756014115799005</v>
       </c>
       <c r="D75" s="89">
-        <v>1.5306884304800001E-3</v>
+        <v>1.4883209628799999E-3</v>
       </c>
       <c r="E75" s="89">
-        <v>2.8163269935905002</v>
+        <v>2.8076246367878701</v>
       </c>
       <c r="F75" s="89">
-        <v>0.88706157941184005</v>
+        <v>0.88391431246927998</v>
       </c>
       <c r="G75" s="90">
-        <v>4.4672729408456897</v>
+        <v>4.4105874113780299</v>
       </c>
       <c r="H75" s="88">
-        <v>0.70056300992345999</v>
+        <v>0.65329407763493996</v>
       </c>
       <c r="I75" s="91">
-        <v>3.3053976964026801</v>
+        <v>3.32581524845489</v>
       </c>
       <c r="J75" s="92">
         <v>1153.0180118327</v>
@@ -5248,25 +5245,25 @@
         <v>145</v>
       </c>
       <c r="C76" s="97">
-        <v>4.1566743571151701</v>
+        <v>4.0615521371508398</v>
       </c>
       <c r="D76" s="98">
-        <v>1.01509529342076</v>
+        <v>0.99854870572382004</v>
       </c>
       <c r="E76" s="98">
-        <v>0.23180105188822001</v>
+        <v>0.23106813253124001</v>
       </c>
       <c r="F76" s="98">
-        <v>2.4121889742262401</v>
+        <v>2.4042600044770399</v>
       </c>
       <c r="G76" s="99">
-        <v>7.8157596766503898</v>
+        <v>7.6954289798829398</v>
       </c>
       <c r="H76" s="97">
-        <v>4.6999756182114698</v>
+        <v>4.5958894230799796</v>
       </c>
       <c r="I76" s="100">
-        <v>3.2502783179329402</v>
+        <v>3.1444315579248499</v>
       </c>
       <c r="J76" s="101">
         <v>175228.62043128599</v>
@@ -5296,25 +5293,25 @@
         <v>146</v>
       </c>
       <c r="C77" s="79">
-        <v>2.6425557347551498</v>
+        <v>2.6008512810117401</v>
       </c>
       <c r="D77" s="80">
-        <v>2.0443906789316801</v>
+        <v>2.0197572484768198</v>
       </c>
       <c r="E77" s="80">
-        <v>0.18691076086264999</v>
+        <v>0.18454031157098</v>
       </c>
       <c r="F77" s="80">
-        <v>0.82616369769664999</v>
+        <v>0.81503221797776004</v>
       </c>
       <c r="G77" s="81">
-        <v>5.7000208722461201</v>
+        <v>5.6201810590373</v>
       </c>
       <c r="H77" s="79">
-        <v>2.81041390708672</v>
+        <v>2.7687313687668098</v>
       </c>
       <c r="I77" s="82">
-        <v>2.0524251156512499</v>
+        <v>2.0197954165437499</v>
       </c>
       <c r="J77" s="83">
         <v>88148.933941900003</v>
@@ -5344,25 +5341,25 @@
         <v>146</v>
       </c>
       <c r="C78" s="79">
-        <v>0.99073626149150995</v>
+        <v>0.99183223778455998</v>
       </c>
       <c r="D78" s="80">
-        <v>6.6924034961018304</v>
+        <v>6.6476932689065702</v>
       </c>
       <c r="E78" s="80" t="s">
         <v>23</v>
       </c>
       <c r="F78" s="80">
-        <v>0.91423889784580004</v>
+        <v>0.91303058544464999</v>
       </c>
       <c r="G78" s="81" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="79">
-        <v>1.47559299255798</v>
+        <v>1.4872729471705901</v>
       </c>
       <c r="I78" s="82">
-        <v>8.2114675848143008</v>
+        <v>8.1874611175723206</v>
       </c>
       <c r="J78" s="83">
         <v>137541.29351186301</v>
@@ -5392,25 +5389,25 @@
         <v>147</v>
       </c>
       <c r="C79" s="88">
-        <v>1.3346125909870701</v>
+        <v>1.3293379090131801</v>
       </c>
       <c r="D79" s="89">
-        <v>4.4569026385004999</v>
+        <v>4.4215600442455996</v>
       </c>
       <c r="E79" s="89">
-        <v>0.15522562592097</v>
+        <v>0.15460577343797999</v>
       </c>
       <c r="F79" s="89">
-        <v>0.50610335080046998</v>
+        <v>0.50723529123093003</v>
       </c>
       <c r="G79" s="90">
-        <v>6.4528442062090097</v>
+        <v>6.4127390179276897</v>
       </c>
       <c r="H79" s="88">
-        <v>1.6993245450399099</v>
+        <v>1.69584654082897</v>
       </c>
       <c r="I79" s="91">
-        <v>4.8676684345104198</v>
+        <v>4.8415515583229398</v>
       </c>
       <c r="J79" s="92">
         <v>733165.88257886295</v>
@@ -5440,25 +5437,25 @@
         <v>148</v>
       </c>
       <c r="C80" s="97">
-        <v>0.71775723932744995</v>
+        <v>0.74165814719958001</v>
       </c>
       <c r="D80" s="98">
-        <v>1.1542162471766999</v>
+        <v>1.1537692097497501</v>
       </c>
       <c r="E80" s="98">
-        <v>0.68649182878068005</v>
+        <v>0.68989640736115998</v>
       </c>
       <c r="F80" s="98">
-        <v>2.9239739349746099</v>
+        <v>2.9310333752079401</v>
       </c>
       <c r="G80" s="99">
-        <v>5.4824392502594499</v>
+        <v>5.5163571395184201</v>
       </c>
       <c r="H80" s="97">
-        <v>8.8248182045349996E-2</v>
+        <v>7.9684418845079999E-2</v>
       </c>
       <c r="I80" s="100">
-        <v>2.2527563681673901</v>
+        <v>2.2588562794357001</v>
       </c>
       <c r="J80" s="101">
         <v>8082.5342823047004</v>
@@ -5488,25 +5485,25 @@
         <v>149</v>
       </c>
       <c r="C81" s="79">
-        <v>1.76573264525583</v>
+        <v>1.7780444683313199</v>
       </c>
       <c r="D81" s="80">
-        <v>0.24522299815383999</v>
+        <v>0.25176465853453001</v>
       </c>
       <c r="E81" s="80">
-        <v>0.72576334416041</v>
+        <v>0.81807831700130995</v>
       </c>
       <c r="F81" s="80">
-        <v>0.95309607377469996</v>
+        <v>0.93293484258345005</v>
       </c>
       <c r="G81" s="81">
-        <v>3.6898150613447802</v>
+        <v>3.7808222864505998</v>
       </c>
       <c r="H81" s="79">
-        <v>1.90200752542663</v>
+        <v>1.84790957311822</v>
       </c>
       <c r="I81" s="82">
-        <v>2.5090074541021101</v>
+        <v>2.4513799274402399</v>
       </c>
       <c r="J81" s="83">
         <v>89008.229686355597</v>
@@ -5536,25 +5533,25 @@
         <v>150</v>
       </c>
       <c r="C82" s="79">
-        <v>3.4004635956910199</v>
+        <v>3.3965575642282699</v>
       </c>
       <c r="D82" s="80">
-        <v>-0.4828348513454</v>
+        <v>-0.48191278165880003</v>
       </c>
       <c r="E82" s="80">
-        <v>3.2469375539026402</v>
+        <v>3.1914365341136199</v>
       </c>
       <c r="F82" s="80">
-        <v>4.1180299939117102</v>
+        <v>4.08648361129306</v>
       </c>
       <c r="G82" s="81">
-        <v>10.282596292159999</v>
+        <v>10.1925649279761</v>
       </c>
       <c r="H82" s="79">
-        <v>4.0323031867725199</v>
+        <v>4.0295245860987103</v>
       </c>
       <c r="I82" s="82">
-        <v>2.7359757486532299</v>
+        <v>2.7004419746072301</v>
       </c>
       <c r="J82" s="83">
         <v>74908.004120164594</v>
@@ -5584,25 +5581,25 @@
         <v>151</v>
       </c>
       <c r="C83" s="88">
-        <v>1.57516877822263</v>
+        <v>1.56334490527409</v>
       </c>
       <c r="D83" s="89">
-        <v>2.8233520403449202</v>
+        <v>2.8002091768081101</v>
       </c>
       <c r="E83" s="89">
-        <v>0.18502634838002999</v>
+        <v>0.18406024530147</v>
       </c>
       <c r="F83" s="89">
-        <v>1.17146384122701</v>
+        <v>1.17208772269765</v>
       </c>
       <c r="G83" s="90">
-        <v>5.7550110081745904</v>
+        <v>5.7197020500813203</v>
       </c>
       <c r="H83" s="88">
-        <v>1.96350753725825</v>
+        <v>1.9520786433377599</v>
       </c>
       <c r="I83" s="91">
-        <v>3.5998367902368802</v>
+        <v>3.57854000481644</v>
       </c>
       <c r="J83" s="92">
         <v>1253228.7380047401</v>
@@ -5632,25 +5629,25 @@
         <v>152</v>
       </c>
       <c r="C84" s="97">
-        <v>3.9631924821496498</v>
+        <v>3.9657139900778402</v>
       </c>
       <c r="D84" s="98">
-        <v>0.23642355229194001</v>
+        <v>0.23467434174056001</v>
       </c>
       <c r="E84" s="98">
-        <v>8.2265722534276708</v>
+        <v>8.0235864712834193</v>
       </c>
       <c r="F84" s="98">
-        <v>3.1944906903958898</v>
+        <v>3.0629962373845498</v>
       </c>
       <c r="G84" s="99">
-        <v>15.6206789782652</v>
+        <v>15.286971040486399</v>
       </c>
       <c r="H84" s="97">
-        <v>4.2978529644830701</v>
+        <v>4.2903585966945199</v>
       </c>
       <c r="I84" s="100">
-        <v>3.9133959062737298</v>
+        <v>3.7893831311423898</v>
       </c>
       <c r="J84" s="101">
         <v>16985.993549563598</v>
@@ -5686,7 +5683,7 @@
         <v>23</v>
       </c>
       <c r="E85" s="80">
-        <v>19.4260748596901</v>
+        <v>22.8111648869723</v>
       </c>
       <c r="F85" s="80" t="s">
         <v>23</v>
@@ -5728,25 +5725,25 @@
         <v>154</v>
       </c>
       <c r="C86" s="79">
-        <v>1.08131322647529</v>
+        <v>1.09149039745518</v>
       </c>
       <c r="D86" s="80">
-        <v>1.2023742102702799</v>
+        <v>1.1990283552126499</v>
       </c>
       <c r="E86" s="80">
-        <v>1.60518901407534</v>
+        <v>1.60327351346425</v>
       </c>
       <c r="F86" s="80">
-        <v>4.6240731738895304</v>
+        <v>4.6271001446625704</v>
       </c>
       <c r="G86" s="81">
-        <v>8.5129496247104406</v>
+        <v>8.5208924107946498</v>
       </c>
       <c r="H86" s="79">
-        <v>0.75737631243323</v>
+        <v>0.75781881889234004</v>
       </c>
       <c r="I86" s="82">
-        <v>2.5861594275225599</v>
+        <v>2.5818713993820399</v>
       </c>
       <c r="J86" s="83">
         <v>22112.994653533799</v>
@@ -5776,25 +5773,25 @@
         <v>155</v>
       </c>
       <c r="C87" s="79">
-        <v>1.65463922293195</v>
+        <v>1.6820252211289499</v>
       </c>
       <c r="D87" s="80">
-        <v>0.31286550053647999</v>
+        <v>0.31366084694358998</v>
       </c>
       <c r="E87" s="80">
-        <v>0.39562373284729002</v>
+        <v>0.39842789411537</v>
       </c>
       <c r="F87" s="80">
-        <v>4.2640070783512796</v>
+        <v>4.2586295328509003</v>
       </c>
       <c r="G87" s="81">
-        <v>6.6271355346669996</v>
+        <v>6.65274349503881</v>
       </c>
       <c r="H87" s="79">
-        <v>1.81037157140376</v>
+        <v>1.8104676895104901</v>
       </c>
       <c r="I87" s="82">
-        <v>3.1051964947434398</v>
+        <v>3.1210654760274301</v>
       </c>
       <c r="J87" s="83">
         <v>119163.758823606</v>
@@ -5824,25 +5821,25 @@
         <v>156</v>
       </c>
       <c r="C88" s="79">
-        <v>8.8048765972476808</v>
+        <v>8.7947449663975004</v>
       </c>
       <c r="D88" s="80">
-        <v>-5.6277338801261996</v>
+        <v>-5.6201254571797001</v>
       </c>
       <c r="E88" s="80">
-        <v>0.42648272275420002</v>
+        <v>0.42527614988438001</v>
       </c>
       <c r="F88" s="80">
-        <v>0.28679951711398999</v>
+        <v>0.28600924696814001</v>
       </c>
       <c r="G88" s="81">
-        <v>3.8904249569896399</v>
+        <v>3.8859049060703299</v>
       </c>
       <c r="H88" s="79">
-        <v>11.428809003200501</v>
+        <v>11.4260121602812</v>
       </c>
       <c r="I88" s="82">
-        <v>1.2681862638336201</v>
+        <v>1.26172264726315</v>
       </c>
       <c r="J88" s="83">
         <v>43734.650930971897</v>
@@ -5872,25 +5869,25 @@
         <v>157</v>
       </c>
       <c r="C89" s="79">
-        <v>1.6039416785726599</v>
+        <v>1.59282080386366</v>
       </c>
       <c r="D89" s="80">
-        <v>0.77485626847407996</v>
+        <v>0.77169908946208998</v>
       </c>
       <c r="E89" s="80">
-        <v>9.4740921321589996E-2</v>
+        <v>9.4202588319209996E-2</v>
       </c>
       <c r="F89" s="80">
-        <v>0.92664856232522996</v>
+        <v>0.92626753773028003</v>
       </c>
       <c r="G89" s="81">
-        <v>3.4001874306935602</v>
+        <v>3.3849900193752398</v>
       </c>
       <c r="H89" s="79">
-        <v>2.1779983253639101</v>
+        <v>2.1668038565722099</v>
       </c>
       <c r="I89" s="82">
-        <v>1.42490313373504</v>
+        <v>1.4147694337723999</v>
       </c>
       <c r="J89" s="83">
         <v>383313.50308933097</v>
@@ -5920,25 +5917,25 @@
         <v>158</v>
       </c>
       <c r="C90" s="88">
-        <v>1.5684916800986299</v>
+        <v>1.5473299590171199</v>
       </c>
       <c r="D90" s="89">
-        <v>4.8141229351394701</v>
+        <v>4.7677399052105001</v>
       </c>
       <c r="E90" s="89">
-        <v>4.0419468523283104</v>
+        <v>3.91638352565966</v>
       </c>
       <c r="F90" s="89">
-        <v>0.33887782066423999</v>
+        <v>0.33724877029784001</v>
       </c>
       <c r="G90" s="90">
-        <v>10.7634392882306</v>
+        <v>10.568702160185101</v>
       </c>
       <c r="H90" s="88">
-        <v>1.8390492023762901</v>
+        <v>1.8183189349311599</v>
       </c>
       <c r="I90" s="91">
-        <v>5.2701922708908704</v>
+        <v>5.2198839624380096</v>
       </c>
       <c r="J90" s="92">
         <v>840639.22054586106</v>
@@ -5968,25 +5965,25 @@
         <v>159</v>
       </c>
       <c r="C91" s="97">
-        <v>2.3297461055098401</v>
+        <v>2.3263429641719502</v>
       </c>
       <c r="D91" s="98">
-        <v>0.69198268782628003</v>
+        <v>0.67636230543069997</v>
       </c>
       <c r="E91" s="98">
-        <v>6.4168492109828099</v>
+        <v>6.27373251327072</v>
       </c>
       <c r="F91" s="98">
-        <v>2.7065681932456198</v>
+        <v>2.61740451650352</v>
       </c>
       <c r="G91" s="99">
-        <v>12.1451461975646</v>
+        <v>11.8938422993769</v>
       </c>
       <c r="H91" s="97">
-        <v>2.19542351879522</v>
+        <v>2.1936546429714401</v>
       </c>
       <c r="I91" s="100">
-        <v>4.4231016884538796</v>
+        <v>4.3102715653764303</v>
       </c>
       <c r="J91" s="101">
         <v>16054.985136741099</v>
@@ -6016,25 +6013,25 @@
         <v>160</v>
       </c>
       <c r="C92" s="79">
-        <v>1.78211402009592</v>
+        <v>1.77201838039895</v>
       </c>
       <c r="D92" s="80">
-        <v>-0.15579078413809999</v>
+        <v>-0.1556554611772</v>
       </c>
       <c r="E92" s="80">
-        <v>2.5791604545382798</v>
+        <v>2.6818486757059801</v>
       </c>
       <c r="F92" s="80">
-        <v>6.4039248193724996</v>
+        <v>6.3717182071582998</v>
       </c>
       <c r="G92" s="81">
-        <v>10.609408509868601</v>
+        <v>10.669929802085999</v>
       </c>
       <c r="H92" s="79">
-        <v>1.273499349068</v>
+        <v>1.2627240740497201</v>
       </c>
       <c r="I92" s="82">
-        <v>5.2819978353236996</v>
+        <v>5.2610489119708204</v>
       </c>
       <c r="J92" s="83">
         <v>9923.1496858394003</v>
@@ -6064,25 +6061,25 @@
         <v>161</v>
       </c>
       <c r="C93" s="79">
-        <v>3.1747752000166001</v>
+        <v>3.1043099287357299</v>
       </c>
       <c r="D93" s="80">
-        <v>11.412423279001899</v>
+        <v>11.1766266960653</v>
       </c>
       <c r="E93" s="80">
-        <v>4.8503473639136603</v>
+        <v>4.73406464455572</v>
       </c>
       <c r="F93" s="80">
-        <v>5.4715647796229101</v>
+        <v>5.3547301117593298</v>
       </c>
       <c r="G93" s="81">
-        <v>24.909110622555101</v>
+        <v>24.3697313811161</v>
       </c>
       <c r="H93" s="79">
-        <v>59.831990991507503</v>
+        <v>58.691820263621501</v>
       </c>
       <c r="I93" s="82">
-        <v>20.8563508241457</v>
+        <v>20.446911094626198</v>
       </c>
       <c r="J93" s="83">
         <v>615.59005868689997</v>
@@ -6112,25 +6109,25 @@
         <v>162</v>
       </c>
       <c r="C94" s="79">
-        <v>15.087009631796899</v>
+        <v>14.276857667656101</v>
       </c>
       <c r="D94" s="80">
-        <v>3.4011316964798399</v>
+        <v>3.2293222810035598</v>
       </c>
       <c r="E94" s="80">
-        <v>2.2214169741769298</v>
+        <v>2.1960901069370702</v>
       </c>
       <c r="F94" s="80">
-        <v>4.2108950164841996</v>
+        <v>4.1932619563323001</v>
       </c>
       <c r="G94" s="81">
-        <v>24.920453318937899</v>
+        <v>23.895532011928999</v>
       </c>
       <c r="H94" s="79">
-        <v>17.480973100120998</v>
+        <v>16.5056797773493</v>
       </c>
       <c r="I94" s="82">
-        <v>17.651037003526302</v>
+        <v>16.6411372419083</v>
       </c>
       <c r="J94" s="83">
         <v>107979.948950021</v>
@@ -6160,25 +6157,25 @@
         <v>163</v>
       </c>
       <c r="C95" s="79">
-        <v>2.5635118005498501</v>
+        <v>2.5658501268037099</v>
       </c>
       <c r="D95" s="80">
-        <v>1.5549966751553801</v>
+        <v>1.5113969322838601</v>
       </c>
       <c r="E95" s="80">
-        <v>6.2925700502998803</v>
+        <v>5.9524476355773004</v>
       </c>
       <c r="F95" s="80">
-        <v>2.3656265041372002</v>
+        <v>2.1380733459832402</v>
       </c>
       <c r="G95" s="81">
-        <v>12.776705030142301</v>
+        <v>12.167768040648101</v>
       </c>
       <c r="H95" s="79">
-        <v>2.3842727615654198</v>
+        <v>2.3949227152669801</v>
       </c>
       <c r="I95" s="82">
-        <v>4.0307332164201997</v>
+        <v>3.7286798582703802</v>
       </c>
       <c r="J95" s="83">
         <v>7800.0633207788997</v>
@@ -6208,25 +6205,25 @@
         <v>164</v>
       </c>
       <c r="C96" s="88">
-        <v>1.8344864540378201</v>
+        <v>1.82736588346133</v>
       </c>
       <c r="D96" s="89">
-        <v>1.1976894332635</v>
+        <v>1.19614072049817</v>
       </c>
       <c r="E96" s="89">
-        <v>1.3267258495660601</v>
+        <v>1.3161309455542201</v>
       </c>
       <c r="F96" s="89">
-        <v>6.7926994065536297</v>
+        <v>6.7366260660412998</v>
       </c>
       <c r="G96" s="90">
-        <v>11.151601143421001</v>
+        <v>11.076263615555</v>
       </c>
       <c r="H96" s="88">
-        <v>2.1010330552047898</v>
+        <v>2.09798290247448</v>
       </c>
       <c r="I96" s="91">
-        <v>3.6025228998730401</v>
+        <v>3.5938584851380799</v>
       </c>
       <c r="J96" s="92">
         <v>10685.926337172101</v>
@@ -6256,25 +6253,25 @@
         <v>165</v>
       </c>
       <c r="C97" s="97">
-        <v>1.8117882503392999</v>
+        <v>1.8252723916054501</v>
       </c>
       <c r="D97" s="98">
-        <v>0.90267553371527998</v>
+        <v>0.89621069802005005</v>
       </c>
       <c r="E97" s="98">
-        <v>3.64087507624583</v>
+        <v>3.5650131151654101</v>
       </c>
       <c r="F97" s="98">
-        <v>3.1025027090577102</v>
+        <v>3.0495742190706099</v>
       </c>
       <c r="G97" s="99">
-        <v>9.4578415693581199</v>
+        <v>9.3360704238615106</v>
       </c>
       <c r="H97" s="97">
-        <v>1.43666687427965</v>
+        <v>1.43799270456176</v>
       </c>
       <c r="I97" s="100">
-        <v>3.68910831174537</v>
+        <v>3.6372174737540299</v>
       </c>
       <c r="J97" s="101">
         <v>25257.045480346798</v>
@@ -6304,25 +6301,25 @@
         <v>166</v>
       </c>
       <c r="C98" s="88">
-        <v>0.82474182216842995</v>
+        <v>0.92905300430224003</v>
       </c>
       <c r="D98" s="89">
-        <v>0.38953537626007001</v>
+        <v>0.38824136838869</v>
       </c>
       <c r="E98" s="89">
-        <v>1.1781269277923101</v>
+        <v>1.2395625722724799</v>
       </c>
       <c r="F98" s="89">
-        <v>7.2260599530704104</v>
+        <v>7.2119226118850897</v>
       </c>
       <c r="G98" s="90">
-        <v>9.6184640792912202</v>
+        <v>9.7687795568485001</v>
       </c>
       <c r="H98" s="88">
-        <v>0.97242209333967</v>
+        <v>0.96699565903282003</v>
       </c>
       <c r="I98" s="91">
-        <v>3.2107298353188698</v>
+        <v>3.2072596734599599</v>
       </c>
       <c r="J98" s="92">
         <v>15372.6835205642</v>
@@ -6441,8 +6438,8 @@
       <c r="P103" s="107"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>171</v>
+      <c r="A104" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C104" s="107"/>
       <c r="D104" s="107"/>
@@ -6493,7 +6490,7 @@
     </row>
     <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C107" s="107"/>
       <c r="D107" s="107"/>
@@ -6529,7 +6526,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C109" s="107"/>
       <c r="D109" s="107"/>
@@ -6548,7 +6545,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="107"/>
       <c r="D110" s="107"/>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C112" s="107"/>
       <c r="D112" s="107"/>
@@ -6603,7 +6600,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C113" s="107"/>
       <c r="D113" s="107"/>
@@ -6639,11 +6636,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CBBDE053-2680-4CE9-ACC0-7238CD2C1773}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2996624C-041F-4E12-92AD-FD47AC47DAF8}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3E9FDC98-D668-48E2-850F-A87119BC5ADD}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{3004D76B-312B-4A7B-A087-D498709752C4}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{DF8E8A65-6AEF-44D7-B612-C4B20F856D70}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{915A93D4-5AA8-4160-8A79-3F1E0AB8AC19}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{565E4D0B-884B-4BCF-9915-B660B51FF235}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{F244D5F9-C5C9-4E27-94CF-0A31484EFB76}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{62F1E87C-E8BC-4F25-B293-DA26A4108199}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{36FC0363-506E-43B1-811B-2198B45B283C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{196A91CB-6B06-474B-8249-E3B62D3F01B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF39D0F7-122B-4C17-8EDC-C5A092416A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{AC0963E9-7837-4325-BDED-3551EDDC14B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD3514D-42DD-4298-BD4E-13D56D519976}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab20'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="177">
   <si>
     <t>Tableau 20 : Apports financiers extérieurs</t>
   </si>
@@ -278,7 +278,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -356,7 +356,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -410,7 +410,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
+  </si>
+  <si>
+    <t>Source : Comité d'aide au développement de l'OCDE (mis à jour le 11/04/2023), Centre de données en ligne UNCTADStat (consulté le 21/12/2022), Global Knowledge Partnership on Migration and Development (Banque mondiale-KNOMAD) novembre 2022, Statistiques de la balance des paiements du FMI (consulté le 19 décembre 2022), Base de données des perspectives de l'économie mondiale du FMI avril 2023.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1537,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCDA97E-D27E-42A6-9F05-DA00274F2DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38BF6F-2DE0-45DE-BD97-319A04DD35D7}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3173,49 +3176,49 @@
       <c r="A34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="49">
         <v>1.1373050030335901</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="D34" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="50">
         <v>35.511885373241199</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="50">
         <v>20.825318277770702</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="51">
         <v>57.474508654045501</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="24">
+      <c r="H34" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="52">
         <v>21.461198141689</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="53">
         <v>67.5</v>
       </c>
-      <c r="K34" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="25">
+      <c r="K34" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="53">
         <v>2107.66</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="53">
         <v>1236</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="54">
         <v>3411.16</v>
       </c>
-      <c r="O34" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34" s="28">
+      <c r="O34" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="56">
         <v>1273.74</v>
       </c>
     </row>
@@ -4323,49 +4326,49 @@
       <c r="A57" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="30">
         <v>1.09742672343351</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="31">
         <v>1.38170631123896</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="31">
         <v>0.76053586631722003</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="31">
         <v>4.4137585491677003</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="32">
         <v>7.6534274501573902</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H57" s="30">
         <v>0.75057266274500001</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="33">
         <v>2.2391110971079602</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="34">
         <v>4844.3080528</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="34">
         <v>6099.1871869111001</v>
       </c>
-      <c r="L57" s="53">
+      <c r="L57" s="34">
         <v>3357.19</v>
       </c>
-      <c r="M57" s="53">
+      <c r="M57" s="34">
         <v>19483.4020589106</v>
       </c>
-      <c r="N57" s="54">
+      <c r="N57" s="35">
         <v>33784.0872986217</v>
       </c>
-      <c r="O57" s="55">
+      <c r="O57" s="36">
         <v>3313.21</v>
       </c>
-      <c r="P57" s="56">
+      <c r="P57" s="37">
         <v>9883.9801211484901</v>
       </c>
     </row>
@@ -4909,46 +4912,46 @@
         <v>139</v>
       </c>
       <c r="C69" s="79">
-        <v>1.18040120295659</v>
+        <v>1.51327883955708</v>
       </c>
       <c r="D69" s="80">
-        <v>0.92615684159025002</v>
+        <v>0.72656260188280997</v>
       </c>
       <c r="E69" s="80">
-        <v>4.6814078855348997</v>
+        <v>4.9276778698719097</v>
       </c>
       <c r="F69" s="80">
-        <v>2.6268604853904098</v>
+        <v>2.5843251887982501</v>
       </c>
       <c r="G69" s="81">
-        <v>9.4148264154721701</v>
+        <v>9.7518445001100496</v>
       </c>
       <c r="H69" s="79">
-        <v>1.1251763803345201</v>
+        <v>1.52041912790205</v>
       </c>
       <c r="I69" s="82">
-        <v>6.2066896984350404</v>
+        <v>6.5941195910888197</v>
       </c>
       <c r="J69" s="83">
-        <v>2799.4557414924002</v>
+        <v>4669.4882442923999</v>
       </c>
       <c r="K69" s="83">
-        <v>1496.9826514614499</v>
+        <v>1494.32168469509</v>
       </c>
       <c r="L69" s="83">
-        <v>12238.5</v>
+        <v>15774.18</v>
       </c>
       <c r="M69" s="83">
-        <v>7097.44263854769</v>
+        <v>8428.3237526352696</v>
       </c>
       <c r="N69" s="84">
-        <v>23632.3810315015</v>
+        <v>30366.3136816228</v>
       </c>
       <c r="O69" s="85">
-        <v>1775.7036753771699</v>
+        <v>3453.3774651127801</v>
       </c>
       <c r="P69" s="86">
-        <v>11113.225875292301</v>
+        <v>15653.7539360468</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -5293,19 +5296,19 @@
         <v>146</v>
       </c>
       <c r="C77" s="79">
-        <v>2.6008512810117401</v>
+        <v>2.6965275621193698</v>
       </c>
       <c r="D77" s="80">
         <v>2.0197572484768198</v>
       </c>
       <c r="E77" s="80">
-        <v>0.18454031157098</v>
+        <v>0.17671136026486001</v>
       </c>
       <c r="F77" s="80">
         <v>0.81503221797776004</v>
       </c>
       <c r="G77" s="81">
-        <v>5.6201810590373</v>
+        <v>5.7080283888388097</v>
       </c>
       <c r="H77" s="79">
         <v>2.7687313687668098</v>
@@ -5314,19 +5317,19 @@
         <v>2.0197954165437499</v>
       </c>
       <c r="J77" s="83">
-        <v>88148.933941900003</v>
+        <v>88910.267275200007</v>
       </c>
       <c r="K77" s="83">
         <v>71098.655754406398</v>
       </c>
       <c r="L77" s="83">
-        <v>4900.2</v>
+        <v>4627.08</v>
       </c>
       <c r="M77" s="83">
         <v>24325.567896598401</v>
       </c>
       <c r="N77" s="84">
-        <v>188473.357592905</v>
+        <v>188961.57092620499</v>
       </c>
       <c r="O77" s="85">
         <v>91764.151631632107</v>
@@ -5437,46 +5440,46 @@
         <v>148</v>
       </c>
       <c r="C80" s="97">
-        <v>0.74165814719958001</v>
+        <v>0.28710519427525</v>
       </c>
       <c r="D80" s="98">
-        <v>1.1537692097497501</v>
+        <v>6.1921681134500003E-6</v>
       </c>
       <c r="E80" s="98">
-        <v>0.68989640736115998</v>
+        <v>0.81731710295307003</v>
       </c>
       <c r="F80" s="98">
-        <v>2.9310333752079401</v>
+        <v>0.98684404710936002</v>
       </c>
       <c r="G80" s="99">
-        <v>5.5163571395184201</v>
+        <v>2.09127253650579</v>
       </c>
       <c r="H80" s="97">
-        <v>7.9684418845079999E-2</v>
+        <v>-0.9107816051216</v>
       </c>
       <c r="I80" s="100">
-        <v>2.2588562794357001</v>
+        <v>2.4380471240906898</v>
       </c>
       <c r="J80" s="101">
-        <v>8082.5342823047004</v>
+        <v>3305.7262295046999</v>
       </c>
       <c r="K80" s="101">
-        <v>6099.1940740789996</v>
+        <v>6.8871679038999996E-3</v>
       </c>
       <c r="L80" s="101">
-        <v>5749.17</v>
+        <v>4499.6400000000003</v>
       </c>
       <c r="M80" s="101">
-        <v>21749.933608532399</v>
+        <v>3502.53154962177</v>
       </c>
       <c r="N80" s="102">
-        <v>41680.831964916099</v>
+        <v>11307.9046662944</v>
       </c>
       <c r="O80" s="103">
-        <v>986.80255746140097</v>
+        <v>-2326.4074425386002</v>
       </c>
       <c r="P80" s="104">
-        <v>15737.148566141401</v>
+        <v>7126.9084449928696</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
@@ -5533,46 +5536,46 @@
         <v>150</v>
       </c>
       <c r="C82" s="79">
-        <v>3.3965575642282699</v>
+        <v>2.9842536520177401</v>
       </c>
       <c r="D82" s="80">
-        <v>-0.48191278165880003</v>
+        <v>-8.3234868015199998E-2</v>
       </c>
       <c r="E82" s="80">
-        <v>3.1914365341136199</v>
+        <v>2.7218435374577301</v>
       </c>
       <c r="F82" s="80">
-        <v>4.08648361129306</v>
+        <v>4.1294425424134502</v>
       </c>
       <c r="G82" s="81">
-        <v>10.1925649279761</v>
+        <v>9.75230486387375</v>
       </c>
       <c r="H82" s="79">
-        <v>4.0295245860987103</v>
+        <v>3.3688839329938398</v>
       </c>
       <c r="I82" s="82">
-        <v>2.7004419746072301</v>
+        <v>2.5872996924920799</v>
       </c>
       <c r="J82" s="83">
-        <v>74908.004120164594</v>
+        <v>79684.812172964594</v>
       </c>
       <c r="K82" s="83">
-        <v>-15769.456163594999</v>
+        <v>-9670.2689766842996</v>
       </c>
       <c r="L82" s="83">
-        <v>59262.85</v>
+        <v>60512.38</v>
       </c>
       <c r="M82" s="83">
-        <v>74408.296860357004</v>
+        <v>92655.698919267597</v>
       </c>
       <c r="N82" s="84">
-        <v>192809.694816926</v>
+        <v>223182.622115548</v>
       </c>
       <c r="O82" s="85">
-        <v>76884.936930546406</v>
+        <v>80198.146930546398</v>
       </c>
       <c r="P82" s="86">
-        <v>42820.721479346903</v>
+        <v>51430.961600495299</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5629,46 +5632,46 @@
         <v>152</v>
       </c>
       <c r="C84" s="97">
-        <v>3.9657139900778402</v>
+        <v>3.6374287074057698</v>
       </c>
       <c r="D84" s="98">
-        <v>0.23467434174056001</v>
+        <v>0.63438055125051995</v>
       </c>
       <c r="E84" s="98">
-        <v>8.0235864712834193</v>
+        <v>7.84991411932715</v>
       </c>
       <c r="F84" s="98">
-        <v>3.0629962373845498</v>
+        <v>2.9522167416999801</v>
       </c>
       <c r="G84" s="99">
-        <v>15.286971040486399</v>
+        <v>15.0739401196834</v>
       </c>
       <c r="H84" s="97">
-        <v>4.2903585966945199</v>
+        <v>3.7427216219185699</v>
       </c>
       <c r="I84" s="100">
-        <v>3.7893831311423898</v>
+        <v>4.4585777752550397</v>
       </c>
       <c r="J84" s="101">
-        <v>16985.993549563598</v>
+        <v>16529.2635764636</v>
       </c>
       <c r="K84" s="101">
-        <v>508.80094117021099</v>
+        <v>1447.5282172213399</v>
       </c>
       <c r="L84" s="101">
-        <v>33491.32</v>
+        <v>34562.080000000002</v>
       </c>
       <c r="M84" s="101">
-        <v>13129.2219175684</v>
+        <v>13370.910330721599</v>
       </c>
       <c r="N84" s="102">
-        <v>64115.336408302202</v>
+        <v>65909.7821244066</v>
       </c>
       <c r="O84" s="103">
-        <v>13921.1223523679</v>
+        <v>13098.0396164182</v>
       </c>
       <c r="P84" s="104">
-        <v>11842.139538600401</v>
+        <v>14861.506007577</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
@@ -5725,46 +5728,46 @@
         <v>154</v>
       </c>
       <c r="C86" s="79">
-        <v>1.09149039745518</v>
+        <v>1.1351810124637201</v>
       </c>
       <c r="D86" s="80">
-        <v>1.1990283552126499</v>
+        <v>1.1458862310186899</v>
       </c>
       <c r="E86" s="80">
-        <v>1.60327351346425</v>
+        <v>1.55850680756045</v>
       </c>
       <c r="F86" s="80">
-        <v>4.6271001446625704</v>
+        <v>4.6762991982203301</v>
       </c>
       <c r="G86" s="81">
-        <v>8.5208924107946498</v>
+        <v>8.5158732492631994</v>
       </c>
       <c r="H86" s="79">
-        <v>0.75781881889234004</v>
+        <v>0.82623000200950003</v>
       </c>
       <c r="I86" s="82">
-        <v>2.5818713993820399</v>
+        <v>2.4128981373432699</v>
       </c>
       <c r="J86" s="83">
-        <v>22112.994653533799</v>
+        <v>22569.724626633801</v>
       </c>
       <c r="K86" s="83">
-        <v>16374.816465808701</v>
+        <v>15436.0891897576</v>
       </c>
       <c r="L86" s="83">
-        <v>29454.37</v>
+        <v>28383.61</v>
       </c>
       <c r="M86" s="83">
-        <v>81702.245797866693</v>
+        <v>81460.557384713393</v>
       </c>
       <c r="N86" s="84">
-        <v>149644.426917209</v>
+        <v>147849.98120110499</v>
       </c>
       <c r="O86" s="85">
-        <v>12685.8724490802</v>
+        <v>13508.955185029799</v>
       </c>
       <c r="P86" s="86">
-        <v>41266.355137501603</v>
+        <v>38246.988668525097</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
@@ -5773,46 +5776,46 @@
         <v>155</v>
       </c>
       <c r="C87" s="79">
-        <v>1.6820252211289499</v>
+        <v>1.6814271499307301</v>
       </c>
       <c r="D87" s="80">
-        <v>0.31366084694358998</v>
+        <v>0.31810861600083001</v>
       </c>
       <c r="E87" s="80">
-        <v>0.39842789411537</v>
+        <v>0.39795917852585999</v>
       </c>
       <c r="F87" s="80">
-        <v>4.2586295328509003</v>
+        <v>4.2584117087990299</v>
       </c>
       <c r="G87" s="81">
-        <v>6.65274349503881</v>
+        <v>6.6559066532564497</v>
       </c>
       <c r="H87" s="79">
-        <v>1.8104676895104901</v>
+        <v>1.8098163404808001</v>
       </c>
       <c r="I87" s="82">
-        <v>3.1210654760274301</v>
+        <v>3.1174084655052599</v>
       </c>
       <c r="J87" s="83">
-        <v>119163.758823606</v>
+        <v>119308.99195780601</v>
       </c>
       <c r="K87" s="83">
-        <v>17850.8884837019</v>
+        <v>19228.405080276301</v>
       </c>
       <c r="L87" s="83">
-        <v>29109.119999999999</v>
+        <v>30429.82</v>
       </c>
       <c r="M87" s="83">
-        <v>280951.12653795001</v>
+        <v>287209.29664095299</v>
       </c>
       <c r="N87" s="84">
-        <v>447074.89384525799</v>
+        <v>456176.51367903501</v>
       </c>
       <c r="O87" s="85">
-        <v>118157.878771173</v>
+        <v>118624.982667713</v>
       </c>
       <c r="P87" s="86">
-        <v>195463.19697715301</v>
+        <v>189590.902264845</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
@@ -5869,46 +5872,46 @@
         <v>157</v>
       </c>
       <c r="C89" s="79">
-        <v>1.59282080386366</v>
+        <v>1.5688842946884201</v>
       </c>
       <c r="D89" s="80">
-        <v>0.77169908946208998</v>
+        <v>0.74543296815672999</v>
       </c>
       <c r="E89" s="80">
-        <v>9.4202588319209996E-2</v>
+        <v>9.4438509363589995E-2</v>
       </c>
       <c r="F89" s="80">
-        <v>0.92626753773028003</v>
+        <v>0.89609586035772004</v>
       </c>
       <c r="G89" s="81">
-        <v>3.3849900193752398</v>
+        <v>3.3048516325664599</v>
       </c>
       <c r="H89" s="79">
-        <v>2.1668038565722099</v>
+        <v>2.14108620481686</v>
       </c>
       <c r="I89" s="82">
-        <v>1.4147694337723999</v>
+        <v>1.3996751433230299</v>
       </c>
       <c r="J89" s="83">
-        <v>383313.50308933097</v>
+        <v>372737.11317193299</v>
       </c>
       <c r="K89" s="83">
-        <v>221245.35691116599</v>
+        <v>211924.98088836999</v>
       </c>
       <c r="L89" s="83">
-        <v>18217.77</v>
+        <v>16857.07</v>
       </c>
       <c r="M89" s="83">
-        <v>224227.65528635401</v>
+        <v>208244.05450639699</v>
       </c>
       <c r="N89" s="84">
-        <v>847004.28528685099</v>
+        <v>809763.2185667</v>
       </c>
       <c r="O89" s="85">
-        <v>567423.11666825705</v>
+        <v>553900.21728234598</v>
       </c>
       <c r="P89" s="86">
-        <v>327872.85983095202</v>
+        <v>325092.83516322199</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5917,46 +5920,46 @@
         <v>158</v>
       </c>
       <c r="C90" s="88">
-        <v>1.5473299590171199</v>
+        <v>1.56460121754489</v>
       </c>
       <c r="D90" s="89">
-        <v>4.7677399052105001</v>
+        <v>4.7374617042655496</v>
       </c>
       <c r="E90" s="89">
-        <v>3.91638352565966</v>
+        <v>0.16583510043134</v>
       </c>
       <c r="F90" s="89">
-        <v>0.33724877029784001</v>
+        <v>0.36709999804824001</v>
       </c>
       <c r="G90" s="90">
-        <v>10.568702160185101</v>
+        <v>6.8349980202900298</v>
       </c>
       <c r="H90" s="88">
-        <v>1.8183189349311599</v>
+        <v>1.8417994785607501</v>
       </c>
       <c r="I90" s="91">
-        <v>5.2198839624380096</v>
+        <v>5.1862699685415397</v>
       </c>
       <c r="J90" s="92">
-        <v>840639.22054586106</v>
+        <v>851070.37732905895</v>
       </c>
       <c r="K90" s="92">
-        <v>2903902.10719802</v>
+        <v>2911844.9666242399</v>
       </c>
       <c r="L90" s="92">
-        <v>89.68</v>
+        <v>129.68</v>
       </c>
       <c r="M90" s="92">
-        <v>172261.63906077499</v>
+        <v>181987.06973772901</v>
       </c>
       <c r="N90" s="93">
-        <v>3916892.6468046498</v>
+        <v>3945032.0936910301</v>
       </c>
       <c r="O90" s="94">
-        <v>942896.70977060602</v>
+        <v>955952.50525997696</v>
       </c>
       <c r="P90" s="95">
-        <v>2977602.9057856002</v>
+        <v>2986255.22516564</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
@@ -6109,7 +6112,7 @@
         <v>162</v>
       </c>
       <c r="C94" s="79">
-        <v>14.276857667656101</v>
+        <v>14.9835775325241</v>
       </c>
       <c r="D94" s="80">
         <v>3.2293222810035598</v>
@@ -6121,7 +6124,7 @@
         <v>4.1932619563323001</v>
       </c>
       <c r="G94" s="81">
-        <v>23.895532011928999</v>
+        <v>24.602251876796998</v>
       </c>
       <c r="H94" s="79">
         <v>16.5056797773493</v>
@@ -6130,7 +6133,7 @@
         <v>16.6411372419083</v>
       </c>
       <c r="J94" s="83">
-        <v>107979.948950021</v>
+        <v>106213.991503212</v>
       </c>
       <c r="K94" s="83">
         <v>19388.309396441698</v>
@@ -6142,7 +6145,7 @@
         <v>21311.448627125399</v>
       </c>
       <c r="N94" s="84">
-        <v>154117.106973588</v>
+        <v>152351.14952677899</v>
       </c>
       <c r="O94" s="85">
         <v>112119.168041507</v>
@@ -6163,7 +6166,7 @@
         <v>1.5113969322838601</v>
       </c>
       <c r="E95" s="80">
-        <v>5.9524476355773004</v>
+        <v>5.9524476355772897</v>
       </c>
       <c r="F95" s="80">
         <v>2.1380733459832402</v>
@@ -6253,46 +6256,46 @@
         <v>165</v>
       </c>
       <c r="C97" s="97">
-        <v>1.8252723916054501</v>
+        <v>1.8190956117673101</v>
       </c>
       <c r="D97" s="98">
-        <v>0.89621069802005005</v>
+        <v>0.98331820119424995</v>
       </c>
       <c r="E97" s="98">
-        <v>3.5650131151654101</v>
+        <v>3.5806269247697902</v>
       </c>
       <c r="F97" s="98">
-        <v>3.0495742190706099</v>
+        <v>3.0232511862690798</v>
       </c>
       <c r="G97" s="99">
-        <v>9.3360704238615106</v>
+        <v>9.4062919240004295</v>
       </c>
       <c r="H97" s="97">
-        <v>1.43799270456176</v>
+        <v>1.44670933907934</v>
       </c>
       <c r="I97" s="100">
-        <v>3.6372174737540299</v>
+        <v>3.6198534262834099</v>
       </c>
       <c r="J97" s="101">
-        <v>25257.045480346798</v>
+        <v>25499.395600239201</v>
       </c>
       <c r="K97" s="101">
-        <v>7995.9292405641299</v>
+        <v>8951.5245118268103</v>
       </c>
       <c r="L97" s="101">
-        <v>46650.76</v>
+        <v>47494.35</v>
       </c>
       <c r="M97" s="101">
-        <v>40344.936638982203</v>
+        <v>40549.222534585002</v>
       </c>
       <c r="N97" s="102">
-        <v>120248.67135989299</v>
+        <v>122494.49264665099</v>
       </c>
       <c r="O97" s="103">
-        <v>14566.2249063703</v>
+        <v>14912.2101420503</v>
       </c>
       <c r="P97" s="104">
-        <v>36253.604895451201</v>
+        <v>36714.757949057297</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6301,46 +6304,46 @@
         <v>166</v>
       </c>
       <c r="C98" s="88">
-        <v>0.92905300430224003</v>
+        <v>0.95741497876546999</v>
       </c>
       <c r="D98" s="89">
-        <v>0.38824136838869</v>
+        <v>0.387392297941</v>
       </c>
       <c r="E98" s="89">
-        <v>1.2395625722724799</v>
+        <v>1.22358417503261</v>
       </c>
       <c r="F98" s="89">
-        <v>7.2119226118850897</v>
+        <v>7.0028450885262501</v>
       </c>
       <c r="G98" s="90">
-        <v>9.7687795568485001</v>
+        <v>9.5712365402653408</v>
       </c>
       <c r="H98" s="88">
-        <v>0.96699565903282003</v>
+        <v>0.96896921420226001</v>
       </c>
       <c r="I98" s="91">
-        <v>3.2072596734599599</v>
+        <v>3.2033965116730498</v>
       </c>
       <c r="J98" s="92">
-        <v>15372.6835205642</v>
+        <v>16910.5066277642</v>
       </c>
       <c r="K98" s="92">
         <v>4312.2249860585498</v>
       </c>
       <c r="L98" s="92">
-        <v>36597.57</v>
+        <v>36877.980000000003</v>
       </c>
       <c r="M98" s="92">
-        <v>89713.654150200004</v>
+        <v>89883.419029881203</v>
       </c>
       <c r="N98" s="93">
-        <v>145996.132656823</v>
+        <v>147984.130643704</v>
       </c>
       <c r="O98" s="94">
-        <v>11265.652892406</v>
+        <v>11334.4942674058</v>
       </c>
       <c r="P98" s="95">
-        <v>33994.773777283801</v>
+        <v>34044.705933990597</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
@@ -6438,8 +6441,8 @@
       <c r="P103" s="107"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A104" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C104" s="107"/>
       <c r="D104" s="107"/>
@@ -6490,7 +6493,7 @@
     </row>
     <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C107" s="107"/>
       <c r="D107" s="107"/>
@@ -6526,7 +6529,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C109" s="107"/>
       <c r="D109" s="107"/>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C110" s="107"/>
       <c r="D110" s="107"/>
@@ -6581,7 +6584,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C112" s="107"/>
       <c r="D112" s="107"/>
@@ -6600,7 +6603,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C113" s="107"/>
       <c r="D113" s="107"/>
@@ -6636,11 +6639,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{915A93D4-5AA8-4160-8A79-3F1E0AB8AC19}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{565E4D0B-884B-4BCF-9915-B660B51FF235}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{F244D5F9-C5C9-4E27-94CF-0A31484EFB76}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{62F1E87C-E8BC-4F25-B293-DA26A4108199}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{36FC0363-506E-43B1-811B-2198B45B283C}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{0FACCDB3-8E10-4381-A00A-57D41DD51169}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3D9C0B9E-392E-4D3E-B3FE-9B3A0F0B22DA}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6393E8D2-DDDD-488C-90A1-644EF3C599F1}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{54C8B139-46CE-467F-8974-7CB68383510B}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{ACCFD4BA-2A86-452F-B051-EEC2A69C9C30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF39D0F7-122B-4C17-8EDC-C5A092416A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2DCEE3-4858-4B12-A6BA-A61EE1F46CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD3514D-42DD-4298-BD4E-13D56D519976}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2588AD47-6DC8-413A-8B80-66386D958FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -1540,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38BF6F-2DE0-45DE-BD97-319A04DD35D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC1EF8-24F0-4786-810B-48CB94FCF6AC}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6639,11 +6639,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{0FACCDB3-8E10-4381-A00A-57D41DD51169}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3D9C0B9E-392E-4D3E-B3FE-9B3A0F0B22DA}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6393E8D2-DDDD-488C-90A1-644EF3C599F1}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{54C8B139-46CE-467F-8974-7CB68383510B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{ACCFD4BA-2A86-452F-B051-EEC2A69C9C30}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{AEC675B9-5815-45B8-B6FA-69E1236D1AF3}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{94AD1245-EF2D-4319-9833-CBD484660192}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EA2CB40F-24EE-4EC0-9442-8EAE7E9EE01B}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{00D8E95F-441F-4C75-9E12-2024061EBFAB}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{D00D6829-F0A0-4EC7-8431-7E67930EF490}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2DCEE3-4858-4B12-A6BA-A61EE1F46CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A8362D-5FD5-44CA-AF74-A62FB1D2FA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2588AD47-6DC8-413A-8B80-66386D958FEF}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{53EAF39B-1533-4CBD-8FD0-239B269D3222}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -1540,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC1EF8-24F0-4786-810B-48CB94FCF6AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D98D48-9575-4E46-A0ED-17B990E1D7BA}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6639,11 +6639,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{AEC675B9-5815-45B8-B6FA-69E1236D1AF3}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{94AD1245-EF2D-4319-9833-CBD484660192}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EA2CB40F-24EE-4EC0-9442-8EAE7E9EE01B}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{00D8E95F-441F-4C75-9E12-2024061EBFAB}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{D00D6829-F0A0-4EC7-8431-7E67930EF490}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5F00EA25-1F5A-49F7-87BF-D1EA361B723D}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1217E1CA-FD82-4983-B8F4-278EAF4C2156}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D646B19A-E9FD-467F-8685-E1AEE46A498B}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{4C7AB234-D056-4B45-AD00-A79F287B0615}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{0CB6A4BE-9B9F-4713-819B-E033E3D3D950}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A8362D-5FD5-44CA-AF74-A62FB1D2FA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D25807A-CE7E-42AF-BFB0-4133C24E1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{53EAF39B-1533-4CBD-8FD0-239B269D3222}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{468D0366-91CD-44A7-AB24-7610D71C089A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="178">
   <si>
     <t>Tableau 20 : Apports financiers extérieurs</t>
   </si>
@@ -557,16 +557,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D98D48-9575-4E46-A0ED-17B990E1D7BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED6E314-4A32-43DB-8385-21DE11ABB8D2}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6529,7 +6532,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" s="107"/>
       <c r="D109" s="107"/>
@@ -6548,7 +6551,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="107"/>
       <c r="D110" s="107"/>
@@ -6566,7 +6569,9 @@
       <c r="P110" s="107"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C111" s="107"/>
       <c r="D111" s="107"/>
       <c r="E111" s="107"/>
@@ -6584,7 +6589,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" s="107"/>
       <c r="D112" s="107"/>
@@ -6603,7 +6608,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="107"/>
       <c r="D113" s="107"/>
@@ -6639,13 +6644,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5F00EA25-1F5A-49F7-87BF-D1EA361B723D}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1217E1CA-FD82-4983-B8F4-278EAF4C2156}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D646B19A-E9FD-467F-8685-E1AEE46A498B}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{4C7AB234-D056-4B45-AD00-A79F287B0615}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0CB6A4BE-9B9F-4713-819B-E033E3D3D950}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8AC3978C-F6E3-43CF-BB77-AC71441F635E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{210890F8-5222-4004-A92E-4EB036E95D25}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{481906A0-B648-4C48-81AC-7EE38A68AECB}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{239CA99A-2F69-4980-AA64-A141B336B507}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{2C0BAC52-207C-4533-B5B2-6A77A5F4C6C1}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{D0DCC60F-A3E4-4205-BA1D-43CEE06D4BC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D25807A-CE7E-42AF-BFB0-4133C24E1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{008C6540-D16A-4952-AF15-9348EC274984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{468D0366-91CD-44A7-AB24-7610D71C089A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{29AB8DB3-4F8C-4B60-9277-3A20EA4DAE71}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab20'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
   <si>
     <t>Tableau 20 : Apports financiers extérieurs</t>
   </si>
@@ -551,7 +551,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Comité d'aide au développement de l'OCDE (mis à jour le 11/04/2023), Centre de données en ligne UNCTADStat (consulté le 21/12/2022), Global Knowledge Partnership on Migration and Development (Banque mondiale-KNOMAD) novembre 2022, Statistiques de la balance des paiements du FMI (consulté le 19 décembre 2022), Base de données des perspectives de l'économie mondiale du FMI avril 2023.</t>
+    <t>Source : Comité d'aide au développement de l'OCDE (mis à jour le 27/10/2023), Centre de données en ligne UNCTADStat (mis à jour 22/09/2023), Global Knowledge Partnership on Migration and Development (Banque mondiale-KNOMAD) juin 2023, Statistiques de la balance des paiements du FMI (mis à jour le 25 octobre, 2022), Base de données des perspectives de l'économie mondiale du FMI octobre 2023.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1543,20 +1543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED6E314-4A32-43DB-8385-21DE11ABB8D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ABE3EF-8423-40A5-883B-A9F29F58449D}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="109" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="109" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1575,7 +1575,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1633,49 +1633,49 @@
         <v>18</v>
       </c>
       <c r="C3" s="12">
-        <v>-5.5489143187041003</v>
+        <v>-5.8176046272424999</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
       </c>
       <c r="E3" s="13">
-        <v>0.30983855119664</v>
+        <v>0.33015856053219</v>
       </c>
       <c r="F3" s="13">
-        <v>1.688869376079E-2</v>
+        <v>1.6872803355249998E-2</v>
       </c>
       <c r="G3" s="14">
-        <v>-5.2221870737467002</v>
+        <v>-5.4705732633551003</v>
       </c>
       <c r="H3" s="12">
-        <v>-5.8230829110861997</v>
+        <v>-5.8176040297562999</v>
       </c>
       <c r="I3" s="15">
-        <v>4.2186268130610598</v>
+        <v>3.60259959018035</v>
       </c>
       <c r="J3" s="16">
-        <v>-4150.0643160999998</v>
+        <v>-4355.1170000000002</v>
       </c>
       <c r="K3" s="16">
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <v>231.73</v>
+        <v>247.16</v>
       </c>
       <c r="M3" s="16">
         <v>12.6311493197743</v>
       </c>
       <c r="N3" s="17">
-        <v>-3905.7031667801998</v>
+        <v>-4095.3258506801999</v>
       </c>
       <c r="O3" s="18">
         <v>-4355.1165527159001</v>
       </c>
       <c r="P3" s="19">
-        <v>3155.13478750491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2696.94207920491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1683,31 +1683,31 @@
         <v>20</v>
       </c>
       <c r="C4" s="21">
-        <v>0.29388384438038001</v>
+        <v>-1.7018306025511001</v>
       </c>
       <c r="D4" s="22">
-        <v>0.38621608524110002</v>
+        <v>5.4495747657240003E-2</v>
       </c>
       <c r="E4" s="22">
-        <v>0.51380858948440999</v>
+        <v>0.51465015744248999</v>
       </c>
       <c r="F4" s="22">
-        <v>0.30706595179000001</v>
+        <v>0.30756889563200002</v>
       </c>
       <c r="G4" s="23">
-        <v>1.5009744708958901</v>
+        <v>-0.82511580181940003</v>
       </c>
       <c r="H4" s="21">
-        <v>0.29388383556183001</v>
+        <v>-1.7028118566181001</v>
       </c>
       <c r="I4" s="24">
-        <v>3.1658207105606202</v>
+        <v>2.84717533861896</v>
       </c>
       <c r="J4" s="25">
-        <v>55.155207004300003</v>
+        <v>-318.87200000000001</v>
       </c>
       <c r="K4" s="25">
-        <v>72.483835151862706</v>
+        <v>10.2108682385376</v>
       </c>
       <c r="L4" s="25">
         <v>96.43</v>
@@ -1716,16 +1716,16 @@
         <v>57.629183974567802</v>
       </c>
       <c r="N4" s="26">
-        <v>281.69822613073097</v>
+        <v>-154.60194778689001</v>
       </c>
       <c r="O4" s="27">
-        <v>55.155205349262502</v>
+        <v>-319.05585757453002</v>
       </c>
       <c r="P4" s="28">
-        <v>594.15139677929506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>533.47524319703405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1733,40 +1733,40 @@
         <v>22</v>
       </c>
       <c r="C5" s="30">
-        <v>2.65335709317299</v>
+        <v>2.4762647554806101</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="31">
-        <v>2.6359593740099099</v>
+        <v>2.6355396290050601</v>
       </c>
       <c r="F5" s="31">
-        <v>2.7862289721222901</v>
+        <v>2.7860081078307601</v>
       </c>
       <c r="G5" s="32">
-        <v>8.0755454393051895</v>
+        <v>7.8978124923164303</v>
       </c>
       <c r="H5" s="30">
-        <v>2.37930513924996</v>
+        <v>2.3791165317991099</v>
       </c>
       <c r="I5" s="33">
-        <v>4.9168648631891196</v>
+        <v>4.9164751034509901</v>
       </c>
       <c r="J5" s="34">
-        <v>125.86528237180001</v>
+        <v>117.474</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="34">
-        <v>125.04</v>
+        <v>125.03</v>
       </c>
       <c r="M5" s="34">
         <v>132.16822463549099</v>
       </c>
       <c r="N5" s="35">
-        <v>383.07350700729103</v>
+        <v>374.67222463549098</v>
       </c>
       <c r="O5" s="36">
         <v>112.86528826855</v>
@@ -1775,7 +1775,7 @@
         <v>233.237578907715</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1783,49 +1783,49 @@
         <v>25</v>
       </c>
       <c r="C6" s="30">
-        <v>1.0445117539562601</v>
+        <v>-0.48852201257860001</v>
       </c>
       <c r="D6" s="31">
-        <v>8.6601908290899997E-3</v>
+        <v>8.6797055011900003E-3</v>
       </c>
       <c r="E6" s="31">
-        <v>6.9505327999929198</v>
+        <v>7.0440251572327099</v>
       </c>
       <c r="F6" s="31">
-        <v>19.577538189707901</v>
+        <v>19.621653757816201</v>
       </c>
       <c r="G6" s="32">
-        <v>27.581242934486099</v>
+        <v>26.185836607971499</v>
       </c>
       <c r="H6" s="30">
-        <v>-0.48523490303700001</v>
+        <v>-0.48632832005429999</v>
       </c>
       <c r="I6" s="33">
-        <v>5.0890997290842002</v>
+        <v>5.0500295499031802</v>
       </c>
       <c r="J6" s="34">
-        <v>26.632256600000002</v>
+        <v>-12.428000000000001</v>
       </c>
       <c r="K6" s="34">
         <v>0.22081170795022001</v>
       </c>
       <c r="L6" s="34">
-        <v>177.22</v>
+        <v>179.2</v>
       </c>
       <c r="M6" s="34">
         <v>499.17487159884502</v>
       </c>
       <c r="N6" s="35">
-        <v>703.24793990679495</v>
+        <v>666.16768330679497</v>
       </c>
       <c r="O6" s="36">
         <v>-12.372192462181999</v>
       </c>
       <c r="P6" s="37">
-        <v>129.75843434466199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>128.472751749537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
@@ -1833,40 +1833,40 @@
         <v>27</v>
       </c>
       <c r="C7" s="30">
-        <v>0.40320909892146001</v>
+        <v>1.0379689002885499</v>
       </c>
       <c r="D7" s="31">
-        <v>-1.1744335520860001</v>
+        <v>-1.173243447995</v>
       </c>
       <c r="E7" s="31">
-        <v>9.2640365731196894</v>
+        <v>9.4434113497915995</v>
       </c>
       <c r="F7" s="31">
-        <v>2.0769332000984799</v>
+        <v>2.0748285542511802</v>
       </c>
       <c r="G7" s="32">
-        <v>10.569745320053601</v>
+        <v>11.382965356336401</v>
       </c>
       <c r="H7" s="30">
-        <v>0.37239573161813</v>
+        <v>0.37201836698740998</v>
       </c>
       <c r="I7" s="33">
-        <v>1.5456745115257</v>
+        <v>1.54410821298427</v>
       </c>
       <c r="J7" s="34">
-        <v>50.2533916</v>
+        <v>129.49700000000001</v>
       </c>
       <c r="K7" s="34">
         <v>-146.37385257184999</v>
       </c>
       <c r="L7" s="34">
-        <v>1154.6099999999999</v>
+        <v>1178.1600000000001</v>
       </c>
       <c r="M7" s="34">
         <v>258.85561042837799</v>
       </c>
       <c r="N7" s="35">
-        <v>1317.34514945653</v>
+        <v>1420.13875785653</v>
       </c>
       <c r="O7" s="36">
         <v>46.413011465348802</v>
@@ -1875,7 +1875,7 @@
         <v>192.642940651917</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -1883,49 +1883,49 @@
         <v>29</v>
       </c>
       <c r="C8" s="30">
-        <v>32.3366197217672</v>
+        <v>31.712985640579401</v>
       </c>
       <c r="D8" s="31">
         <v>0</v>
       </c>
       <c r="E8" s="31">
-        <v>14.286781918524399</v>
+        <v>14.1905265120905</v>
       </c>
       <c r="F8" s="31">
-        <v>2.8774750116524701</v>
+        <v>2.8219808903024401</v>
       </c>
       <c r="G8" s="32">
-        <v>49.500876651944203</v>
+        <v>48.725493042972303</v>
       </c>
       <c r="H8" s="30">
-        <v>33.564554114246199</v>
+        <v>32.917238175260501</v>
       </c>
       <c r="I8" s="33">
-        <v>-2.0663413699333999</v>
+        <v>-1.7755791185192</v>
       </c>
       <c r="J8" s="34">
-        <v>5101.6679544999997</v>
+        <v>5101.6679999999997</v>
       </c>
       <c r="K8" s="34">
         <v>0</v>
       </c>
       <c r="L8" s="34">
-        <v>2253.9899999999998</v>
+        <v>2282.83</v>
       </c>
       <c r="M8" s="34">
         <v>453.97206582295303</v>
       </c>
       <c r="N8" s="35">
-        <v>7809.6300203229503</v>
+        <v>7838.4700658229503</v>
       </c>
       <c r="O8" s="36">
         <v>5295.3961052541599</v>
       </c>
       <c r="P8" s="37">
-        <v>-326.00153141395998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-285.63741279618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
@@ -1933,49 +1933,49 @@
         <v>31</v>
       </c>
       <c r="C9" s="30">
-        <v>3.3444755287200998</v>
+        <v>5.6037129309651998</v>
       </c>
       <c r="D9" s="31">
-        <v>-4.0947539414914997</v>
+        <v>-4.0508218076922997</v>
       </c>
       <c r="E9" s="31">
-        <v>1.4801626428253301</v>
+        <v>1.4674113959656001</v>
       </c>
       <c r="F9" s="31">
-        <v>0.37768499242544001</v>
+        <v>0.37357004639266</v>
       </c>
       <c r="G9" s="32">
-        <v>1.1075692224793501</v>
+        <v>3.3938725656311899</v>
       </c>
       <c r="H9" s="30">
-        <v>5.2741892393702798</v>
+        <v>6.7178903462555404</v>
       </c>
       <c r="I9" s="33">
-        <v>6.4542965503132699</v>
+        <v>6.58337408044056</v>
       </c>
       <c r="J9" s="34">
-        <v>411.61902715230002</v>
+        <v>697.27</v>
       </c>
       <c r="K9" s="34">
-        <v>-503.95902716315999</v>
+        <v>-504.04375753114999</v>
       </c>
       <c r="L9" s="34">
-        <v>182.17</v>
+        <v>182.59</v>
       </c>
       <c r="M9" s="34">
         <v>46.483320872638799</v>
       </c>
       <c r="N9" s="35">
-        <v>136.31332086177599</v>
+        <v>422.29956334148898</v>
       </c>
       <c r="O9" s="36">
-        <v>649.11721586359704</v>
+        <v>835.90709578457597</v>
       </c>
       <c r="P9" s="37">
-        <v>794.35811211006001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>819.16923682921799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
@@ -1983,49 +1983,49 @@
         <v>33</v>
       </c>
       <c r="C10" s="30">
-        <v>9.7608166283782491</v>
+        <v>9.7493422759988508</v>
       </c>
       <c r="D10" s="31">
-        <v>-6.6304112685034999</v>
+        <v>-6.6130192676922999</v>
       </c>
       <c r="E10" s="31">
-        <v>0.24817424457372</v>
+        <v>0.24798754312408</v>
       </c>
       <c r="F10" s="31">
-        <v>0.22120666503843001</v>
+        <v>0.22062642554167</v>
       </c>
       <c r="G10" s="32">
-        <v>3.59978626948693</v>
+        <v>3.6049369769722501</v>
       </c>
       <c r="H10" s="30">
-        <v>9.8580616396042107</v>
+        <v>9.6804566437714907</v>
       </c>
       <c r="I10" s="33">
-        <v>0.23721652557371001</v>
+        <v>0.23249470109678</v>
       </c>
       <c r="J10" s="34">
-        <v>40888.772324561098</v>
+        <v>40948.114999999998</v>
       </c>
       <c r="K10" s="34">
         <v>-27775.276096041998</v>
       </c>
       <c r="L10" s="34">
-        <v>1039.6199999999999</v>
+        <v>1041.57</v>
       </c>
       <c r="M10" s="34">
         <v>926.65084365329301</v>
       </c>
       <c r="N10" s="35">
-        <v>15079.767072172501</v>
+        <v>15141.0597476114</v>
       </c>
       <c r="O10" s="36">
-        <v>41296.138764798998</v>
+        <v>40658.7891449382</v>
       </c>
       <c r="P10" s="37">
-        <v>993.71731639820905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>976.49866912955395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -2033,49 +2033,49 @@
         <v>35</v>
       </c>
       <c r="C11" s="21">
-        <v>-2.0622051640097001</v>
+        <v>-1.5877144663175</v>
       </c>
       <c r="D11" s="22">
-        <v>4.2384961580910403</v>
+        <v>4.2384290954087298</v>
       </c>
       <c r="E11" s="22">
-        <v>4.8346439504016203</v>
+        <v>4.9107820119198102</v>
       </c>
       <c r="F11" s="22">
-        <v>1.0912598757271601</v>
+        <v>1.08230703092889</v>
       </c>
       <c r="G11" s="23">
-        <v>8.1021948202101299</v>
+        <v>8.6438036719399296</v>
       </c>
       <c r="H11" s="21">
-        <v>-3.7163435037161001</v>
+        <v>1.77992331215942</v>
       </c>
       <c r="I11" s="24">
-        <v>13.632897972732399</v>
+        <v>6.8600617165275901</v>
       </c>
       <c r="J11" s="25">
-        <v>-456.7299731</v>
+        <v>-351.64699999999999</v>
       </c>
       <c r="K11" s="25">
         <v>938.72727605112505</v>
       </c>
       <c r="L11" s="25">
-        <v>1070.76</v>
+        <v>1087.6400000000001</v>
       </c>
       <c r="M11" s="25">
-        <v>241.68841315326799</v>
+        <v>239.70936121013099</v>
       </c>
       <c r="N11" s="26">
-        <v>1794.4457161043899</v>
+        <v>1914.42963726126</v>
       </c>
       <c r="O11" s="27">
-        <v>-823.08273594965999</v>
+        <v>394.21741517706897</v>
       </c>
       <c r="P11" s="28">
-        <v>3019.3664689765401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1519.3664689765301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -2083,19 +2083,19 @@
         <v>37</v>
       </c>
       <c r="C12" s="30">
-        <v>0.46152936405863998</v>
+        <v>0.69463739927757995</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="31">
-        <v>2.7090939581030198</v>
+        <v>2.7390664073353701</v>
       </c>
       <c r="F12" s="31">
-        <v>5.5105493949652402</v>
+        <v>7.1509499463393098</v>
       </c>
       <c r="G12" s="32">
-        <v>8.6811727171269002</v>
+        <v>10.584653752952301</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>23</v>
@@ -2104,19 +2104,19 @@
         <v>23</v>
       </c>
       <c r="J12" s="34">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="K12" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="34">
-        <v>974.39</v>
+        <v>985.79</v>
       </c>
       <c r="M12" s="34">
-        <v>1982</v>
+        <v>2573.6268856875199</v>
       </c>
       <c r="N12" s="35">
-        <v>3122.39</v>
+        <v>3809.4168856875199</v>
       </c>
       <c r="O12" s="36" t="s">
         <v>23</v>
@@ -2125,7 +2125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>38</v>
       </c>
@@ -2133,49 +2133,49 @@
         <v>39</v>
       </c>
       <c r="C13" s="40">
-        <v>6.3683350832237497</v>
+        <v>6.31679046153734</v>
       </c>
       <c r="D13" s="41">
-        <v>-4.2633636056766004</v>
+        <v>-4.2638915200197998</v>
       </c>
       <c r="E13" s="41">
-        <v>1.30496783660269</v>
+        <v>1.312973156278</v>
       </c>
       <c r="F13" s="41">
-        <v>0.61441176984556001</v>
+        <v>0.65456066749413999</v>
       </c>
       <c r="G13" s="42">
-        <v>4.0243510839953602</v>
+        <v>4.02043276528972</v>
       </c>
       <c r="H13" s="40">
-        <v>6.5272077888766704</v>
+        <v>6.6437164825869797</v>
       </c>
       <c r="I13" s="43">
-        <v>1.84476906707928</v>
+        <v>1.3843103001383901</v>
       </c>
       <c r="J13" s="44">
-        <v>42219.171154589501</v>
+        <v>42205.96</v>
       </c>
       <c r="K13" s="44">
-        <v>-27414.177052866002</v>
+        <v>-27476.534750146999</v>
       </c>
       <c r="L13" s="44">
-        <v>7305.96</v>
+        <v>7406.4</v>
       </c>
       <c r="M13" s="44">
-        <v>4611.2536834592102</v>
+        <v>5200.9015172035897</v>
       </c>
       <c r="N13" s="45">
-        <v>26722.207785182702</v>
+        <v>27336.726767056301</v>
       </c>
       <c r="O13" s="46">
-        <v>42264.514109872202</v>
+        <v>42657.043458135297</v>
       </c>
       <c r="P13" s="47">
-        <v>8786.3655042593491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6814.1675558502402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -2183,19 +2183,19 @@
         <v>41</v>
       </c>
       <c r="C14" s="30">
-        <v>0.23570509409154999</v>
+        <v>0.29644882124739003</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="31">
-        <v>17.620516017860599</v>
+        <v>18.1509997015816</v>
       </c>
       <c r="F14" s="31">
-        <v>1.4324894887748101</v>
+        <v>1.4422152127563701</v>
       </c>
       <c r="G14" s="32">
-        <v>19.288710600727001</v>
+        <v>19.889663735585401</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>23</v>
@@ -2204,19 +2204,19 @@
         <v>23</v>
       </c>
       <c r="J14" s="34">
-        <v>7.8980296923999997</v>
+        <v>9.9339999999999993</v>
       </c>
       <c r="K14" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="34">
-        <v>590.42999999999995</v>
+        <v>608.24</v>
       </c>
       <c r="M14" s="34">
-        <v>48</v>
+        <v>48.328631779466001</v>
       </c>
       <c r="N14" s="35">
-        <v>646.32802969240004</v>
+        <v>666.50263177946601</v>
       </c>
       <c r="O14" s="36" t="s">
         <v>23</v>
@@ -2225,7 +2225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
@@ -2233,49 +2233,49 @@
         <v>43</v>
       </c>
       <c r="C15" s="30">
-        <v>1.8725602435620301</v>
+        <v>2.12273798770681</v>
       </c>
       <c r="D15" s="31">
-        <v>-0.28806927135350002</v>
+        <v>-0.2880724217574</v>
       </c>
       <c r="E15" s="31">
-        <v>2.4814780060735302</v>
+        <v>2.5136260492168101</v>
       </c>
       <c r="F15" s="31">
-        <v>0.77150788889254995</v>
+        <v>0.94753830516573001</v>
       </c>
       <c r="G15" s="32">
-        <v>4.83747686717461</v>
+        <v>5.2958299203319701</v>
       </c>
       <c r="H15" s="30">
-        <v>2.1227136792671102</v>
+        <v>2.1227368938409499</v>
       </c>
       <c r="I15" s="33">
-        <v>3.7254898930143101</v>
+        <v>4.1480658342194703</v>
       </c>
       <c r="J15" s="34">
-        <v>849.98311569999998</v>
+        <v>963.53200000000004</v>
       </c>
       <c r="K15" s="34">
         <v>-130.75895295989</v>
       </c>
       <c r="L15" s="34">
-        <v>1126.3800000000001</v>
+        <v>1140.96</v>
       </c>
       <c r="M15" s="34">
-        <v>350.19897567653197</v>
+        <v>430.09711209777498</v>
       </c>
       <c r="N15" s="35">
-        <v>2195.8031384166402</v>
+        <v>2403.83015913789</v>
       </c>
       <c r="O15" s="36">
         <v>963.53150348334498</v>
       </c>
       <c r="P15" s="37">
-        <v>1691.0556109797401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1882.84856281056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
@@ -2283,13 +2283,13 @@
         <v>45</v>
       </c>
       <c r="C16" s="30">
-        <v>1.1674514740131801</v>
+        <v>0.20936532507739999</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="31">
-        <v>25.246657610153001</v>
+        <v>25.513544891640901</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>23</v>
@@ -2304,13 +2304,13 @@
         <v>23</v>
       </c>
       <c r="J16" s="34">
-        <v>30.174176800000001</v>
+        <v>5.41</v>
       </c>
       <c r="K16" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="34">
-        <v>652.53</v>
+        <v>659.27</v>
       </c>
       <c r="M16" s="34" t="s">
         <v>23</v>
@@ -2325,7 +2325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
@@ -2333,13 +2333,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="49">
-        <v>4.7640389195220001</v>
+        <v>5.98050042408821</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="50">
-        <v>6.1198158284390702</v>
+        <v>6.1954198473282496</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>23</v>
@@ -2354,13 +2354,13 @@
         <v>23</v>
       </c>
       <c r="J17" s="53">
-        <v>562.16572559999997</v>
+        <v>705.101</v>
       </c>
       <c r="K17" s="53" t="s">
         <v>23</v>
       </c>
       <c r="L17" s="53">
-        <v>722.15</v>
+        <v>730.44</v>
       </c>
       <c r="M17" s="53" t="s">
         <v>23</v>
@@ -2375,7 +2375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>48</v>
       </c>
@@ -2383,19 +2383,19 @@
         <v>49</v>
       </c>
       <c r="C18" s="49">
-        <v>30.424962812189602</v>
+        <v>3.97386270262195</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="50">
-        <v>1.59815605970998</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>23</v>
+        <v>1.5240158362590599</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0</v>
+      </c>
+      <c r="G18" s="51">
+        <v>5.4978785388810101</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>23</v>
@@ -2404,19 +2404,19 @@
         <v>23</v>
       </c>
       <c r="J18" s="53">
-        <v>3690.8082315000001</v>
+        <v>531.98099999999999</v>
       </c>
       <c r="K18" s="53" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="53">
-        <v>193.87</v>
-      </c>
-      <c r="M18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="54" t="s">
-        <v>23</v>
+        <v>204.02</v>
+      </c>
+      <c r="M18" s="53">
+        <v>0</v>
+      </c>
+      <c r="N18" s="54">
+        <v>736.00099999999998</v>
       </c>
       <c r="O18" s="55" t="s">
         <v>23</v>
@@ -2425,7 +2425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
@@ -2433,40 +2433,40 @@
         <v>51</v>
       </c>
       <c r="C19" s="21">
-        <v>3.3088675276539301</v>
+        <v>3.2619889059447398</v>
       </c>
       <c r="D19" s="22">
-        <v>-4.7083601553000003E-3</v>
+        <v>-4.6416528857999998E-3</v>
       </c>
       <c r="E19" s="22">
-        <v>6.2560927270827698</v>
+        <v>6.2974288305888901</v>
       </c>
       <c r="F19" s="22">
-        <v>2.3548838295476799</v>
+        <v>2.3511713843904101</v>
       </c>
       <c r="G19" s="23">
-        <v>11.915135724129099</v>
+        <v>11.905947468038301</v>
       </c>
       <c r="H19" s="21">
-        <v>2.96850472734589</v>
+        <v>2.9264474423241902</v>
       </c>
       <c r="I19" s="24">
-        <v>8.0340880899860494</v>
+        <v>7.9202624559631802</v>
       </c>
       <c r="J19" s="25">
-        <v>1870.0325028</v>
+        <v>1870.0329999999999</v>
       </c>
       <c r="K19" s="25">
         <v>-2.6609667663502998</v>
       </c>
       <c r="L19" s="25">
-        <v>3535.68</v>
+        <v>3610.19</v>
       </c>
       <c r="M19" s="25">
-        <v>1330.88111408758</v>
+        <v>1347.8795312433399</v>
       </c>
       <c r="N19" s="26">
-        <v>6733.9326501212299</v>
+        <v>6825.4415644769897</v>
       </c>
       <c r="O19" s="27">
         <v>1677.6737897356099</v>
@@ -2475,7 +2475,7 @@
         <v>4540.5280607545701</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>52</v>
       </c>
@@ -2483,13 +2483,13 @@
         <v>53</v>
       </c>
       <c r="C20" s="49">
-        <v>4.00256895712121</v>
+        <v>3.74804792566631</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="50">
-        <v>0.10416162922364</v>
+        <v>0.10408346238487</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>23</v>
@@ -2504,13 +2504,13 @@
         <v>23</v>
       </c>
       <c r="J20" s="53">
-        <v>491.09092909999998</v>
+        <v>459.84800000000001</v>
       </c>
       <c r="K20" s="53" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="53">
-        <v>12.78</v>
+        <v>12.77</v>
       </c>
       <c r="M20" s="53" t="s">
         <v>23</v>
@@ -2525,7 +2525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
@@ -2533,19 +2533,19 @@
         <v>55</v>
       </c>
       <c r="C21" s="49">
-        <v>8.0763063486677709</v>
+        <v>7.5595481734144103</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="50">
-        <v>0.47949271781322</v>
+        <v>0.48717188195165001</v>
       </c>
       <c r="F21" s="50">
-        <v>6.916235369241E-2</v>
+        <v>9.1245450852940002E-2</v>
       </c>
       <c r="G21" s="51">
-        <v>8.6249614201734008</v>
+        <v>8.1379655062190004</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>23</v>
@@ -2554,19 +2554,19 @@
         <v>23</v>
       </c>
       <c r="J21" s="53">
-        <v>1634.8241903999999</v>
+        <v>1529.221</v>
       </c>
       <c r="K21" s="53" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="53">
-        <v>97.06</v>
+        <v>98.55</v>
       </c>
       <c r="M21" s="53">
-        <v>14</v>
+        <v>18.458042253041299</v>
       </c>
       <c r="N21" s="54">
-        <v>1745.8841904000001</v>
+        <v>1646.22904225304</v>
       </c>
       <c r="O21" s="55" t="s">
         <v>23</v>
@@ -2575,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>56</v>
       </c>
@@ -2583,40 +2583,40 @@
         <v>57</v>
       </c>
       <c r="C22" s="30">
-        <v>11.313468181806099</v>
+        <v>2.63686200378072</v>
       </c>
       <c r="D22" s="31">
-        <v>0.41002139408492</v>
+        <v>0.41145197712779003</v>
       </c>
       <c r="E22" s="31">
-        <v>13.150713922508899</v>
+        <v>13.640831758034</v>
       </c>
       <c r="F22" s="31">
-        <v>1.9952109518478101</v>
+        <v>2.0021723323899998</v>
       </c>
       <c r="G22" s="32">
-        <v>26.869414450247699</v>
+        <v>18.6913180713325</v>
       </c>
       <c r="H22" s="30">
-        <v>11.1143656647708</v>
+        <v>11.1531441853106</v>
       </c>
       <c r="I22" s="33">
-        <v>5.0848776865572498</v>
+        <v>5.1026190529796001</v>
       </c>
       <c r="J22" s="34">
-        <v>60.057059899999999</v>
+        <v>13.949</v>
       </c>
       <c r="K22" s="34">
         <v>2.1765809590060101</v>
       </c>
       <c r="L22" s="34">
-        <v>69.81</v>
+        <v>72.16</v>
       </c>
       <c r="M22" s="34">
         <v>10.591491638343101</v>
       </c>
       <c r="N22" s="35">
-        <v>142.63513249734899</v>
+        <v>98.877072597349098</v>
       </c>
       <c r="O22" s="36">
         <v>59.000132740293203</v>
@@ -2625,7 +2625,7 @@
         <v>26.992854790262101</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
         <v>38</v>
       </c>
@@ -2633,49 +2633,49 @@
         <v>58</v>
       </c>
       <c r="C23" s="40">
-        <v>5.0765438390886297</v>
+        <v>3.4992980047463602</v>
       </c>
       <c r="D23" s="41">
-        <v>-0.14052298666310001</v>
+        <v>-0.1407913067705</v>
       </c>
       <c r="E23" s="41">
-        <v>4.3515916539770503</v>
+        <v>4.3707330421067203</v>
       </c>
       <c r="F23" s="41">
-        <v>1.3822958818146101</v>
+        <v>1.3388579301524099</v>
       </c>
       <c r="G23" s="42">
-        <v>10.6699083882172</v>
+        <v>9.0680976702349696</v>
       </c>
       <c r="H23" s="40">
-        <v>2.5929045448255899</v>
+        <v>2.5668730685046102</v>
       </c>
       <c r="I23" s="43">
-        <v>5.9290725098386403</v>
+        <v>6.0768193343502999</v>
       </c>
       <c r="J23" s="44">
-        <v>9197.0339614923996</v>
+        <v>6089.009</v>
       </c>
       <c r="K23" s="44">
         <v>-131.24333876723</v>
       </c>
       <c r="L23" s="44">
-        <v>7000.69</v>
+        <v>7136.6</v>
       </c>
       <c r="M23" s="44">
-        <v>1753.6715814024601</v>
+        <v>1855.35480901196</v>
       </c>
       <c r="N23" s="45">
-        <v>17820.1522041276</v>
+        <v>14949.7204702447</v>
       </c>
       <c r="O23" s="46">
         <v>2700.2054259592501</v>
       </c>
       <c r="P23" s="47">
-        <v>6258.57652652457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6450.3694783553901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>59</v>
       </c>
@@ -2683,49 +2683,49 @@
         <v>60</v>
       </c>
       <c r="C24" s="30">
-        <v>0.31799229148447</v>
+        <v>0.31322957198444001</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="31">
-        <v>11.8571273471092</v>
+        <v>11.956420233463</v>
       </c>
       <c r="F24" s="31">
-        <v>18.931724392205201</v>
+        <v>22.411729032352401</v>
       </c>
       <c r="G24" s="32">
-        <v>31.1068440307989</v>
+        <v>34.681378837799798</v>
       </c>
       <c r="H24" s="30">
-        <v>0.31313803350202002</v>
+        <v>0.31321184296134003</v>
       </c>
       <c r="I24" s="33">
-        <v>2.8501932932445899</v>
+        <v>2.5595223208733802</v>
       </c>
       <c r="J24" s="34">
-        <v>4.0871640999999999</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="K24" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="34">
-        <v>152.4</v>
+        <v>153.63999999999999</v>
       </c>
       <c r="M24" s="34">
-        <v>243.33</v>
+        <v>287.990718065728</v>
       </c>
       <c r="N24" s="35">
-        <v>399.81716410000001</v>
+        <v>445.65571806572802</v>
       </c>
       <c r="O24" s="36">
         <v>4.0247721820531996</v>
       </c>
       <c r="P24" s="37">
-        <v>36.633616657273798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>32.889861823222901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>61</v>
       </c>
@@ -2733,40 +2733,40 @@
         <v>62</v>
       </c>
       <c r="C25" s="30">
-        <v>4.9447183948248101</v>
+        <v>4.9609273479031302</v>
       </c>
       <c r="D25" s="31">
-        <v>-5.9146135766216998</v>
+        <v>-5.8906881902833002</v>
       </c>
       <c r="E25" s="31">
-        <v>5.1985242813732002</v>
+        <v>5.1961015948021299</v>
       </c>
       <c r="F25" s="31">
-        <v>1.9274660788845901</v>
+        <v>2.3459389861833801</v>
       </c>
       <c r="G25" s="32">
-        <v>6.1560951784608902</v>
+        <v>6.6122797386053902</v>
       </c>
       <c r="H25" s="30">
-        <v>4.9446957047840403</v>
+        <v>4.9246937632319003</v>
       </c>
       <c r="I25" s="33">
-        <v>15.5186859494028</v>
+        <v>15.455910832821701</v>
       </c>
       <c r="J25" s="34">
-        <v>166.75089600000001</v>
+        <v>167.977</v>
       </c>
       <c r="K25" s="34">
         <v>-199.45870212298999</v>
       </c>
       <c r="L25" s="34">
-        <v>175.31</v>
+        <v>175.94</v>
       </c>
       <c r="M25" s="34">
-        <v>65</v>
+        <v>79.433494072169296</v>
       </c>
       <c r="N25" s="35">
-        <v>207.602193877009</v>
+        <v>223.89179194917801</v>
       </c>
       <c r="O25" s="36">
         <v>166.75013082303201</v>
@@ -2775,21 +2775,21 @@
         <v>523.33714079934305</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="30">
-        <v>3.18596137566285</v>
+      <c r="C26" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="31">
-        <v>1.8734566836114901</v>
+      <c r="E26" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>23</v>
@@ -2804,13 +2804,13 @@
         <v>23</v>
       </c>
       <c r="J26" s="34">
-        <v>70.471999999999994</v>
+        <v>-31.228000000000002</v>
       </c>
       <c r="K26" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="34">
-        <v>41.44</v>
+        <v>43.95</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>23</v>
@@ -2825,7 +2825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>65</v>
       </c>
@@ -2833,40 +2833,40 @@
         <v>66</v>
       </c>
       <c r="C27" s="30">
-        <v>4.2907926790152899</v>
+        <v>4.2908108271464398</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="31">
-        <v>4.01082207232907</v>
+        <v>4.1006255729381804</v>
       </c>
       <c r="F27" s="31">
-        <v>0.43962719283022</v>
+        <v>0.45094348089809</v>
       </c>
       <c r="G27" s="32">
-        <v>8.7412419441745808</v>
+        <v>8.8423798809827101</v>
       </c>
       <c r="H27" s="30">
-        <v>4.2907932677994403</v>
+        <v>4.2908116282854003</v>
       </c>
       <c r="I27" s="33">
-        <v>0.24597250666743001</v>
+        <v>0.24597355919419001</v>
       </c>
       <c r="J27" s="34">
-        <v>4259.4452107999996</v>
+        <v>4259.4449999999997</v>
       </c>
       <c r="K27" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="34">
-        <v>3981.52</v>
+        <v>4070.65</v>
       </c>
       <c r="M27" s="34">
-        <v>436.415385482543</v>
+        <v>447.64708405272802</v>
       </c>
       <c r="N27" s="35">
-        <v>8677.3805962825409</v>
+        <v>8777.7420840527302</v>
       </c>
       <c r="O27" s="36">
         <v>4259.4457952826297</v>
@@ -2875,7 +2875,7 @@
         <v>244.175492476481</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>67</v>
       </c>
@@ -2883,49 +2883,49 @@
         <v>68</v>
       </c>
       <c r="C28" s="30">
-        <v>0.40610303998649999</v>
+        <v>0.42170557451649998</v>
       </c>
       <c r="D28" s="31">
-        <v>0.76315272972875003</v>
+        <v>0.76217592897087005</v>
       </c>
       <c r="E28" s="31">
-        <v>2.8481957382191898</v>
+        <v>2.8913947667804298</v>
       </c>
       <c r="F28" s="31">
-        <v>3.4165748961837399</v>
+        <v>3.4312533684165598</v>
       </c>
       <c r="G28" s="32">
-        <v>7.4340264041181801</v>
+        <v>7.5065296386843601</v>
       </c>
       <c r="H28" s="30">
-        <v>0.41990151258329</v>
+        <v>0.42170551597272998</v>
       </c>
       <c r="I28" s="33">
-        <v>5.8821493574884602</v>
+        <v>5.9075928353038503</v>
       </c>
       <c r="J28" s="34">
-        <v>448.12272810000002</v>
+        <v>463.34899999999999</v>
       </c>
       <c r="K28" s="34">
-        <v>842.11653085476905</v>
+        <v>837.44080195674496</v>
       </c>
       <c r="L28" s="34">
-        <v>3142.9</v>
+        <v>3176.92</v>
       </c>
       <c r="M28" s="34">
         <v>3770.0896385476899</v>
       </c>
       <c r="N28" s="35">
-        <v>8203.2288975024603</v>
+        <v>8247.7994405044392</v>
       </c>
       <c r="O28" s="36">
-        <v>463.34893567503201</v>
+        <v>463.34893567503298</v>
       </c>
       <c r="P28" s="37">
-        <v>6490.7783434888897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6490.9676277900999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
@@ -2933,49 +2933,49 @@
         <v>70</v>
       </c>
       <c r="C29" s="30">
-        <v>2.0623782018158798</v>
+        <v>2.4564548265200998</v>
       </c>
       <c r="D29" s="31">
         <v>0</v>
       </c>
       <c r="E29" s="31">
-        <v>7.2010148141540302</v>
+        <v>7.3394709721745102</v>
       </c>
       <c r="F29" s="31">
-        <v>4.2229465008312896</v>
+        <v>3.02104056906908</v>
       </c>
       <c r="G29" s="32">
-        <v>13.4863395168012</v>
+        <v>12.816966367763699</v>
       </c>
       <c r="H29" s="30">
-        <v>2.4564940254886198</v>
+        <v>2.4564525267241799</v>
       </c>
       <c r="I29" s="33">
-        <v>4.4597304558445297</v>
+        <v>4.9681689371370696</v>
       </c>
       <c r="J29" s="34">
-        <v>300.1740762</v>
+        <v>357.53699999999998</v>
       </c>
       <c r="K29" s="34">
         <v>0</v>
       </c>
       <c r="L29" s="34">
-        <v>1048.0899999999999</v>
+        <v>1068.26</v>
       </c>
       <c r="M29" s="34">
-        <v>614.63947961287897</v>
+        <v>439.71245482800498</v>
       </c>
       <c r="N29" s="35">
-        <v>1962.9035558128801</v>
+        <v>1865.5094548279999</v>
       </c>
       <c r="O29" s="36">
         <v>357.53666526470403</v>
       </c>
       <c r="P29" s="37">
-        <v>649.10280204932599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>723.11698880029996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
@@ -2983,31 +2983,31 @@
         <v>72</v>
       </c>
       <c r="C30" s="30">
-        <v>2.2058163013073</v>
+        <v>2.2062478215406101</v>
       </c>
       <c r="D30" s="31">
-        <v>14.451592140495601</v>
+        <v>93.6308684337112</v>
       </c>
       <c r="E30" s="31">
-        <v>2.5543949141126099</v>
+        <v>2.5548971767166302</v>
       </c>
       <c r="F30" s="31">
-        <v>2.3738326117245099</v>
+        <v>2.37429937093331</v>
       </c>
       <c r="G30" s="32">
-        <v>21.585635967640101</v>
+        <v>100.76631280290199</v>
       </c>
       <c r="H30" s="30">
-        <v>79.7929299389275</v>
+        <v>119.734874574785</v>
       </c>
       <c r="I30" s="33">
-        <v>24.530672076112701</v>
+        <v>67.644972023985204</v>
       </c>
       <c r="J30" s="34">
-        <v>253.1892527542</v>
+        <v>253.18899999999999</v>
       </c>
       <c r="K30" s="34">
-        <v>1658.79081272181</v>
+        <v>10745.0784614527</v>
       </c>
       <c r="L30" s="34">
         <v>293.2</v>
@@ -3016,16 +3016,16 @@
         <v>272.47459580830701</v>
       </c>
       <c r="N30" s="35">
-        <v>2477.6546612843199</v>
+        <v>11563.942057261</v>
       </c>
       <c r="O30" s="36">
-        <v>9158.8371589836897</v>
+        <v>13740.774206202301</v>
       </c>
       <c r="P30" s="37">
-        <v>2815.69345952713</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7762.9369894725396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>73</v>
       </c>
@@ -3033,40 +3033,40 @@
         <v>74</v>
       </c>
       <c r="C31" s="30">
-        <v>1.9146601137644499</v>
+        <v>3.6125395820139299</v>
       </c>
       <c r="D31" s="31">
-        <v>1.8910185061982001</v>
+        <v>1.89341991875509</v>
       </c>
       <c r="E31" s="31">
-        <v>11.8790611146534</v>
+        <v>12.0358273771827</v>
       </c>
       <c r="F31" s="31">
-        <v>3.53493917503148</v>
+        <v>3.5394227834517298</v>
       </c>
       <c r="G31" s="32">
-        <v>19.219678909647499</v>
+        <v>21.081209661403399</v>
       </c>
       <c r="H31" s="30">
-        <v>1.9146601133677801</v>
+        <v>1.91709154850358</v>
       </c>
       <c r="I31" s="33">
-        <v>4.9989034870626901</v>
+        <v>5.0052516161609297</v>
       </c>
       <c r="J31" s="34">
-        <v>211.89612890000001</v>
+        <v>399.29399999999998</v>
       </c>
       <c r="K31" s="34">
         <v>209.27970361999999</v>
       </c>
       <c r="L31" s="34">
-        <v>1314.66</v>
+        <v>1330.32</v>
       </c>
       <c r="M31" s="34">
-        <v>391.21300000000002</v>
+        <v>391.21240025492</v>
       </c>
       <c r="N31" s="35">
-        <v>2127.0488325199999</v>
+        <v>2330.1061038749199</v>
       </c>
       <c r="O31" s="36">
         <v>211.896128856101</v>
@@ -3075,7 +3075,7 @@
         <v>553.23046113426801</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>75</v>
       </c>
@@ -3083,28 +3083,28 @@
         <v>76</v>
       </c>
       <c r="C32" s="30">
-        <v>10.767805713142501</v>
+        <v>14.975682878081299</v>
       </c>
       <c r="D32" s="31">
-        <v>-0.40621521410020001</v>
+        <v>-0.3943385185835</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="31">
-        <v>0.65367605202492995</v>
+        <v>0.63372717696124004</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="30">
-        <v>7.2400854445972804</v>
+        <v>7.4253891781622903</v>
       </c>
       <c r="I32" s="33">
-        <v>17.257056223772501</v>
+        <v>22.040509794862999</v>
       </c>
       <c r="J32" s="34">
-        <v>156.89926840000001</v>
+        <v>224.785</v>
       </c>
       <c r="K32" s="34">
         <v>-5.9190211639383996</v>
@@ -3113,19 +3113,19 @@
         <v>23</v>
       </c>
       <c r="M32" s="34">
-        <v>9.52480914548185</v>
+        <v>9.5122449261882203</v>
       </c>
       <c r="N32" s="35" t="s">
         <v>23</v>
       </c>
       <c r="O32" s="36">
-        <v>105.496341564216</v>
+        <v>111.455091564216</v>
       </c>
       <c r="P32" s="37">
-        <v>251.455084571485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>330.82805202089298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>77</v>
       </c>
@@ -3133,19 +3133,19 @@
         <v>78</v>
       </c>
       <c r="C33" s="30">
-        <v>5.9714210802307299</v>
+        <v>6.1083443439373903</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="31">
-        <v>31.400891452543298</v>
+        <v>24.467323915032001</v>
       </c>
       <c r="F33" s="31">
-        <v>22.745149449397001</v>
+        <v>17.633905884744401</v>
       </c>
       <c r="G33" s="32">
-        <v>60.117461982171001</v>
+        <v>48.209574143713802</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>23</v>
@@ -3154,19 +3154,19 @@
         <v>23</v>
       </c>
       <c r="J33" s="34">
-        <v>455.5</v>
+        <v>601</v>
       </c>
       <c r="K33" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L33" s="34">
-        <v>2395.2600000000002</v>
+        <v>2407.34</v>
       </c>
       <c r="M33" s="34">
         <v>1735</v>
       </c>
       <c r="N33" s="35">
-        <v>4585.76</v>
+        <v>4743.34</v>
       </c>
       <c r="O33" s="36" t="s">
         <v>23</v>
@@ -3175,7 +3175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>79</v>
       </c>
@@ -3183,25 +3183,25 @@
         <v>80</v>
       </c>
       <c r="C34" s="49">
-        <v>1.1373050030335901</v>
+        <v>1.1373209772535799</v>
       </c>
       <c r="D34" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="50">
-        <v>35.511885373241199</v>
+        <v>35.706992417860199</v>
       </c>
       <c r="F34" s="50">
-        <v>20.825318277770702</v>
+        <v>20.8256107834878</v>
       </c>
       <c r="G34" s="51">
-        <v>57.474508654045501</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>23</v>
+        <v>57.669924178601498</v>
+      </c>
+      <c r="H34" s="49">
+        <v>0</v>
       </c>
       <c r="I34" s="52">
-        <v>21.461198141689</v>
+        <v>21.461499578769999</v>
       </c>
       <c r="J34" s="53">
         <v>67.5</v>
@@ -3210,22 +3210,22 @@
         <v>23</v>
       </c>
       <c r="L34" s="53">
-        <v>2107.66</v>
+        <v>2119.21</v>
       </c>
       <c r="M34" s="53">
         <v>1236</v>
       </c>
       <c r="N34" s="54">
-        <v>3411.16</v>
-      </c>
-      <c r="O34" s="55" t="s">
-        <v>23</v>
+        <v>3422.71</v>
+      </c>
+      <c r="O34" s="55">
+        <v>0</v>
       </c>
       <c r="P34" s="56">
         <v>1273.74</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>81</v>
       </c>
@@ -3233,49 +3233,49 @@
         <v>82</v>
       </c>
       <c r="C35" s="30">
-        <v>1.33129948068443</v>
+        <v>1.50310451879959</v>
       </c>
       <c r="D35" s="31">
-        <v>8.5485822417299996E-3</v>
+        <v>8.5363915767999992E-3</v>
       </c>
       <c r="E35" s="31">
-        <v>10.838728910447999</v>
+        <v>10.9851098079798</v>
       </c>
       <c r="F35" s="31">
-        <v>3.24019039474959</v>
+        <v>3.2166826379323101</v>
       </c>
       <c r="G35" s="32">
-        <v>15.418767368123699</v>
+        <v>15.713433356288499</v>
       </c>
       <c r="H35" s="30">
-        <v>1.5051636121882299</v>
+        <v>1.5030171807977499</v>
       </c>
       <c r="I35" s="33">
-        <v>8.0036455812922291</v>
+        <v>7.12556825587746</v>
       </c>
       <c r="J35" s="34">
-        <v>462.4720155</v>
+        <v>522.9</v>
       </c>
       <c r="K35" s="34">
         <v>2.9696399017359698</v>
       </c>
       <c r="L35" s="34">
-        <v>3765.2</v>
+        <v>3821.5</v>
       </c>
       <c r="M35" s="34">
-        <v>1125.5899999999999</v>
+        <v>1119.0195560838899</v>
       </c>
       <c r="N35" s="35">
-        <v>5356.2316554017398</v>
+        <v>5466.3891959856301</v>
       </c>
       <c r="O35" s="36">
         <v>522.86961685592098</v>
       </c>
       <c r="P35" s="37">
-        <v>2780.3376753553198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2478.8426848546501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>83</v>
       </c>
@@ -3283,19 +3283,19 @@
         <v>84</v>
       </c>
       <c r="C36" s="30">
-        <v>1.31806120039398</v>
+        <v>1.47689953959221</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="31">
-        <v>3.6711765399181502</v>
+        <v>3.7433869999142102</v>
       </c>
       <c r="F36" s="31">
-        <v>0.81414886636263994</v>
+        <v>0.79842145900655004</v>
       </c>
       <c r="G36" s="32">
-        <v>5.8033866066747803</v>
+        <v>6.0187079985129701</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>23</v>
@@ -3304,19 +3304,19 @@
         <v>23</v>
       </c>
       <c r="J36" s="34">
-        <v>921.82655839999995</v>
+        <v>1032.914</v>
       </c>
       <c r="K36" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L36" s="34">
-        <v>2567.5500000000002</v>
+        <v>2618.0500000000002</v>
       </c>
       <c r="M36" s="34">
-        <v>569.4</v>
+        <v>558.4</v>
       </c>
       <c r="N36" s="35">
-        <v>4058.7765583999999</v>
+        <v>4209.3639999999996</v>
       </c>
       <c r="O36" s="36" t="s">
         <v>23</v>
@@ -3325,7 +3325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>85</v>
       </c>
@@ -3333,49 +3333,49 @@
         <v>86</v>
       </c>
       <c r="C37" s="30">
-        <v>2.6599622988855098</v>
+        <v>2.5780719842534499</v>
       </c>
       <c r="D37" s="31">
-        <v>1.0376731837116999</v>
+        <v>1.04411476470774</v>
       </c>
       <c r="E37" s="31">
-        <v>5.8575828604489999</v>
+        <v>6.0082013309588502</v>
       </c>
       <c r="F37" s="31">
-        <v>2.5214643447392202</v>
+        <v>2.5371410504687999</v>
       </c>
       <c r="G37" s="32">
-        <v>12.0766826877854</v>
+        <v>12.1675291303888</v>
       </c>
       <c r="H37" s="30">
-        <v>2.56272710910241</v>
+        <v>2.5786357925907799</v>
       </c>
       <c r="I37" s="33">
-        <v>6.5100539005007603</v>
+        <v>5.9451451444350703</v>
       </c>
       <c r="J37" s="34">
-        <v>1142.2122964</v>
+        <v>1100.2180000000001</v>
       </c>
       <c r="K37" s="34">
         <v>445.586416986676</v>
       </c>
       <c r="L37" s="34">
-        <v>2515.3000000000002</v>
+        <v>2564.06</v>
       </c>
       <c r="M37" s="34">
-        <v>1082.74</v>
+        <v>1082.75031469807</v>
       </c>
       <c r="N37" s="35">
-        <v>5185.83871338668</v>
+        <v>5192.61473168474</v>
       </c>
       <c r="O37" s="36">
         <v>1100.4586108460401</v>
       </c>
       <c r="P37" s="37">
-        <v>2795.4770706691102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2537.1501418391099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38" t="s">
         <v>38</v>
       </c>
@@ -3383,49 +3383,49 @@
         <v>87</v>
       </c>
       <c r="C38" s="40">
-        <v>2.17841319152364</v>
+        <v>2.3203299428013802</v>
       </c>
       <c r="D38" s="41">
-        <v>1.1053074049865701</v>
+        <v>4.36449920739466</v>
       </c>
       <c r="E38" s="41">
-        <v>5.8352557023948401</v>
+        <v>5.9692334658603201</v>
       </c>
       <c r="F38" s="41">
-        <v>2.5719307982211101</v>
+        <v>2.5624891586332099</v>
       </c>
       <c r="G38" s="42">
-        <v>11.6909070971262</v>
+        <v>15.2165517746896</v>
       </c>
       <c r="H38" s="40">
-        <v>4.5060247308343397</v>
+        <v>5.6094621220433201</v>
       </c>
       <c r="I38" s="43">
-        <v>5.2506708897146703</v>
+        <v>6.28497884189182</v>
       </c>
       <c r="J38" s="44">
-        <v>8920.5475955542006</v>
+        <v>9422.9050000000007</v>
       </c>
       <c r="K38" s="44">
-        <v>2953.36538079806</v>
+        <v>12034.977300630901</v>
       </c>
       <c r="L38" s="44">
-        <v>23500.49</v>
+        <v>23843.040000000001</v>
       </c>
       <c r="M38" s="44">
-        <v>11551.416908596901</v>
+        <v>11429.2425013377</v>
       </c>
       <c r="N38" s="45">
-        <v>46925.819884949196</v>
+        <v>56730.164801968604</v>
       </c>
       <c r="O38" s="46">
-        <v>16350.6641563334</v>
+        <v>20938.559953552001</v>
       </c>
       <c r="P38" s="47">
-        <v>18413.961146728601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>22951.2154410109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
@@ -3433,49 +3433,49 @@
         <v>89</v>
       </c>
       <c r="C39" s="49">
-        <v>0.53309619334266001</v>
+        <v>0.53308058208387998</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="50">
-        <v>0.13141031518096</v>
+        <v>0.13145312557467001</v>
       </c>
       <c r="F39" s="50">
-        <v>1.0782874376616101</v>
+        <v>1.09855395862079</v>
       </c>
       <c r="G39" s="51">
-        <v>1.74279394618524</v>
+        <v>1.76308766627933</v>
       </c>
       <c r="H39" s="49">
-        <v>0.53278633227554995</v>
+        <v>0.53277051436538003</v>
       </c>
       <c r="I39" s="52">
-        <v>1.51967627835915</v>
+        <v>1.5290166447686599</v>
       </c>
       <c r="J39" s="53">
-        <v>869.68181890000005</v>
+        <v>869.65700000000004</v>
       </c>
       <c r="K39" s="53" t="s">
         <v>23</v>
       </c>
       <c r="L39" s="53">
-        <v>214.38</v>
+        <v>214.45</v>
       </c>
       <c r="M39" s="53">
-        <v>1759.0952473370801</v>
+        <v>1792.1589570147801</v>
       </c>
       <c r="N39" s="54">
-        <v>2843.15706623708</v>
+        <v>2876.2659570147798</v>
       </c>
       <c r="O39" s="55">
-        <v>869.17631812956495</v>
+        <v>869.15116172539297</v>
       </c>
       <c r="P39" s="56">
-        <v>2479.1676369241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2494.4071739427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>90</v>
       </c>
@@ -3483,25 +3483,25 @@
         <v>91</v>
       </c>
       <c r="C40" s="30">
-        <v>1.21001558333708</v>
+        <v>1.2100165367351801</v>
       </c>
       <c r="D40" s="31">
-        <v>1.4360295796000799</v>
+        <v>1.43603071107961</v>
       </c>
       <c r="E40" s="31">
-        <v>1.94661552267963</v>
+        <v>1.87606661941885</v>
       </c>
       <c r="F40" s="31">
-        <v>7.4384538603152599</v>
+        <v>7.4384597212378996</v>
       </c>
       <c r="G40" s="32">
-        <v>12.0311145459321</v>
+        <v>11.960573588471499</v>
       </c>
       <c r="H40" s="30">
-        <v>1.21008645500342</v>
+        <v>1.2100874084573601</v>
       </c>
       <c r="I40" s="33">
-        <v>2.2636481101139099</v>
+        <v>2.2636498936924201</v>
       </c>
       <c r="J40" s="34">
         <v>5122</v>
@@ -3510,13 +3510,13 @@
         <v>6078.7179999999998</v>
       </c>
       <c r="L40" s="34">
-        <v>8240.0300000000007</v>
+        <v>7941.39</v>
       </c>
       <c r="M40" s="34">
         <v>31487</v>
       </c>
       <c r="N40" s="35">
-        <v>50927.748</v>
+        <v>50629.108</v>
       </c>
       <c r="O40" s="36">
         <v>5122.3</v>
@@ -3525,7 +3525,7 @@
         <v>9582.0300000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
@@ -3539,19 +3539,19 @@
         <v>23</v>
       </c>
       <c r="E41" s="50">
-        <v>0.88462515639780004</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>23</v>
+        <v>0.97547126958892005</v>
+      </c>
+      <c r="F41" s="50">
+        <v>0</v>
       </c>
       <c r="G41" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="52" t="s">
-        <v>23</v>
+      <c r="H41" s="49">
+        <v>1.71190097660686</v>
+      </c>
+      <c r="I41" s="52">
+        <v>6.6148080853959998E-2</v>
       </c>
       <c r="J41" s="53" t="s">
         <v>23</v>
@@ -3560,22 +3560,22 @@
         <v>23</v>
       </c>
       <c r="L41" s="53">
-        <v>345.07</v>
-      </c>
-      <c r="M41" s="53" t="s">
-        <v>23</v>
+        <v>343.6</v>
+      </c>
+      <c r="M41" s="53">
+        <v>0</v>
       </c>
       <c r="N41" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="P41" s="56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O41" s="55">
+        <v>603</v>
+      </c>
+      <c r="P41" s="56">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>94</v>
       </c>
@@ -3583,40 +3583,40 @@
         <v>95</v>
       </c>
       <c r="C42" s="49">
-        <v>0.22420714595664001</v>
+        <v>10.7515163768702</v>
       </c>
       <c r="D42" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="50">
-        <v>4.29477434637373</v>
+        <v>4.3392640517589998</v>
       </c>
       <c r="F42" s="50">
-        <v>1.7054951090656001</v>
+        <v>0.13319070786889001</v>
       </c>
       <c r="G42" s="51">
-        <v>6.2244766013959696</v>
+        <v>15.223971136498101</v>
       </c>
       <c r="H42" s="49">
-        <v>10.819860586816301</v>
+        <v>10.819374696922599</v>
       </c>
       <c r="I42" s="52">
-        <v>-6.0085029131900003E-2</v>
+        <v>-6.0082330880100003E-2</v>
       </c>
       <c r="J42" s="53">
-        <v>22.1775749</v>
+        <v>1063.54</v>
       </c>
       <c r="K42" s="53" t="s">
         <v>23</v>
       </c>
       <c r="L42" s="53">
-        <v>424.82</v>
+        <v>429.24</v>
       </c>
       <c r="M42" s="53">
-        <v>168.7</v>
+        <v>13.175224822390501</v>
       </c>
       <c r="N42" s="54">
-        <v>615.69757489999995</v>
+        <v>1505.9552248223899</v>
       </c>
       <c r="O42" s="55">
         <v>1070.2525450195801</v>
@@ -3625,7 +3625,7 @@
         <v>-5.9433441706589996</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>96</v>
       </c>
@@ -3633,49 +3633,49 @@
         <v>97</v>
       </c>
       <c r="C43" s="30">
-        <v>1.50721798569205</v>
+        <v>1.5981441001847401</v>
       </c>
       <c r="D43" s="31">
-        <v>-0.17334996872280001</v>
+        <v>-0.1746316949626</v>
       </c>
       <c r="E43" s="31">
-        <v>0.67560935446852999</v>
+        <v>0.68128869395986003</v>
       </c>
       <c r="F43" s="31">
-        <v>7.4928858825948197</v>
+        <v>7.6903349055248098</v>
       </c>
       <c r="G43" s="32">
-        <v>9.5023632540325593</v>
+        <v>9.7951360047068192</v>
       </c>
       <c r="H43" s="30">
-        <v>1.5054883944836699</v>
+        <v>1.59651710319614</v>
       </c>
       <c r="I43" s="33">
-        <v>1.5931201576438001</v>
+        <v>1.69879142216025</v>
       </c>
       <c r="J43" s="34">
-        <v>2153.3108363991</v>
+        <v>2266.4560000000001</v>
       </c>
       <c r="K43" s="34">
         <v>-247.65917716205001</v>
       </c>
       <c r="L43" s="34">
-        <v>965.22</v>
+        <v>966.19</v>
       </c>
       <c r="M43" s="34">
-        <v>10704.830037895999</v>
+        <v>10906.2791563172</v>
       </c>
       <c r="N43" s="35">
-        <v>13575.701697132999</v>
+        <v>13891.2659791551</v>
       </c>
       <c r="O43" s="36">
-        <v>2150.8398285376702</v>
+        <v>2264.1486254106999</v>
       </c>
       <c r="P43" s="37">
-        <v>2276.0363342964702</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2409.1920190792198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>98</v>
       </c>
@@ -3683,49 +3683,49 @@
         <v>99</v>
       </c>
       <c r="C44" s="30">
-        <v>1.41412656541883</v>
+        <v>1.4141385366689501</v>
       </c>
       <c r="D44" s="31">
-        <v>-7.1511124277299998E-2</v>
+        <v>-2.7326994877422002</v>
       </c>
       <c r="E44" s="31">
-        <v>2.3419087289088898</v>
+        <v>2.34227210418095</v>
       </c>
       <c r="F44" s="31">
-        <v>4.7003097728100904</v>
+        <v>6.6052948266526803</v>
       </c>
       <c r="G44" s="32">
-        <v>8.3848339428605296</v>
+        <v>7.62900597976037</v>
       </c>
       <c r="H44" s="30">
-        <v>1.14180194893743</v>
+        <v>1.1765331707526101</v>
       </c>
       <c r="I44" s="33">
-        <v>4.0108313207992703</v>
+        <v>6.5121685854497704</v>
       </c>
       <c r="J44" s="34">
-        <v>660.23323946929997</v>
+        <v>660.23299999999995</v>
       </c>
       <c r="K44" s="34">
-        <v>-33.387408450031998</v>
+        <v>-1275.8427368370999</v>
       </c>
       <c r="L44" s="34">
-        <v>1093.4000000000001</v>
+        <v>1093.56</v>
       </c>
       <c r="M44" s="34">
-        <v>2194.5</v>
+        <v>3083.8800486676</v>
       </c>
       <c r="N44" s="35">
-        <v>3914.7458310192701</v>
+        <v>3561.8303118305198</v>
       </c>
       <c r="O44" s="36">
-        <v>533.08920008588302</v>
+        <v>549.29980676097898</v>
       </c>
       <c r="P44" s="37">
-        <v>1872.5934585013199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3040.4012691747898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
         <v>38</v>
       </c>
@@ -3733,49 +3733,49 @@
         <v>100</v>
       </c>
       <c r="C45" s="40">
-        <v>1.10734101820709</v>
+        <v>1.2335358557851701</v>
       </c>
       <c r="D45" s="41">
-        <v>1.0497174920578101</v>
+        <v>0.85676615579786997</v>
       </c>
       <c r="E45" s="41">
-        <v>1.4088345382074501</v>
+        <v>1.37595082591128</v>
       </c>
       <c r="F45" s="41">
-        <v>5.8832805146201999</v>
+        <v>5.6691981874991804</v>
       </c>
       <c r="G45" s="42">
-        <v>9.4491735630925398</v>
+        <v>9.1354510249935004</v>
       </c>
       <c r="H45" s="40">
-        <v>1.20647596388587</v>
+        <v>1.2480942508697901</v>
       </c>
       <c r="I45" s="43">
-        <v>2.08954852017439</v>
+        <v>2.1246205033403598</v>
       </c>
       <c r="J45" s="44">
-        <v>8827.4034696683993</v>
+        <v>9981.8860000000004</v>
       </c>
       <c r="K45" s="44">
-        <v>5797.6714143879199</v>
+        <v>4555.2160860008698</v>
       </c>
       <c r="L45" s="44">
-        <v>11282.92</v>
+        <v>10988.43</v>
       </c>
       <c r="M45" s="44">
-        <v>46314.125285233102</v>
+        <v>47282.493386821901</v>
       </c>
       <c r="N45" s="45">
-        <v>72222.120169289396</v>
+        <v>72808.025472822803</v>
       </c>
       <c r="O45" s="46">
-        <v>9745.6578917727002</v>
+        <v>10478.152138916699</v>
       </c>
       <c r="P45" s="47">
-        <v>16203.884085551201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17543.387118026101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>101</v>
       </c>
@@ -3783,49 +3783,49 @@
         <v>102</v>
       </c>
       <c r="C46" s="30">
-        <v>1.36925750494773</v>
+        <v>1.9548279563817199</v>
       </c>
       <c r="D46" s="31">
-        <v>5.3990317704399304</v>
+        <v>5.3991483770986202</v>
       </c>
       <c r="E46" s="31">
-        <v>4.7662115418457498</v>
+        <v>4.8024182157183999</v>
       </c>
       <c r="F46" s="31">
-        <v>1.1541978845865299</v>
+        <v>1.30467446232996</v>
       </c>
       <c r="G46" s="32">
-        <v>12.6886987018199</v>
+        <v>13.4610690115287</v>
       </c>
       <c r="H46" s="30">
-        <v>1.9547870690814</v>
+        <v>1.95482928798254</v>
       </c>
       <c r="I46" s="33">
-        <v>2.6054754165590999</v>
+        <v>3.54423347960957</v>
       </c>
       <c r="J46" s="34">
-        <v>242.35011989239999</v>
+        <v>345.98500000000001</v>
       </c>
       <c r="K46" s="34">
         <v>955.59527126268404</v>
       </c>
       <c r="L46" s="34">
-        <v>843.59</v>
+        <v>849.98</v>
       </c>
       <c r="M46" s="34">
-        <v>204.28589560279801</v>
+        <v>230.91433308777999</v>
       </c>
       <c r="N46" s="35">
-        <v>2245.82128675788</v>
+        <v>2382.4746043504701</v>
       </c>
       <c r="O46" s="36">
         <v>345.98523568002997</v>
       </c>
       <c r="P46" s="37">
-        <v>461.15305360615997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>627.29388355609797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>103</v>
       </c>
@@ -3833,49 +3833,49 @@
         <v>104</v>
       </c>
       <c r="C47" s="30">
-        <v>0.69562380281862002</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>23</v>
+        <v>-0.40488657079200002</v>
+      </c>
+      <c r="D47" s="31">
+        <v>4.5874550567268502</v>
       </c>
       <c r="E47" s="31">
-        <v>8.0395638888588206</v>
+        <v>8.1554587806360104</v>
       </c>
       <c r="F47" s="31">
-        <v>2.8385029149186898</v>
+        <v>2.8911837582545301</v>
       </c>
       <c r="G47" s="32">
-        <v>11.5736906065961</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>23</v>
+        <v>15.2292110248254</v>
+      </c>
+      <c r="H47" s="30">
+        <v>-0.40488837015899998</v>
+      </c>
+      <c r="I47" s="33">
+        <v>0.51236291913791998</v>
       </c>
       <c r="J47" s="34">
-        <v>137.37238761340001</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>23</v>
+        <v>-79.956999999999994</v>
+      </c>
+      <c r="K47" s="34">
+        <v>905.93062460241902</v>
       </c>
       <c r="L47" s="34">
-        <v>1587.66</v>
+        <v>1610.54</v>
       </c>
       <c r="M47" s="34">
-        <v>560.54999999999995</v>
+        <v>570.95096858010504</v>
       </c>
       <c r="N47" s="35">
-        <v>2285.5823876134</v>
-      </c>
-      <c r="O47" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P47" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3007.4645931825198</v>
+      </c>
+      <c r="O47" s="36">
+        <v>-79.957355339005005</v>
+      </c>
+      <c r="P47" s="37">
+        <v>101.181429271357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>105</v>
       </c>
@@ -3883,49 +3883,49 @@
         <v>106</v>
       </c>
       <c r="C48" s="49">
-        <v>5.5645227220996398</v>
+        <v>5.0486198547215499</v>
       </c>
       <c r="D48" s="50">
-        <v>3.2604326770000001E-4</v>
+        <v>3.3351902682E-4</v>
       </c>
       <c r="E48" s="50">
-        <v>7.1067840991137796</v>
+        <v>7.0334140435835399</v>
       </c>
       <c r="F48" s="50">
-        <v>14.775272704120299</v>
+        <v>15.2304200469266</v>
       </c>
       <c r="G48" s="51">
-        <v>27.446905568601402</v>
+        <v>27.312787464258498</v>
       </c>
       <c r="H48" s="49">
-        <v>4.2265883289673498</v>
+        <v>4.4323168932662202</v>
       </c>
       <c r="I48" s="52">
-        <v>10.642630020165001</v>
+        <v>9.3234554268029992</v>
       </c>
       <c r="J48" s="53">
-        <v>117.5420752047</v>
+        <v>104.254</v>
       </c>
       <c r="K48" s="53">
         <v>6.8871679038999996E-3</v>
       </c>
       <c r="L48" s="53">
-        <v>150.12</v>
+        <v>145.24</v>
       </c>
       <c r="M48" s="53">
-        <v>312.10515296491502</v>
+        <v>314.50817396903301</v>
       </c>
       <c r="N48" s="54">
-        <v>579.77411533751899</v>
+        <v>564.00906113693702</v>
       </c>
       <c r="O48" s="55">
-        <v>89.280247028145993</v>
+        <v>91.527343845947499</v>
       </c>
       <c r="P48" s="56">
-        <v>224.80936473452201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>192.529354563482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>107</v>
       </c>
@@ -3933,49 +3933,49 @@
         <v>108</v>
       </c>
       <c r="C49" s="30">
-        <v>1.9276304319306601</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>23</v>
+        <v>1.9159055797575499</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1.94928914512061</v>
       </c>
       <c r="E49" s="31">
-        <v>2.1632353151455401</v>
+        <v>2.19392058344584</v>
       </c>
       <c r="F49" s="31">
-        <v>0.48527421496206002</v>
+        <v>0.61266569429823003</v>
       </c>
       <c r="G49" s="32">
-        <v>4.5761399620382601</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>23</v>
+        <v>6.6717810026222297</v>
+      </c>
+      <c r="H49" s="30">
+        <v>1.93800212025639</v>
+      </c>
+      <c r="I49" s="33">
+        <v>5.0192415171979601</v>
       </c>
       <c r="J49" s="34">
-        <v>1382.3429509114001</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>23</v>
+        <v>1376.559</v>
+      </c>
+      <c r="K49" s="34">
+        <v>1400.54475787771</v>
       </c>
       <c r="L49" s="34">
-        <v>1551.3</v>
+        <v>1576.31</v>
       </c>
       <c r="M49" s="34">
-        <v>348</v>
+        <v>440.19417469633697</v>
       </c>
       <c r="N49" s="35">
-        <v>3281.6429509114</v>
-      </c>
-      <c r="O49" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P49" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4793.6079325740502</v>
+      </c>
+      <c r="O49" s="36">
+        <v>1392.43514338301</v>
+      </c>
+      <c r="P49" s="37">
+        <v>3606.2748376915602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>109</v>
       </c>
@@ -3983,49 +3983,49 @@
         <v>110</v>
       </c>
       <c r="C50" s="30">
-        <v>12.3779738628938</v>
+        <v>12.1540342298289</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="31">
-        <v>12.0416344288902</v>
+        <v>12.122249388753101</v>
       </c>
       <c r="F50" s="31">
-        <v>26.889514487824201</v>
+        <v>26.7506808705118</v>
       </c>
       <c r="G50" s="32">
-        <v>51.309122779608202</v>
+        <v>51.0269644890937</v>
       </c>
       <c r="H50" s="30">
-        <v>12.3779738632558</v>
+        <v>12.314064978355299</v>
       </c>
       <c r="I50" s="33">
-        <v>3.7217373626506598</v>
+        <v>4.2374849351294896</v>
       </c>
       <c r="J50" s="34">
-        <v>251.82262879999999</v>
+        <v>248.55</v>
       </c>
       <c r="K50" s="34" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="34">
-        <v>244.98</v>
+        <v>247.9</v>
       </c>
       <c r="M50" s="34">
         <v>547.05142380196696</v>
       </c>
       <c r="N50" s="35">
-        <v>1043.8540526019699</v>
+        <v>1043.5014238019701</v>
       </c>
       <c r="O50" s="36">
         <v>251.82262880736599</v>
       </c>
       <c r="P50" s="37">
-        <v>75.716566923398005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>86.656566923398003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>111</v>
       </c>
@@ -4033,40 +4033,40 @@
         <v>112</v>
       </c>
       <c r="C51" s="21">
-        <v>3.3020531488917202</v>
+        <v>3.0325632231560702</v>
       </c>
       <c r="D51" s="22">
-        <v>2.61421394214377</v>
+        <v>2.59969617908411</v>
       </c>
       <c r="E51" s="22">
-        <v>1.5506154770251701</v>
+        <v>1.5558863804821701</v>
       </c>
       <c r="F51" s="22">
-        <v>5.6931884552567498</v>
+        <v>5.2359374161049903</v>
       </c>
       <c r="G51" s="23">
-        <v>13.1600710233174</v>
+        <v>12.424083198827301</v>
       </c>
       <c r="H51" s="21">
-        <v>3.3007709590431702</v>
+        <v>3.2824404735671799</v>
       </c>
       <c r="I51" s="24">
-        <v>-1.0280414663749</v>
+        <v>-1.0223323458688001</v>
       </c>
       <c r="J51" s="25">
-        <v>2613.8047350000002</v>
+        <v>2413.89</v>
       </c>
       <c r="K51" s="25">
         <v>2069.33216158916</v>
       </c>
       <c r="L51" s="25">
-        <v>1227.42</v>
+        <v>1238.47</v>
       </c>
       <c r="M51" s="25">
-        <v>4506.5546405853402</v>
+        <v>4167.7538238454099</v>
       </c>
       <c r="N51" s="26">
-        <v>10417.1115371745</v>
+        <v>9889.4459854345805</v>
       </c>
       <c r="O51" s="27">
         <v>2612.78979255474</v>
@@ -4075,7 +4075,7 @@
         <v>-813.76632398814002</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>113</v>
       </c>
@@ -4083,40 +4083,40 @@
         <v>114</v>
       </c>
       <c r="C52" s="30">
-        <v>1.0710601753406499</v>
+        <v>1.24745912505524</v>
       </c>
       <c r="D52" s="31">
         <v>0</v>
       </c>
       <c r="E52" s="31">
-        <v>3.6313745696834401</v>
+        <v>3.7377059529070098</v>
       </c>
       <c r="F52" s="31">
-        <v>2.1287731024099701</v>
+        <v>2.1710119310649598</v>
       </c>
       <c r="G52" s="32">
-        <v>6.8312078474340598</v>
+        <v>7.1561770090272097</v>
       </c>
       <c r="H52" s="30">
-        <v>1.2231887783642099</v>
+        <v>1.24745912505524</v>
       </c>
       <c r="I52" s="33">
-        <v>-5.7987727314375004</v>
+        <v>-5.9138311975253997</v>
       </c>
       <c r="J52" s="34">
-        <v>173.03314499999999</v>
+        <v>197.61</v>
       </c>
       <c r="K52" s="34">
         <v>0</v>
       </c>
       <c r="L52" s="34">
-        <v>586.66</v>
+        <v>592.09</v>
       </c>
       <c r="M52" s="34">
         <v>343.91</v>
       </c>
       <c r="N52" s="35">
-        <v>1103.603145</v>
+        <v>1133.6099999999999</v>
       </c>
       <c r="O52" s="36">
         <v>197.61</v>
@@ -4125,7 +4125,7 @@
         <v>-936.81</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>115</v>
       </c>
@@ -4133,49 +4133,49 @@
         <v>116</v>
       </c>
       <c r="C53" s="30">
-        <v>1.3802236018059899</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>23</v>
+        <v>1.0742028985507299</v>
+      </c>
+      <c r="D53" s="31">
+        <v>5.3146600570105003</v>
       </c>
       <c r="E53" s="31">
-        <v>9.6275645691287703</v>
+        <v>9.80289855072464</v>
       </c>
       <c r="F53" s="31">
-        <v>10.316075688086499</v>
+        <v>11.948268071959699</v>
       </c>
       <c r="G53" s="32">
-        <v>21.323863859021198</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>23</v>
+        <v>28.140029578245599</v>
+      </c>
+      <c r="H53" s="30">
+        <v>1.07418686113592</v>
+      </c>
+      <c r="I53" s="33">
+        <v>-0.88745629644570001</v>
       </c>
       <c r="J53" s="34">
-        <v>23.815238328</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>23</v>
+        <v>18.53</v>
+      </c>
+      <c r="K53" s="34">
+        <v>91.677885983431096</v>
       </c>
       <c r="L53" s="34">
-        <v>166.12</v>
+        <v>169.1</v>
       </c>
       <c r="M53" s="34">
-        <v>178</v>
+        <v>206.10762424130499</v>
       </c>
       <c r="N53" s="35">
-        <v>367.93523832800003</v>
-      </c>
-      <c r="O53" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P53" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>485.41551022473601</v>
+      </c>
+      <c r="O53" s="36">
+        <v>18.529723354594601</v>
+      </c>
+      <c r="P53" s="37">
+        <v>-15.308621113689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>117</v>
       </c>
@@ -4183,25 +4183,25 @@
         <v>118</v>
       </c>
       <c r="C54" s="30">
-        <v>1.3018460426306699</v>
+        <v>1.3017953833000899</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="31">
-        <v>17.070769725817499</v>
+        <v>17.27928184668</v>
       </c>
       <c r="F54" s="31">
-        <v>9.6346250827764095</v>
+        <v>9.8673152343789496</v>
       </c>
       <c r="G54" s="32">
-        <v>28.007240851224601</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>23</v>
+        <v>28.448392464358999</v>
+      </c>
+      <c r="H54" s="30">
+        <v>15.2631207051149</v>
+      </c>
+      <c r="I54" s="33">
+        <v>12.100871480512099</v>
       </c>
       <c r="J54" s="34">
         <v>45.68</v>
@@ -4210,22 +4210,22 @@
         <v>23</v>
       </c>
       <c r="L54" s="34">
-        <v>598.99</v>
+        <v>606.33000000000004</v>
       </c>
       <c r="M54" s="34">
-        <v>338.06583833207202</v>
+        <v>346.24409157435701</v>
       </c>
       <c r="N54" s="35">
-        <v>982.73583833207203</v>
-      </c>
-      <c r="O54" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P54" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>998.25409157435695</v>
+      </c>
+      <c r="O54" s="36">
+        <v>535.58290554248094</v>
+      </c>
+      <c r="P54" s="37">
+        <v>424.61958025117099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>119</v>
       </c>
@@ -4233,49 +4233,49 @@
         <v>120</v>
       </c>
       <c r="C55" s="30">
-        <v>3.3560780032866102</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>23</v>
+        <v>3.2349812961277902</v>
+      </c>
+      <c r="D55" s="31">
+        <v>3.7614695847002699</v>
       </c>
       <c r="E55" s="31">
-        <v>7.2105625919218097</v>
+        <v>7.2661004953998596</v>
       </c>
       <c r="F55" s="31">
-        <v>5.3571359895108799</v>
+        <v>5.7196369414044099</v>
       </c>
       <c r="G55" s="32">
-        <v>15.923776584719301</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>23</v>
+        <v>19.9821883176323</v>
+      </c>
+      <c r="H55" s="30">
+        <v>3.23498213203397</v>
+      </c>
+      <c r="I55" s="33">
+        <v>4.2026563638667902</v>
       </c>
       <c r="J55" s="34">
-        <v>659.67153799719995</v>
-      </c>
-      <c r="K55" s="34" t="s">
-        <v>23</v>
+        <v>639.94399999999996</v>
+      </c>
+      <c r="K55" s="34">
+        <v>744.09391324540798</v>
       </c>
       <c r="L55" s="34">
-        <v>1417.31</v>
+        <v>1437.38</v>
       </c>
       <c r="M55" s="34">
-        <v>1053</v>
+        <v>1131.45857974862</v>
       </c>
       <c r="N55" s="35">
-        <v>3129.9815379972001</v>
-      </c>
-      <c r="O55" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P55" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3952.8764929940298</v>
+      </c>
+      <c r="O55" s="36">
+        <v>639.94416535895903</v>
+      </c>
+      <c r="P55" s="37">
+        <v>831.36948190012799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>121</v>
       </c>
@@ -4283,49 +4283,49 @@
         <v>122</v>
       </c>
       <c r="C56" s="30">
-        <v>5.0563919500758097</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>23</v>
+        <v>3.9860081752998702</v>
+      </c>
+      <c r="D56" s="31">
+        <v>4.6596957814480504</v>
       </c>
       <c r="E56" s="31">
-        <v>11.894406262246401</v>
+        <v>12.1117737720298</v>
       </c>
       <c r="F56" s="31">
-        <v>3.6300331116914002</v>
+        <v>2.3676956383692498</v>
       </c>
       <c r="G56" s="32">
-        <v>20.580831324013602</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>23</v>
+        <v>23.1251733671469</v>
+      </c>
+      <c r="H56" s="30">
+        <v>3.9859889554681298</v>
+      </c>
+      <c r="I56" s="33">
+        <v>3.48287493073587</v>
       </c>
       <c r="J56" s="34">
-        <v>754.55166249980005</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>23</v>
+        <v>594.83199999999999</v>
+      </c>
+      <c r="K56" s="34">
+        <v>695.36640146549303</v>
       </c>
       <c r="L56" s="34">
-        <v>1774.97</v>
+        <v>1807.44</v>
       </c>
       <c r="M56" s="34">
-        <v>541.70000000000005</v>
+        <v>353.33122011384398</v>
       </c>
       <c r="N56" s="35">
-        <v>3071.2216624998</v>
-      </c>
-      <c r="O56" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P56" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3450.9696215793401</v>
+      </c>
+      <c r="O56" s="36">
+        <v>594.82913182450898</v>
+      </c>
+      <c r="P56" s="37">
+        <v>519.74942591371405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>123</v>
       </c>
@@ -4333,49 +4333,49 @@
         <v>124</v>
       </c>
       <c r="C57" s="30">
-        <v>1.09742672343351</v>
+        <v>0.75057314509406003</v>
       </c>
       <c r="D57" s="31">
-        <v>1.38170631123896</v>
+        <v>1.38170719918063</v>
       </c>
       <c r="E57" s="31">
-        <v>0.76053586631722003</v>
+        <v>0.79916361593388996</v>
       </c>
       <c r="F57" s="31">
-        <v>4.4137585491677003</v>
+        <v>4.4137613856316404</v>
       </c>
       <c r="G57" s="32">
-        <v>7.6534274501573902</v>
+        <v>7.3452053458402196</v>
       </c>
       <c r="H57" s="30">
-        <v>0.75057266274500001</v>
+        <v>0.75057314509406003</v>
       </c>
       <c r="I57" s="33">
-        <v>2.2391110971079602</v>
+        <v>2.1940311630424398</v>
       </c>
       <c r="J57" s="34">
-        <v>4844.3080528</v>
+        <v>3313.21</v>
       </c>
       <c r="K57" s="34">
         <v>6099.1871869111001</v>
       </c>
       <c r="L57" s="34">
-        <v>3357.19</v>
+        <v>3527.7</v>
       </c>
       <c r="M57" s="34">
         <v>19483.4020589106</v>
       </c>
       <c r="N57" s="35">
-        <v>33784.0872986217</v>
+        <v>32423.499245821698</v>
       </c>
       <c r="O57" s="36">
         <v>3313.21</v>
       </c>
       <c r="P57" s="37">
-        <v>9883.9801211484901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9684.9801211484792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>125</v>
       </c>
@@ -4383,49 +4383,49 @@
         <v>126</v>
       </c>
       <c r="C58" s="30">
-        <v>8.0749992717558197</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>23</v>
+        <v>9.3827037412993093</v>
+      </c>
+      <c r="D58" s="31">
+        <v>3.76737735018841</v>
       </c>
       <c r="E58" s="31">
-        <v>4.9911569962745199</v>
+        <v>5.0369779582366601</v>
       </c>
       <c r="F58" s="31">
-        <v>9.6147989312376101</v>
+        <v>9.0632250580046403</v>
       </c>
       <c r="G58" s="32">
-        <v>22.680955199267899</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>23</v>
+        <v>27.250284107729001</v>
+      </c>
+      <c r="H58" s="30">
+        <v>9.3827096034184301</v>
+      </c>
+      <c r="I58" s="33">
+        <v>8.7251543279705999</v>
       </c>
       <c r="J58" s="34">
-        <v>2231.9042465850998</v>
-      </c>
-      <c r="K58" s="34" t="s">
-        <v>23</v>
+        <v>2588.125</v>
+      </c>
+      <c r="K58" s="34">
+        <v>1039.19336827597</v>
       </c>
       <c r="L58" s="34">
-        <v>1379.54</v>
+        <v>1389.4</v>
       </c>
       <c r="M58" s="34">
-        <v>2657.5</v>
+        <v>2500</v>
       </c>
       <c r="N58" s="35">
-        <v>6268.9442465850998</v>
-      </c>
-      <c r="O58" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P58" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7516.7183682759696</v>
+      </c>
+      <c r="O58" s="36">
+        <v>2588.1266170069398</v>
+      </c>
+      <c r="P58" s="37">
+        <v>2406.74656982741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>127</v>
       </c>
@@ -4433,49 +4433,49 @@
         <v>128</v>
       </c>
       <c r="C59" s="30">
-        <v>5.2628962371427299</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>23</v>
+        <v>5.1108968177434901</v>
+      </c>
+      <c r="D59" s="31">
+        <v>0</v>
       </c>
       <c r="E59" s="31">
-        <v>16.798016812066301</v>
+        <v>17.108486017357802</v>
       </c>
       <c r="F59" s="31">
-        <v>4.3308487055599798</v>
+        <v>5.6014963097695398</v>
       </c>
       <c r="G59" s="32">
-        <v>26.391761754769</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>23</v>
+        <v>27.820879144870801</v>
+      </c>
+      <c r="H59" s="30">
+        <v>5.11786867794366</v>
+      </c>
+      <c r="I59" s="33">
+        <v>10.749758892247501</v>
       </c>
       <c r="J59" s="34">
-        <v>218.2981255</v>
-      </c>
-      <c r="K59" s="34" t="s">
-        <v>23</v>
+        <v>212</v>
+      </c>
+      <c r="K59" s="34">
+        <v>0</v>
       </c>
       <c r="L59" s="34">
-        <v>696.76</v>
+        <v>709.66</v>
       </c>
       <c r="M59" s="34">
-        <v>179.63800000000001</v>
+        <v>232.350066929241</v>
       </c>
       <c r="N59" s="35">
-        <v>1094.6961255000001</v>
-      </c>
-      <c r="O59" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P59" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1154.0100669292401</v>
+      </c>
+      <c r="O59" s="36">
+        <v>212.28919276110301</v>
+      </c>
+      <c r="P59" s="37">
+        <v>445.89999885042499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>129</v>
       </c>
@@ -4483,19 +4483,19 @@
         <v>130</v>
       </c>
       <c r="C60" s="21">
-        <v>1.54067985991023</v>
+        <v>-1.63373710722</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="22">
-        <v>4.0253181071971502</v>
+        <v>4.2071240105540904</v>
       </c>
       <c r="F60" s="22">
-        <v>7.9948855289549901</v>
+        <v>7.80025917759406</v>
       </c>
       <c r="G60" s="23">
-        <v>13.560883496062401</v>
+        <v>10.3736460809282</v>
       </c>
       <c r="H60" s="21" t="s">
         <v>23</v>
@@ -4504,19 +4504,19 @@
         <v>23</v>
       </c>
       <c r="J60" s="25">
-        <v>129.88531503280001</v>
+        <v>-136.221</v>
       </c>
       <c r="K60" s="25" t="s">
         <v>23</v>
       </c>
       <c r="L60" s="25">
-        <v>339.35</v>
+        <v>350.79</v>
       </c>
       <c r="M60" s="25">
-        <v>674</v>
+        <v>650.38561022779299</v>
       </c>
       <c r="N60" s="26">
-        <v>1143.2353150327999</v>
+        <v>864.95461022779295</v>
       </c>
       <c r="O60" s="27" t="s">
         <v>23</v>
@@ -4525,1177 +4525,1177 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="38"/>
       <c r="B61" s="39" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="40">
-        <v>1.8592478284733001</v>
+        <v>1.5872073031470499</v>
       </c>
       <c r="D61" s="41">
-        <v>1.6396304292583499</v>
+        <v>1.93738081908824</v>
       </c>
       <c r="E61" s="41">
-        <v>2.16793640033069</v>
+        <v>2.2153342215988698</v>
       </c>
       <c r="F61" s="41">
-        <v>4.3973762588308301</v>
+        <v>4.3509809499885801</v>
       </c>
       <c r="G61" s="42">
-        <v>10.0641909168932</v>
+        <v>10.0909032938227</v>
       </c>
       <c r="H61" s="40">
-        <v>1.2071308073435201</v>
+        <v>1.7107845591950199</v>
       </c>
       <c r="I61" s="43">
-        <v>1.62104827270664</v>
+        <v>2.3474943013536098</v>
       </c>
       <c r="J61" s="44">
-        <v>13826.3822211648</v>
+        <v>11882.991</v>
       </c>
       <c r="K61" s="44">
-        <v>9124.1215069308491</v>
+        <v>14000.928458381301</v>
       </c>
       <c r="L61" s="44">
-        <v>15921.96</v>
+        <v>16258.33</v>
       </c>
       <c r="M61" s="44">
-        <v>31927.763010197701</v>
+        <v>31518.5621497264</v>
       </c>
       <c r="N61" s="45">
-        <v>70800.226738293393</v>
+        <v>73660.811608107702</v>
       </c>
       <c r="O61" s="46">
-        <v>6810.6979040702799</v>
+        <v>12714.7245247807</v>
       </c>
       <c r="P61" s="47">
-        <v>8895.0827824244298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17161.416304795399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="58"/>
       <c r="B62" s="59" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="60">
-        <v>2.6524847283959798</v>
+        <v>2.5658116546833698</v>
       </c>
       <c r="D62" s="61">
-        <v>-7.9859480894399995E-2</v>
+        <v>0.43952090274722</v>
       </c>
       <c r="E62" s="61">
-        <v>2.4544366090482699</v>
+        <v>2.48007997572955</v>
       </c>
       <c r="F62" s="61">
-        <v>3.77070544091253</v>
+        <v>3.7190178246766799</v>
       </c>
       <c r="G62" s="62">
-        <v>8.7977672974624301</v>
+        <v>9.2044303578368307</v>
       </c>
       <c r="H62" s="60">
-        <v>2.8549677897274499</v>
+        <v>3.06042519324492</v>
       </c>
       <c r="I62" s="63">
-        <v>2.5692526910999498</v>
+        <v>2.77777430602384</v>
       </c>
       <c r="J62" s="64">
-        <v>82990.538402469305</v>
+        <v>79582.751000000004</v>
       </c>
       <c r="K62" s="64">
-        <v>-9670.2620895164</v>
+        <v>2983.3437560985599</v>
       </c>
       <c r="L62" s="64">
-        <v>65012.02</v>
+        <v>65632.800000000003</v>
       </c>
       <c r="M62" s="64">
-        <v>96158.230468889305</v>
+        <v>97286.554364101597</v>
       </c>
       <c r="N62" s="65">
-        <v>234490.526781842</v>
+        <v>245485.44912020001</v>
       </c>
       <c r="O62" s="66">
-        <v>77871.739488007806</v>
+        <v>89488.685501343905</v>
       </c>
       <c r="P62" s="67">
-        <v>58557.870045488198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70920.555898038001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="58"/>
       <c r="B63" s="68" t="s">
         <v>133</v>
       </c>
       <c r="C63" s="69">
-        <v>1.5815004749944499</v>
+        <v>1.5344181368554</v>
       </c>
       <c r="D63" s="70">
-        <v>2.6331248510199199</v>
+        <v>2.5318809960514601</v>
       </c>
       <c r="E63" s="70">
-        <v>0.21778151182370001</v>
+        <v>0.25757369322550999</v>
       </c>
       <c r="F63" s="70">
-        <v>1.15626764506506</v>
+        <v>1.17756680460508</v>
       </c>
       <c r="G63" s="71">
-        <v>5.5886744829031301</v>
+        <v>5.5014396307374396</v>
       </c>
       <c r="H63" s="69">
-        <v>1.9452422002684999</v>
+        <v>2.1244869116674199</v>
       </c>
       <c r="I63" s="72">
-        <v>3.5045663609825302</v>
+        <v>3.6643017211951499</v>
       </c>
       <c r="J63" s="73">
-        <v>1342236.9676911</v>
+        <v>1249174.6040000001</v>
       </c>
       <c r="K63" s="73">
-        <v>3143004.27161405</v>
+        <v>3008658.3624592298</v>
       </c>
       <c r="L63" s="73">
-        <v>65922.41</v>
+        <v>66828.14</v>
       </c>
       <c r="M63" s="73">
-        <v>677730.89607593406</v>
+        <v>684962.44874165102</v>
       </c>
       <c r="N63" s="74">
-        <v>5228894.5453810804</v>
+        <v>5009623.5552008804</v>
       </c>
       <c r="O63" s="75">
-        <v>1628372.20886847</v>
+        <v>1791214.3781892599</v>
       </c>
       <c r="P63" s="76">
-        <v>3500687.5075091301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3712496.3622799702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="77"/>
       <c r="B64" s="78" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="60">
-        <v>2.6453222036288899</v>
+        <v>2.7139827746257899</v>
       </c>
       <c r="D64" s="61">
-        <v>1.0642442791937201</v>
+        <v>1.09162031031103</v>
       </c>
       <c r="E64" s="61">
-        <v>0.22049504849616</v>
+        <v>0.21896672422155</v>
       </c>
       <c r="F64" s="61">
-        <v>2.6847594800577599</v>
+        <v>2.6219099473792702</v>
       </c>
       <c r="G64" s="62">
-        <v>6.61482101137653</v>
+        <v>6.6464797565376399</v>
       </c>
       <c r="H64" s="60">
-        <v>2.7866465479085298</v>
+        <v>2.80264025109049</v>
       </c>
       <c r="I64" s="63">
-        <v>1.83852926131184</v>
+        <v>1.7789183469040599</v>
       </c>
       <c r="J64" s="64">
-        <v>135500.65559887799</v>
+        <v>140012.641</v>
       </c>
       <c r="K64" s="64">
-        <v>57102.858134514798</v>
+        <v>59147.919059766798</v>
       </c>
       <c r="L64" s="64">
-        <v>9784.7200000000103</v>
+        <v>9813.06</v>
       </c>
       <c r="M64" s="64">
-        <v>131237.65075365399</v>
+        <v>131483.194383897</v>
       </c>
       <c r="N64" s="65">
-        <v>333625.88448704698</v>
+        <v>340456.81444366399</v>
       </c>
       <c r="O64" s="66">
-        <v>140130.44836745301</v>
+        <v>142791.91045520801</v>
       </c>
       <c r="P64" s="67">
-        <v>92982.403898764795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>91045.704664574994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="77"/>
       <c r="B65" s="59" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="79">
-        <v>1.3271653672714501</v>
+        <v>1.3602940089569799</v>
       </c>
       <c r="D65" s="80">
-        <v>0.77150687924658001</v>
+        <v>0.75833137112018001</v>
       </c>
       <c r="E65" s="80">
-        <v>0.19137546423075999</v>
+        <v>0.24061877145617</v>
       </c>
       <c r="F65" s="80">
-        <v>1.8039979376556601</v>
+        <v>1.84329079072746</v>
       </c>
       <c r="G65" s="81">
-        <v>4.0940456484044496</v>
+        <v>4.2025349422608</v>
       </c>
       <c r="H65" s="79">
-        <v>1.88419769610749</v>
+        <v>1.9202546046042399</v>
       </c>
       <c r="I65" s="82">
-        <v>1.78625670379095</v>
+        <v>1.89471293194034</v>
       </c>
       <c r="J65" s="83">
-        <v>313651.91381856397</v>
+        <v>319750.266</v>
       </c>
       <c r="K65" s="83">
-        <v>213275.818211598</v>
+        <v>211282.83349650499</v>
       </c>
       <c r="L65" s="83">
-        <v>46489.67</v>
+        <v>46951.62</v>
       </c>
       <c r="M65" s="83">
-        <v>315906.44587929797</v>
+        <v>315760.542847084</v>
       </c>
       <c r="N65" s="84">
-        <v>889323.84790946101</v>
+        <v>893745.26234359003</v>
       </c>
       <c r="O65" s="85">
-        <v>473306.97834342299</v>
+        <v>485848.17424058198</v>
       </c>
       <c r="P65" s="86">
-        <v>351427.73083189898</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>378253.02980993502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="77"/>
       <c r="B66" s="87" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="88">
-        <v>1.6366178100453701</v>
+        <v>1.58633626567277</v>
       </c>
       <c r="D66" s="89">
-        <v>2.5239097564154802</v>
+        <v>2.4425886350643902</v>
       </c>
       <c r="E66" s="89">
-        <v>0.44257498550070001</v>
+        <v>0.48042496364650999</v>
       </c>
       <c r="F66" s="89">
-        <v>1.28884514497812</v>
+        <v>1.3089608585033701</v>
       </c>
       <c r="G66" s="90">
-        <v>5.8919476969396696</v>
+        <v>5.8183107228870403</v>
       </c>
       <c r="H66" s="88">
-        <v>1.98727990731532</v>
+        <v>2.1709531655253</v>
       </c>
       <c r="I66" s="91">
-        <v>3.4613072072194901</v>
+        <v>3.6202885541560899</v>
       </c>
       <c r="J66" s="92">
-        <v>1425227.50609357</v>
+        <v>1328757.355</v>
       </c>
       <c r="K66" s="92">
-        <v>3133334.0095245298</v>
+        <v>3011641.7062153299</v>
       </c>
       <c r="L66" s="92">
-        <v>130934.43</v>
+        <v>132460.94</v>
       </c>
       <c r="M66" s="92">
-        <v>773889.12654482399</v>
+        <v>782249.00310575298</v>
       </c>
       <c r="N66" s="93">
-        <v>5463385.0721629197</v>
+        <v>5255109.0043210797</v>
       </c>
       <c r="O66" s="94">
-        <v>1706243.9483564801</v>
+        <v>1880703.0636906</v>
       </c>
       <c r="P66" s="95">
-        <v>3559245.3775546202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3783416.9181780098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="77"/>
       <c r="B67" s="96" t="s">
         <v>137</v>
       </c>
       <c r="C67" s="97">
-        <v>1.61357584850034</v>
+        <v>1.6828384610699001</v>
       </c>
       <c r="D67" s="98">
-        <v>1.23610442556193</v>
+        <v>1.9997731676164601</v>
       </c>
       <c r="E67" s="98">
-        <v>3.6779883417414001</v>
+        <v>3.7060492909328699</v>
       </c>
       <c r="F67" s="98">
-        <v>5.1676353302023301</v>
+        <v>5.0161220424858897</v>
       </c>
       <c r="G67" s="99">
-        <v>11.695303946006</v>
+        <v>12.4047829621051</v>
       </c>
       <c r="H67" s="97">
-        <v>2.33436646035338</v>
+        <v>2.8177325662191399</v>
       </c>
       <c r="I67" s="100">
-        <v>3.89783038689324</v>
+        <v>4.0200834827596799</v>
       </c>
       <c r="J67" s="101">
-        <v>15476.773509987701</v>
+        <v>16130.014999999999</v>
       </c>
       <c r="K67" s="101">
-        <v>9788.3884290609603</v>
+        <v>17627.545020506801</v>
       </c>
       <c r="L67" s="101">
-        <v>35954.69</v>
+        <v>36079.379999999997</v>
       </c>
       <c r="M67" s="101">
-        <v>47421.110270901598</v>
+        <v>48806.290794989603</v>
       </c>
       <c r="N67" s="102">
-        <v>108640.96220995</v>
+        <v>118643.230815496</v>
       </c>
       <c r="O67" s="103">
-        <v>23019.922709939201</v>
+        <v>29444.329264959601</v>
       </c>
       <c r="P67" s="104">
-        <v>36580.619654520699</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <v>40808.981759476403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="77"/>
       <c r="B68" s="59" t="s">
         <v>138</v>
       </c>
       <c r="C68" s="79">
-        <v>1.5862497747176401</v>
+        <v>1.5621757081423</v>
       </c>
       <c r="D68" s="80">
-        <v>1.22067223053747</v>
+        <v>1.30400033897905</v>
       </c>
       <c r="E68" s="80">
-        <v>2.5090126638824102</v>
+        <v>2.5305544648952201</v>
       </c>
       <c r="F68" s="80">
-        <v>5.7641810281207597</v>
+        <v>5.6128885877334298</v>
       </c>
       <c r="G68" s="81">
-        <v>11.0801156972583</v>
+        <v>11.009619099749999</v>
       </c>
       <c r="H68" s="79">
-        <v>1.3230312174041901</v>
+        <v>1.5310251718643999</v>
       </c>
       <c r="I68" s="82">
-        <v>2.3162012636656901</v>
+        <v>2.52746164495196</v>
       </c>
       <c r="J68" s="83">
-        <v>23372.503774728499</v>
+        <v>22820.471000000001</v>
       </c>
       <c r="K68" s="83">
-        <v>14725.2969719296</v>
+        <v>18359.648594992999</v>
       </c>
       <c r="L68" s="83">
-        <v>34145.68</v>
+        <v>34272.82</v>
       </c>
       <c r="M68" s="83">
-        <v>79001.542056796694</v>
+        <v>79569.588082211994</v>
       </c>
       <c r="N68" s="84">
-        <v>151245.02280345501</v>
+        <v>155022.52767720501</v>
       </c>
       <c r="O68" s="85">
-        <v>16291.5437505463</v>
+        <v>22390.2597724445</v>
       </c>
       <c r="P68" s="86">
-        <v>25735.298299129001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <v>34628.317001541298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="77"/>
       <c r="B69" s="59" t="s">
         <v>139</v>
       </c>
       <c r="C69" s="79">
-        <v>1.51327883955708</v>
+        <v>1.6140269742212501</v>
       </c>
       <c r="D69" s="80">
-        <v>0.72656260188280997</v>
+        <v>0.72740954951791004</v>
       </c>
       <c r="E69" s="80">
-        <v>4.9276778698719097</v>
+        <v>5.0065600803701003</v>
       </c>
       <c r="F69" s="80">
-        <v>2.5843251887982501</v>
+        <v>2.5882214860027699</v>
       </c>
       <c r="G69" s="81">
-        <v>9.7518445001100496</v>
+        <v>9.9362180901120301</v>
       </c>
       <c r="H69" s="79">
-        <v>1.52041912790205</v>
+        <v>1.4980080516307801</v>
       </c>
       <c r="I69" s="82">
-        <v>6.5941195910888197</v>
+        <v>6.46270927267273</v>
       </c>
       <c r="J69" s="83">
-        <v>4669.4882442923999</v>
+        <v>4943.2420000000002</v>
       </c>
       <c r="K69" s="83">
-        <v>1494.32168469509</v>
+        <v>1489.64595579707</v>
       </c>
       <c r="L69" s="83">
-        <v>15774.18</v>
+        <v>16026.99</v>
       </c>
       <c r="M69" s="83">
-        <v>8428.3237526352696</v>
+        <v>8434.6605165234796</v>
       </c>
       <c r="N69" s="84">
-        <v>30366.3136816228</v>
+        <v>30894.538472320601</v>
       </c>
       <c r="O69" s="85">
         <v>3453.3774651127801</v>
       </c>
       <c r="P69" s="86">
-        <v>15653.7539360468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>15395.616291518099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="77"/>
       <c r="B70" s="59" t="s">
         <v>140</v>
       </c>
       <c r="C70" s="79">
-        <v>1.00914215775988</v>
+        <v>0.10045738396718</v>
       </c>
       <c r="D70" s="80">
-        <v>6.2918161222990002E-2</v>
+        <v>6.2915750897040004E-2</v>
       </c>
       <c r="E70" s="80">
-        <v>3.2782620053415901</v>
+        <v>3.3081022728138398</v>
       </c>
       <c r="F70" s="80">
-        <v>0.94098295729253001</v>
+        <v>0.93626422341205995</v>
       </c>
       <c r="G70" s="81">
-        <v>5.2913052816169897</v>
+        <v>4.40773963109012</v>
       </c>
       <c r="H70" s="79">
-        <v>-1.3335246984166</v>
+        <v>-1.3464272102604</v>
       </c>
       <c r="I70" s="82">
-        <v>5.0769975799468696</v>
+        <v>4.8620163803238299</v>
       </c>
       <c r="J70" s="83">
-        <v>5258.8657742923997</v>
+        <v>2133.1860000000001</v>
       </c>
       <c r="K70" s="83">
         <v>78.036364852765701</v>
       </c>
       <c r="L70" s="83">
-        <v>8547.08</v>
+        <v>8714.08</v>
       </c>
       <c r="M70" s="83">
-        <v>2157.5157307222298</v>
+        <v>2259.1983585866501</v>
       </c>
       <c r="N70" s="84">
-        <v>16041.4978698674</v>
+        <v>13184.5007234394</v>
       </c>
       <c r="O70" s="85">
         <v>-1443.0149979005</v>
       </c>
       <c r="P70" s="86">
-        <v>9966.9417751637502</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9700.5420186945703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="77"/>
       <c r="B71" s="59" t="s">
         <v>141</v>
       </c>
       <c r="C71" s="79">
-        <v>1.8592478284733001</v>
+        <v>1.5872073031470499</v>
       </c>
       <c r="D71" s="80">
-        <v>1.6396304292583499</v>
+        <v>1.93738081908824</v>
       </c>
       <c r="E71" s="80">
-        <v>2.16793640033069</v>
+        <v>2.2153342215988698</v>
       </c>
       <c r="F71" s="80">
-        <v>4.3973762588308301</v>
+        <v>4.3509809499885801</v>
       </c>
       <c r="G71" s="81">
-        <v>10.0641909168932</v>
+        <v>10.0909032938227</v>
       </c>
       <c r="H71" s="79">
-        <v>1.2071308073435201</v>
+        <v>1.7107845591950199</v>
       </c>
       <c r="I71" s="82">
-        <v>1.62104827270664</v>
+        <v>2.3474943013536098</v>
       </c>
       <c r="J71" s="83">
-        <v>13826.3822211648</v>
+        <v>11882.991</v>
       </c>
       <c r="K71" s="83">
-        <v>9124.1215069308491</v>
+        <v>14000.928458381301</v>
       </c>
       <c r="L71" s="83">
-        <v>15921.96</v>
+        <v>16258.33</v>
       </c>
       <c r="M71" s="83">
-        <v>31927.763010197701</v>
+        <v>31518.5621497264</v>
       </c>
       <c r="N71" s="84">
-        <v>70800.226738293393</v>
+        <v>73660.811608107702</v>
       </c>
       <c r="O71" s="85">
-        <v>6810.6979040702799</v>
+        <v>12714.7245247807</v>
       </c>
       <c r="P71" s="86">
-        <v>8895.0827824244298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17161.416304795399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="77"/>
       <c r="B72" s="59" t="s">
         <v>142</v>
       </c>
       <c r="C72" s="79">
-        <v>2.33978427380793</v>
+        <v>2.3997646656476799</v>
       </c>
       <c r="D72" s="80">
-        <v>0.50325821376563995</v>
+        <v>0.50418542971819003</v>
       </c>
       <c r="E72" s="80">
-        <v>6.0642817163783098</v>
+        <v>6.2133498001893201</v>
       </c>
       <c r="F72" s="80">
-        <v>2.7657201295537699</v>
+        <v>2.80432371524198</v>
       </c>
       <c r="G72" s="81">
-        <v>11.673044333505599</v>
+        <v>11.9216236107972</v>
       </c>
       <c r="H72" s="79">
-        <v>2.2947050236718098</v>
+        <v>2.2808330798555798</v>
       </c>
       <c r="I72" s="82">
-        <v>4.6523902830044204</v>
+        <v>4.3995651154543403</v>
       </c>
       <c r="J72" s="83">
-        <v>7072.4751468000004</v>
+        <v>7151.1610000000001</v>
       </c>
       <c r="K72" s="83">
-        <v>1091.21388562019</v>
+        <v>1086.53815672217</v>
       </c>
       <c r="L72" s="83">
-        <v>18124.59</v>
+        <v>18379.57</v>
       </c>
       <c r="M72" s="83">
-        <v>9450.8350240302298</v>
+        <v>9469.9400874545408</v>
       </c>
       <c r="N72" s="84">
-        <v>35739.114056450402</v>
+        <v>36087.209244176702</v>
       </c>
       <c r="O72" s="85">
         <v>6512.8730894826604</v>
       </c>
       <c r="P72" s="86">
-        <v>14107.845722789099</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <v>13548.213087759699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="77"/>
       <c r="B73" s="59" t="s">
         <v>143</v>
       </c>
       <c r="C73" s="79">
-        <v>5.4385645744670699</v>
+        <v>5.4324148404669304</v>
       </c>
       <c r="D73" s="80">
-        <v>-3.4317553555057998</v>
+        <v>-1.9083119433139999</v>
       </c>
       <c r="E73" s="80">
-        <v>2.0866580354609598</v>
+        <v>2.10630324769342</v>
       </c>
       <c r="F73" s="80">
-        <v>0.90945499398717999</v>
+        <v>0.91179196757438996</v>
       </c>
       <c r="G73" s="81">
-        <v>5.00292224840938</v>
+        <v>6.5421981124207802</v>
       </c>
       <c r="H73" s="79">
-        <v>7.51961330404548</v>
+        <v>8.3773589694670392</v>
       </c>
       <c r="I73" s="82">
-        <v>2.8668763028231701</v>
+        <v>3.30554958775515</v>
       </c>
       <c r="J73" s="83">
-        <v>45725.379977243698</v>
+        <v>45948.442999999999</v>
       </c>
       <c r="K73" s="83">
-        <v>-25763.966228074001</v>
+        <v>-16740.036276625</v>
       </c>
       <c r="L73" s="83">
-        <v>14902.88</v>
+        <v>15149.74</v>
       </c>
       <c r="M73" s="83">
-        <v>7651.5036821134599</v>
+        <v>8116.8710620751499</v>
       </c>
       <c r="N73" s="84">
-        <v>42515.797431282699</v>
+        <v>52475.017785450298</v>
       </c>
       <c r="O73" s="85">
-        <v>53568.082837602502</v>
+        <v>58548.507983084201</v>
       </c>
       <c r="P73" s="86">
-        <v>17079.7785278191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>20204.467508721798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="77"/>
       <c r="B74" s="59" t="s">
         <v>143</v>
       </c>
       <c r="C74" s="79">
-        <v>0.96122365047459002</v>
+        <v>1.26700140591316</v>
       </c>
       <c r="D74" s="80">
-        <v>-0.14321469514980001</v>
+        <v>-0.93109333303020003</v>
       </c>
       <c r="E74" s="80">
-        <v>0.73947421057131002</v>
+        <v>0.75354184936653001</v>
       </c>
       <c r="F74" s="80">
-        <v>3.6700952398348501</v>
+        <v>3.4672995977126102</v>
       </c>
       <c r="G74" s="81">
-        <v>5.2275784057309904</v>
+        <v>4.5567495199620804</v>
       </c>
       <c r="H74" s="79">
-        <v>1.2013378319868</v>
+        <v>1.29539489642971</v>
       </c>
       <c r="I74" s="82">
-        <v>1.8417853689688299</v>
+        <v>1.9515942928466701</v>
       </c>
       <c r="J74" s="83">
-        <v>3705.4034696683998</v>
+        <v>4859.8860000000004</v>
       </c>
       <c r="K74" s="83">
-        <v>-281.04658561207998</v>
+        <v>-1523.5019139991</v>
       </c>
       <c r="L74" s="83">
-        <v>3042.89</v>
+        <v>3047.04</v>
       </c>
       <c r="M74" s="83">
-        <v>14827.1252852331</v>
+        <v>15795.4933868219</v>
       </c>
       <c r="N74" s="84">
-        <v>21294.3721692894</v>
+        <v>22178.917472822799</v>
       </c>
       <c r="O74" s="85">
-        <v>4623.3578917727</v>
+        <v>5355.8521389166499</v>
       </c>
       <c r="P74" s="86">
-        <v>6621.8540855512301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7961.3571180260496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="77"/>
       <c r="B75" s="87" t="s">
         <v>144</v>
       </c>
       <c r="C75" s="88">
-        <v>0.71756014115799005</v>
+        <v>0.35204622936015001</v>
       </c>
       <c r="D75" s="89">
-        <v>1.4883209628799999E-3</v>
+        <v>9.5807444783009996E-2</v>
       </c>
       <c r="E75" s="89">
-        <v>2.8076246367878701</v>
+        <v>2.8041948789369</v>
       </c>
       <c r="F75" s="89">
-        <v>0.88391431246927998</v>
+        <v>0.90347388899550996</v>
       </c>
       <c r="G75" s="90">
-        <v>4.4105874113780299</v>
+        <v>4.1555224420755703</v>
       </c>
       <c r="H75" s="88">
-        <v>0.65329407763493996</v>
+        <v>0.55699030596148003</v>
       </c>
       <c r="I75" s="91">
-        <v>3.32581524845489</v>
+        <v>2.7748661794487699</v>
       </c>
       <c r="J75" s="92">
-        <v>1153.0180118327</v>
+        <v>883.28399999999999</v>
       </c>
       <c r="K75" s="92">
-        <v>2.1834681269099199</v>
+        <v>93.861354110340997</v>
       </c>
       <c r="L75" s="92">
-        <v>2871.77</v>
+        <v>2916.49</v>
       </c>
       <c r="M75" s="92">
-        <v>967.29985974598605</v>
+        <v>997.81050499140804</v>
       </c>
       <c r="N75" s="93">
-        <v>4994.2713397055904</v>
+        <v>4891.4458591017501</v>
       </c>
       <c r="O75" s="94">
-        <v>1088.5599323067099</v>
+        <v>1109.3367524791099</v>
       </c>
       <c r="P75" s="95">
-        <v>3080.93547561573</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2615.5182546487799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="77"/>
       <c r="B76" s="96" t="s">
         <v>145</v>
       </c>
       <c r="C76" s="97">
-        <v>4.0615521371508398</v>
+        <v>4.7835751115113698</v>
       </c>
       <c r="D76" s="98">
-        <v>0.99854870572382004</v>
+        <v>1.0356180574446601</v>
       </c>
       <c r="E76" s="98">
-        <v>0.23106813253124001</v>
+        <v>0.23316871587827001</v>
       </c>
       <c r="F76" s="98">
-        <v>2.4042600044770399</v>
+        <v>2.2529187808253202</v>
       </c>
       <c r="G76" s="99">
-        <v>7.6954289798829398</v>
+        <v>8.3052806656596196</v>
       </c>
       <c r="H76" s="97">
-        <v>4.5958894230799796</v>
+        <v>5.2100783657666296</v>
       </c>
       <c r="I76" s="100">
-        <v>3.1444315579248499</v>
+        <v>2.50463228044261</v>
       </c>
       <c r="J76" s="101">
-        <v>175228.62043128599</v>
+        <v>213566.94500000001</v>
       </c>
       <c r="K76" s="101">
-        <v>39361.201275450599</v>
+        <v>41519.716864539398</v>
       </c>
       <c r="L76" s="101">
-        <v>6325.52</v>
+        <v>6382.35</v>
       </c>
       <c r="M76" s="101">
-        <v>78156.261064305596</v>
+        <v>73978.5884263974</v>
       </c>
       <c r="N76" s="102">
-        <v>299071.60277104197</v>
+        <v>335447.600290937</v>
       </c>
       <c r="O76" s="103">
-        <v>192921.99982620799</v>
+        <v>227564.68186931501</v>
       </c>
       <c r="P76" s="104">
-        <v>149098.53084969899</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+        <v>111874.085687705</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="77"/>
       <c r="B77" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C77" s="79">
-        <v>2.6965275621193698</v>
+        <v>2.8539047413349001</v>
       </c>
       <c r="D77" s="80">
-        <v>2.0197572484768198</v>
+        <v>2.08580867656072</v>
       </c>
       <c r="E77" s="80">
-        <v>0.17671136026486001</v>
+        <v>0.17708966201866</v>
       </c>
       <c r="F77" s="80">
-        <v>0.81503221797776004</v>
+        <v>0.82025249406739997</v>
       </c>
       <c r="G77" s="81">
-        <v>5.7080283888388097</v>
+        <v>5.9370555739816799</v>
       </c>
       <c r="H77" s="79">
-        <v>2.7687313687668098</v>
+        <v>2.7960713037062401</v>
       </c>
       <c r="I77" s="82">
-        <v>2.0197954165437499</v>
+        <v>1.9791056115149701</v>
       </c>
       <c r="J77" s="83">
-        <v>88910.267275200007</v>
+        <v>93772.150999999998</v>
       </c>
       <c r="K77" s="83">
-        <v>71098.655754406398</v>
+        <v>73462.1513468872</v>
       </c>
       <c r="L77" s="83">
-        <v>4627.08</v>
+        <v>4640.7299999999996</v>
       </c>
       <c r="M77" s="83">
-        <v>24325.567896598401</v>
+        <v>24487.135618998302</v>
       </c>
       <c r="N77" s="84">
-        <v>188961.57092620499</v>
+        <v>196362.16796588499</v>
       </c>
       <c r="O77" s="85">
-        <v>91764.151631632107</v>
+        <v>93230.729577394304</v>
       </c>
       <c r="P77" s="86">
-        <v>66410.084902595205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+        <v>65399.260802263801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="77"/>
       <c r="B78" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C78" s="79">
-        <v>0.99183223778455998</v>
+        <v>1.0560178192099701</v>
       </c>
       <c r="D78" s="80">
-        <v>6.6476932689065702</v>
+        <v>6.6972069612759997</v>
       </c>
       <c r="E78" s="80" t="s">
         <v>23</v>
       </c>
       <c r="F78" s="80">
-        <v>0.91303058544464999</v>
+        <v>0.95739629174233998</v>
       </c>
       <c r="G78" s="81" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="79">
-        <v>1.4872729471705901</v>
+        <v>2.5828068165510301</v>
       </c>
       <c r="I78" s="82">
-        <v>8.1874611175723206</v>
+        <v>8.5222598369073204</v>
       </c>
       <c r="J78" s="83">
-        <v>137541.29351186301</v>
+        <v>152380.954</v>
       </c>
       <c r="K78" s="83">
-        <v>1364890.4236448</v>
+        <v>1363687.45774839</v>
       </c>
       <c r="L78" s="83" t="s">
         <v>23</v>
       </c>
       <c r="M78" s="83">
-        <v>143712.596457512</v>
+        <v>149603.28610435801</v>
       </c>
       <c r="N78" s="84" t="s">
         <v>23</v>
       </c>
       <c r="O78" s="85">
-        <v>163341.5543364</v>
+        <v>371178.94706488698</v>
       </c>
       <c r="P78" s="86">
-        <v>1478094.3088463</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1546475.43178518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="77"/>
       <c r="B79" s="87" t="s">
         <v>147</v>
       </c>
       <c r="C79" s="88">
-        <v>1.3293379090131801</v>
+        <v>1.1846181556052899</v>
       </c>
       <c r="D79" s="89">
-        <v>4.4215600442455996</v>
+        <v>4.2276130085739698</v>
       </c>
       <c r="E79" s="89">
-        <v>0.15460577343797999</v>
+        <v>0.15303732395646</v>
       </c>
       <c r="F79" s="89">
-        <v>0.50723529123093003</v>
+        <v>0.51783112036668999</v>
       </c>
       <c r="G79" s="90">
-        <v>6.4127390179276897</v>
+        <v>6.08309960850241</v>
       </c>
       <c r="H79" s="88">
-        <v>1.69584654082897</v>
+        <v>1.85234111523587</v>
       </c>
       <c r="I79" s="91">
-        <v>4.8415515583229398</v>
+        <v>5.17869944321047</v>
       </c>
       <c r="J79" s="92">
-        <v>733165.88257886295</v>
+        <v>625393.86300000001</v>
       </c>
       <c r="K79" s="92">
-        <v>2852179.2267933502</v>
+        <v>2714604.8496278902</v>
       </c>
       <c r="L79" s="92">
-        <v>3609.47</v>
+        <v>3616.99</v>
       </c>
       <c r="M79" s="92">
-        <v>228630.80805149599</v>
+        <v>233835.88155826199</v>
       </c>
       <c r="N79" s="93">
-        <v>3817585.3874237002</v>
+        <v>3577451.5841861502</v>
       </c>
       <c r="O79" s="94">
-        <v>897510.32295154</v>
+        <v>968095.89922659297</v>
       </c>
       <c r="P79" s="95">
-        <v>2864935.6007723999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3088007.3296811101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="77"/>
       <c r="B80" s="96" t="s">
         <v>148</v>
       </c>
       <c r="C80" s="97">
-        <v>0.28710519427525</v>
+        <v>-8.9811613997899997E-2</v>
       </c>
       <c r="D80" s="98">
-        <v>6.1921681134500003E-6</v>
+        <v>6.1401552740200004E-6</v>
       </c>
       <c r="E80" s="98">
-        <v>0.81731710295307003</v>
+        <v>0.83702354560825998</v>
       </c>
       <c r="F80" s="98">
-        <v>0.98684404710936002</v>
+        <v>0.78599347130745001</v>
       </c>
       <c r="G80" s="99">
-        <v>2.09127253650579</v>
+        <v>1.5332115430730799</v>
       </c>
       <c r="H80" s="97">
-        <v>-0.9107816051216</v>
+        <v>-0.49162451447130001</v>
       </c>
       <c r="I80" s="100">
-        <v>2.4380471240906898</v>
+        <v>1.9157899627397299</v>
       </c>
       <c r="J80" s="101">
-        <v>3305.7262295046999</v>
+        <v>975.98500000000001</v>
       </c>
       <c r="K80" s="101">
         <v>6.8871679038999996E-3</v>
       </c>
       <c r="L80" s="101">
-        <v>4499.6400000000003</v>
+        <v>4544.68</v>
       </c>
       <c r="M80" s="101">
-        <v>3502.53154962177</v>
+        <v>3386.9315473790198</v>
       </c>
       <c r="N80" s="102">
-        <v>11307.9046662944</v>
+        <v>8907.6034345469197</v>
       </c>
       <c r="O80" s="103">
-        <v>-2326.4074425386002</v>
+        <v>-1721.1855021250001</v>
       </c>
       <c r="P80" s="104">
-        <v>7126.9084449928696</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6674.9752635404302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="77"/>
       <c r="B81" s="59" t="s">
         <v>149</v>
       </c>
       <c r="C81" s="79">
-        <v>1.7780444683313199</v>
+        <v>1.7737118719198499</v>
       </c>
       <c r="D81" s="80">
-        <v>0.25176465853453001</v>
+        <v>0.30314413621542002</v>
       </c>
       <c r="E81" s="80">
-        <v>0.81807831700130995</v>
+        <v>0.77849542216662004</v>
       </c>
       <c r="F81" s="80">
-        <v>0.93293484258345005</v>
+        <v>1.0603810755298499</v>
       </c>
       <c r="G81" s="81">
-        <v>3.7808222864505998</v>
+        <v>3.9157325058317398</v>
       </c>
       <c r="H81" s="79">
-        <v>1.84790957311822</v>
+        <v>1.8687905128511499</v>
       </c>
       <c r="I81" s="82">
-        <v>2.4513799274402399</v>
+        <v>2.4542009960651199</v>
       </c>
       <c r="J81" s="83">
-        <v>89008.229686355597</v>
+        <v>87976.463000000003</v>
       </c>
       <c r="K81" s="83">
-        <v>9745.3274158300901</v>
+        <v>12113.4035831662</v>
       </c>
       <c r="L81" s="83">
-        <v>9529</v>
+        <v>9587.67</v>
       </c>
       <c r="M81" s="83">
-        <v>27952.2153372334</v>
+        <v>32778.106980274097</v>
       </c>
       <c r="N81" s="84">
-        <v>136234.772439419</v>
+        <v>142455.64356344001</v>
       </c>
       <c r="O81" s="85">
-        <v>66577.191147946505</v>
+        <v>68193.644639598497</v>
       </c>
       <c r="P81" s="86">
-        <v>96094.288516565706</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+        <v>97381.694061383503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="77"/>
       <c r="B82" s="59" t="s">
         <v>150</v>
       </c>
       <c r="C82" s="79">
-        <v>2.9842536520177401</v>
+        <v>2.9392200971433899</v>
       </c>
       <c r="D82" s="80">
-        <v>-8.3234868015199998E-2</v>
+        <v>0.45686843518865999</v>
       </c>
       <c r="E82" s="80">
-        <v>2.7218435374577301</v>
+        <v>2.7490222971762899</v>
       </c>
       <c r="F82" s="80">
-        <v>4.1294425424134502</v>
+        <v>4.1748068932207598</v>
       </c>
       <c r="G82" s="81">
-        <v>9.75230486387375</v>
+        <v>10.3199177227291</v>
       </c>
       <c r="H82" s="79">
-        <v>3.3688839329938398</v>
+        <v>3.6031762932572202</v>
       </c>
       <c r="I82" s="82">
-        <v>2.5872996924920799</v>
+        <v>2.9094850051997301</v>
       </c>
       <c r="J82" s="83">
-        <v>79684.812172964594</v>
+        <v>78606.766000000003</v>
       </c>
       <c r="K82" s="83">
-        <v>-9670.2689766842996</v>
+        <v>2983.3368689306499</v>
       </c>
       <c r="L82" s="83">
-        <v>60512.38</v>
+        <v>61088.12</v>
       </c>
       <c r="M82" s="83">
-        <v>92655.698919267597</v>
+        <v>93899.622816722607</v>
       </c>
       <c r="N82" s="84">
-        <v>223182.622115548</v>
+        <v>236577.84568565301</v>
       </c>
       <c r="O82" s="85">
-        <v>80198.146930546398</v>
+        <v>91209.871003468899</v>
       </c>
       <c r="P82" s="86">
-        <v>51430.961600495299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>64245.580634497601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="77"/>
       <c r="B83" s="87" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="88">
-        <v>1.56334490527409</v>
+        <v>1.5129011168687101</v>
       </c>
       <c r="D83" s="89">
-        <v>2.8002091768081101</v>
+        <v>2.6893418412273999</v>
       </c>
       <c r="E83" s="89">
-        <v>0.18406024530147</v>
+        <v>0.22847954638375001</v>
       </c>
       <c r="F83" s="89">
-        <v>1.17208772269765</v>
+        <v>1.1860770711625299</v>
       </c>
       <c r="G83" s="90">
-        <v>5.7197020500813203</v>
+        <v>5.6167995756423901</v>
       </c>
       <c r="H83" s="88">
-        <v>1.9520786433377599</v>
+        <v>2.1425724188134798</v>
       </c>
       <c r="I83" s="91">
-        <v>3.57854000481644</v>
+        <v>3.7498926227999299</v>
       </c>
       <c r="J83" s="92">
-        <v>1253228.7380047401</v>
+        <v>1161198.1410000001</v>
       </c>
       <c r="K83" s="92">
-        <v>3133258.94419822</v>
+        <v>2996544.9588760701</v>
       </c>
       <c r="L83" s="92">
-        <v>56393.41</v>
+        <v>57240.47</v>
       </c>
       <c r="M83" s="92">
-        <v>649778.68073870102</v>
+        <v>652184.34176137706</v>
       </c>
       <c r="N83" s="93">
-        <v>5092659.7729416601</v>
+        <v>4867167.9116374403</v>
       </c>
       <c r="O83" s="94">
-        <v>1561795.01772053</v>
+        <v>1723020.7335496601</v>
       </c>
       <c r="P83" s="95">
-        <v>3404593.2189925699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3615114.6682185899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="77"/>
       <c r="B84" s="96" t="s">
         <v>152</v>
       </c>
       <c r="C84" s="97">
-        <v>3.6374287074057698</v>
+        <v>3.6481695249301702</v>
       </c>
       <c r="D84" s="98">
-        <v>0.63438055125051995</v>
+        <v>1.2417627073398401</v>
       </c>
       <c r="E84" s="98">
-        <v>7.84991411932715</v>
+        <v>7.9989642513779398</v>
       </c>
       <c r="F84" s="98">
-        <v>2.9522167416999801</v>
+        <v>2.9321407386644598</v>
       </c>
       <c r="G84" s="99">
-        <v>15.0739401196834</v>
+        <v>15.8210372223124</v>
       </c>
       <c r="H84" s="97">
-        <v>3.7427216219185699</v>
+        <v>3.9015827853083498</v>
       </c>
       <c r="I84" s="100">
-        <v>4.4585777752550397</v>
+        <v>3.7712342725305401</v>
       </c>
       <c r="J84" s="101">
-        <v>16529.2635764636</v>
+        <v>16487.63</v>
       </c>
       <c r="K84" s="101">
-        <v>1447.5282172213399</v>
+        <v>3884.5970425180899</v>
       </c>
       <c r="L84" s="101">
-        <v>34562.080000000002</v>
+        <v>35113.29</v>
       </c>
       <c r="M84" s="101">
-        <v>13370.910330721599</v>
+        <v>13181.8765956191</v>
       </c>
       <c r="N84" s="102">
-        <v>65909.7821244066</v>
+        <v>68667.393638137204</v>
       </c>
       <c r="O84" s="103">
-        <v>13098.0396164182</v>
+        <v>16236.5575310476</v>
       </c>
       <c r="P84" s="104">
-        <v>14861.506007577</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+        <v>15234.513688688199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="77"/>
       <c r="B85" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="79" t="s">
-        <v>23</v>
+      <c r="C85" s="79">
+        <v>0.13788233719296</v>
       </c>
       <c r="D85" s="80" t="s">
         <v>23</v>
       </c>
       <c r="E85" s="80">
-        <v>22.8111648869723</v>
-      </c>
-      <c r="F85" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="81" t="s">
-        <v>23</v>
+        <v>26.004431292142598</v>
+      </c>
+      <c r="F85" s="80">
+        <v>10.4768828812101</v>
+      </c>
+      <c r="G85" s="81">
+        <v>36.619196510545699</v>
       </c>
       <c r="H85" s="79" t="s">
         <v>23</v>
@@ -5704,19 +5704,19 @@
         <v>23</v>
       </c>
       <c r="J85" s="83">
-        <v>38.717834000000003</v>
+        <v>38.718000000000004</v>
       </c>
       <c r="K85" s="83" t="s">
         <v>23</v>
       </c>
       <c r="L85" s="83">
-        <v>18232.72</v>
+        <v>18296.32</v>
       </c>
       <c r="M85" s="83">
-        <v>300</v>
+        <v>4071</v>
       </c>
       <c r="N85" s="84">
-        <v>18571.437834</v>
+        <v>22406.038</v>
       </c>
       <c r="O85" s="85" t="s">
         <v>23</v>
@@ -5725,631 +5725,631 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="77"/>
       <c r="B86" s="59" t="s">
         <v>154</v>
       </c>
       <c r="C86" s="79">
-        <v>1.1351810124637201</v>
+        <v>1.01268193975469</v>
       </c>
       <c r="D86" s="80">
-        <v>1.1458862310186899</v>
+        <v>1.12735494250087</v>
       </c>
       <c r="E86" s="80">
-        <v>1.55850680756045</v>
+        <v>1.55588741472324</v>
       </c>
       <c r="F86" s="80">
-        <v>4.6762991982203301</v>
+        <v>4.7144627510785799</v>
       </c>
       <c r="G86" s="81">
-        <v>8.5158732492631994</v>
+        <v>8.4103870480573804</v>
       </c>
       <c r="H86" s="79">
-        <v>0.82623000200950003</v>
+        <v>0.98719112112518004</v>
       </c>
       <c r="I86" s="82">
-        <v>2.4128981373432699</v>
+        <v>2.64912830203258</v>
       </c>
       <c r="J86" s="83">
-        <v>22569.724626633801</v>
+        <v>19301.564999999999</v>
       </c>
       <c r="K86" s="83">
-        <v>15436.0891897576</v>
+        <v>16628.696258626202</v>
       </c>
       <c r="L86" s="83">
-        <v>28383.61</v>
+        <v>28450.799999999999</v>
       </c>
       <c r="M86" s="83">
-        <v>81460.557384713393</v>
+        <v>82773.469536994497</v>
       </c>
       <c r="N86" s="84">
-        <v>147849.98120110499</v>
+        <v>147154.53079562099</v>
       </c>
       <c r="O86" s="85">
-        <v>13508.955185029799</v>
+        <v>17621.2582893816</v>
       </c>
       <c r="P86" s="86">
-        <v>38246.988668525097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45239.834018700603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="77"/>
       <c r="B87" s="59" t="s">
         <v>155</v>
       </c>
       <c r="C87" s="79">
-        <v>1.6814271499307301</v>
+        <v>1.72442017013408</v>
       </c>
       <c r="D87" s="80">
-        <v>0.31810861600083001</v>
+        <v>0.29765940468989999</v>
       </c>
       <c r="E87" s="80">
-        <v>0.39795917852585999</v>
+        <v>0.42495557598008998</v>
       </c>
       <c r="F87" s="80">
-        <v>4.2584117087990299</v>
+        <v>4.2872118772037</v>
       </c>
       <c r="G87" s="81">
-        <v>6.6559066532564497</v>
+        <v>6.7342470280077702</v>
       </c>
       <c r="H87" s="79">
-        <v>1.8098163404808001</v>
+        <v>1.79734972758103</v>
       </c>
       <c r="I87" s="82">
-        <v>3.1174084655052599</v>
+        <v>3.3054605682952398</v>
       </c>
       <c r="J87" s="83">
-        <v>119308.99195780601</v>
+        <v>122322.93700000001</v>
       </c>
       <c r="K87" s="83">
-        <v>19228.405080276301</v>
+        <v>17655.339409845801</v>
       </c>
       <c r="L87" s="83">
-        <v>30429.82</v>
+        <v>30836.12</v>
       </c>
       <c r="M87" s="83">
-        <v>287209.29664095299</v>
+        <v>283124.07828184101</v>
       </c>
       <c r="N87" s="84">
-        <v>456176.51367903501</v>
+        <v>453938.47469168698</v>
       </c>
       <c r="O87" s="85">
-        <v>118624.982667713</v>
+        <v>119246.900368448</v>
       </c>
       <c r="P87" s="86">
-        <v>189590.902264845</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+        <v>210824.69501940301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="77"/>
       <c r="B88" s="59" t="s">
         <v>156</v>
       </c>
       <c r="C88" s="79">
-        <v>8.7947449663975004</v>
+        <v>8.7325710094957607</v>
       </c>
       <c r="D88" s="80">
-        <v>-5.6201254571797001</v>
+        <v>-3.2396446251920001</v>
       </c>
       <c r="E88" s="80">
-        <v>0.42527614988438001</v>
+        <v>0.43621386549844998</v>
       </c>
       <c r="F88" s="80">
-        <v>0.28600924696814001</v>
+        <v>0.24944557952443999</v>
       </c>
       <c r="G88" s="81">
-        <v>3.8859049060703299</v>
+        <v>6.17858582932661</v>
       </c>
       <c r="H88" s="79">
-        <v>11.4260121602812</v>
+        <v>10.9981049984058</v>
       </c>
       <c r="I88" s="82">
-        <v>1.26172264726315</v>
+        <v>2.2145757098755201</v>
       </c>
       <c r="J88" s="83">
-        <v>43734.650930971897</v>
+        <v>43568.771000000001</v>
       </c>
       <c r="K88" s="83">
-        <v>-26547.960475331001</v>
+        <v>-17524.030523882</v>
       </c>
       <c r="L88" s="83">
-        <v>2066.33</v>
+        <v>2068.71</v>
       </c>
       <c r="M88" s="83">
-        <v>1317.23794430881</v>
+        <v>1321.6959865618501</v>
       </c>
       <c r="N88" s="84">
-        <v>20570.2583999493</v>
+        <v>29435.146462680001</v>
       </c>
       <c r="O88" s="85">
-        <v>51159.248344995598</v>
+        <v>55519.414589350599</v>
       </c>
       <c r="P88" s="86">
-        <v>5197.9202848146897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10115.380138628299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="77"/>
       <c r="B89" s="59" t="s">
         <v>157</v>
       </c>
       <c r="C89" s="79">
-        <v>1.5688842946884201</v>
+        <v>1.6066723273555199</v>
       </c>
       <c r="D89" s="80">
-        <v>0.74543296815672999</v>
+        <v>0.74848454919473995</v>
       </c>
       <c r="E89" s="80">
-        <v>9.4438509363589995E-2</v>
+        <v>9.7283534120229997E-2</v>
       </c>
       <c r="F89" s="80">
-        <v>0.89609586035772004</v>
+        <v>0.90208574617667003</v>
       </c>
       <c r="G89" s="81">
-        <v>3.3048516325664599</v>
+        <v>3.35452615684716</v>
       </c>
       <c r="H89" s="79">
-        <v>2.14108620481686</v>
+        <v>2.1865422961237799</v>
       </c>
       <c r="I89" s="82">
-        <v>1.3996751433230299</v>
+        <v>1.3997755857432701</v>
       </c>
       <c r="J89" s="83">
-        <v>372737.11317193299</v>
+        <v>393599.62699999998</v>
       </c>
       <c r="K89" s="83">
-        <v>211924.98088836999</v>
+        <v>212888.05597165399</v>
       </c>
       <c r="L89" s="83">
-        <v>16857.07</v>
+        <v>17291.25</v>
       </c>
       <c r="M89" s="83">
-        <v>208244.05450639699</v>
+        <v>209781.201225642</v>
       </c>
       <c r="N89" s="84">
-        <v>809763.2185667</v>
+        <v>833560.13419729494</v>
       </c>
       <c r="O89" s="85">
-        <v>553900.21728234598</v>
+        <v>567350.82525870099</v>
       </c>
       <c r="P89" s="86">
-        <v>325092.83516322199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>326923.79724376701</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="77"/>
       <c r="B90" s="87" t="s">
         <v>158</v>
       </c>
       <c r="C90" s="88">
-        <v>1.56460121754489</v>
+        <v>1.4280393345875799</v>
       </c>
       <c r="D90" s="89">
-        <v>4.7374617042655496</v>
+        <v>4.5446720369674498</v>
       </c>
       <c r="E90" s="89">
-        <v>0.16583510043134</v>
+        <v>0.15869598347856001</v>
       </c>
       <c r="F90" s="89">
-        <v>0.36709999804824001</v>
+        <v>0.38081644975336998</v>
       </c>
       <c r="G90" s="90">
-        <v>6.8349980202900298</v>
+        <v>6.5122238047869603</v>
       </c>
       <c r="H90" s="88">
-        <v>1.8417994785607501</v>
+        <v>2.1812096455555601</v>
       </c>
       <c r="I90" s="91">
-        <v>5.1862699685415397</v>
+        <v>5.4556788709403499</v>
       </c>
       <c r="J90" s="92">
-        <v>851070.37732905895</v>
+        <v>734434.10699999996</v>
       </c>
       <c r="K90" s="92">
-        <v>2911844.9666242399</v>
+        <v>2778109.0480565699</v>
       </c>
       <c r="L90" s="92">
-        <v>129.68</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="M90" s="92">
-        <v>181987.06973772901</v>
+        <v>187995.68147909499</v>
       </c>
       <c r="N90" s="93">
-        <v>3945032.0936910301</v>
+        <v>3700670.1365356599</v>
       </c>
       <c r="O90" s="94">
-        <v>955952.50525997696</v>
+        <v>1104728.10765368</v>
       </c>
       <c r="P90" s="95">
-        <v>2986255.22516564</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3175078.6980688302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="77"/>
       <c r="B91" s="96" t="s">
         <v>159</v>
       </c>
       <c r="C91" s="97">
-        <v>2.3263429641719502</v>
+        <v>2.52425084943222</v>
       </c>
       <c r="D91" s="98">
-        <v>0.67636230543069997</v>
+        <v>1.26929404769877</v>
       </c>
       <c r="E91" s="98">
-        <v>6.27373251327072</v>
+        <v>6.3904318945350704</v>
       </c>
       <c r="F91" s="98">
-        <v>2.61740451650352</v>
+        <v>2.5719811962881098</v>
       </c>
       <c r="G91" s="99">
-        <v>11.8938422993769</v>
+        <v>12.755957987954201</v>
       </c>
       <c r="H91" s="97">
-        <v>2.1936546429714401</v>
+        <v>2.7819383556358801</v>
       </c>
       <c r="I91" s="100">
-        <v>4.3102715653764303</v>
+        <v>3.9284294139451599</v>
       </c>
       <c r="J91" s="101">
-        <v>16054.985136741099</v>
+        <v>17336.599999999999</v>
       </c>
       <c r="K91" s="101">
-        <v>2206.0621790279902</v>
+        <v>5682.3243726007104</v>
       </c>
       <c r="L91" s="101">
-        <v>40584.050000000003</v>
+        <v>41228.06</v>
       </c>
       <c r="M91" s="101">
-        <v>17801.523738881398</v>
+        <v>17374.1878782241</v>
       </c>
       <c r="N91" s="102">
-        <v>76646.621054650503</v>
+        <v>81621.172250824893</v>
       </c>
       <c r="O91" s="103">
-        <v>10376.5636876851</v>
+        <v>16103.208219321399</v>
       </c>
       <c r="P91" s="104">
-        <v>19188.5725511089</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+        <v>21671.245486268301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="77"/>
       <c r="B92" s="59" t="s">
         <v>160</v>
       </c>
       <c r="C92" s="79">
-        <v>1.77201838039895</v>
+        <v>1.6152518446123101</v>
       </c>
       <c r="D92" s="80">
-        <v>-0.1556554611772</v>
+        <v>-0.15545583268499999</v>
       </c>
       <c r="E92" s="80">
-        <v>2.6818486757059801</v>
+        <v>3.6445467097609998</v>
       </c>
       <c r="F92" s="80">
-        <v>6.3717182071582998</v>
+        <v>6.8652214026411302</v>
       </c>
       <c r="G92" s="81">
-        <v>10.669929802085999</v>
+        <v>11.9695641243295</v>
       </c>
       <c r="H92" s="79">
-        <v>1.2627240740497201</v>
+        <v>1.25949516963952</v>
       </c>
       <c r="I92" s="82">
-        <v>5.2610489119708204</v>
+        <v>5.4121218994031404</v>
       </c>
       <c r="J92" s="83">
-        <v>9923.1496858394003</v>
+        <v>9060.2690000000002</v>
       </c>
       <c r="K92" s="83">
-        <v>-624.30986394144998</v>
+        <v>-623.20162128798995</v>
       </c>
       <c r="L92" s="83">
-        <v>20250.310000000001</v>
+        <v>20427.849999999999</v>
       </c>
       <c r="M92" s="83">
-        <v>38572.784917131801</v>
+        <v>43774.465954471903</v>
       </c>
       <c r="N92" s="84">
-        <v>68121.934739029704</v>
+        <v>72639.383333183898</v>
       </c>
       <c r="O92" s="85">
-        <v>6296.0802339715801</v>
+        <v>6143.5551369348505</v>
       </c>
       <c r="P92" s="86">
-        <v>27205.382359699899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+        <v>28057.920515843802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="77"/>
       <c r="B93" s="59" t="s">
         <v>161</v>
       </c>
       <c r="C93" s="79">
-        <v>3.1043099287357299</v>
+        <v>3.1642292628452902</v>
       </c>
       <c r="D93" s="80">
-        <v>11.1766266960653</v>
+        <v>64.858129803949296</v>
       </c>
       <c r="E93" s="80">
-        <v>4.73406464455572</v>
+        <v>4.7332340092400598</v>
       </c>
       <c r="F93" s="80">
-        <v>5.3547301117593298</v>
+        <v>5.7642809283508596</v>
       </c>
       <c r="G93" s="81">
-        <v>24.3697313811161</v>
+        <v>78.5198740043855</v>
       </c>
       <c r="H93" s="79">
-        <v>58.691820263621501</v>
+        <v>78.190736791853297</v>
       </c>
       <c r="I93" s="82">
-        <v>20.446911094626198</v>
+        <v>46.0762012932042</v>
       </c>
       <c r="J93" s="83">
-        <v>615.59005868689997</v>
+        <v>618.73199999999997</v>
       </c>
       <c r="K93" s="83">
-        <v>1655.0552596847799</v>
+        <v>10833.020794399101</v>
       </c>
       <c r="L93" s="83">
-        <v>831.65</v>
+        <v>833.34</v>
       </c>
       <c r="M93" s="83">
-        <v>1026.0260495570501</v>
+        <v>1101.1848486489</v>
       </c>
       <c r="N93" s="84">
-        <v>4128.3213679287301</v>
+        <v>13386.277643048001</v>
       </c>
       <c r="O93" s="85">
-        <v>9416.6386524983991</v>
+        <v>14025.3112698894</v>
       </c>
       <c r="P93" s="86">
-        <v>3355.5843802806698</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8330.8684915567101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="77"/>
       <c r="B94" s="59" t="s">
         <v>162</v>
       </c>
       <c r="C94" s="79">
-        <v>14.9835775325241</v>
+        <v>19.992120180034501</v>
       </c>
       <c r="D94" s="80">
-        <v>3.2293222810035598</v>
+        <v>3.2451358341664198</v>
       </c>
       <c r="E94" s="80">
-        <v>2.1960901069370702</v>
+        <v>2.2066551204083602</v>
       </c>
       <c r="F94" s="80">
-        <v>4.1932619563323001</v>
+        <v>4.2076252293036696</v>
       </c>
       <c r="G94" s="81">
-        <v>24.602251876796998</v>
+        <v>29.651536363912999</v>
       </c>
       <c r="H94" s="79">
-        <v>16.5056797773493</v>
+        <v>20.576940342057501</v>
       </c>
       <c r="I94" s="82">
-        <v>16.6411372419083</v>
+        <v>10.8857011489731</v>
       </c>
       <c r="J94" s="83">
-        <v>106213.991503212</v>
+        <v>140693.315</v>
       </c>
       <c r="K94" s="83">
-        <v>19388.309396441698</v>
+        <v>20869.565132147101</v>
       </c>
       <c r="L94" s="83">
-        <v>5437.4</v>
+        <v>5458</v>
       </c>
       <c r="M94" s="83">
-        <v>21311.448627125399</v>
+        <v>21536.410877455299</v>
       </c>
       <c r="N94" s="84">
-        <v>152351.14952677899</v>
+        <v>188557.29100960199</v>
       </c>
       <c r="O94" s="85">
-        <v>112119.168041507</v>
+        <v>145368.99742883901</v>
       </c>
       <c r="P94" s="86">
-        <v>115895.64637735</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+        <v>77940.440343401599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="77"/>
       <c r="B95" s="59" t="s">
         <v>163</v>
       </c>
       <c r="C95" s="79">
-        <v>2.5658501268037099</v>
+        <v>2.4970396599595999</v>
       </c>
       <c r="D95" s="80">
-        <v>1.5113969322838601</v>
+        <v>2.3539214012081802</v>
       </c>
       <c r="E95" s="80">
-        <v>5.9524476355772897</v>
+        <v>6.0582330856493902</v>
       </c>
       <c r="F95" s="80">
-        <v>2.1380733459832402</v>
+        <v>2.1917261897815798</v>
       </c>
       <c r="G95" s="81">
-        <v>12.167768040648101</v>
+        <v>13.100920336598699</v>
       </c>
       <c r="H95" s="79">
-        <v>2.3949227152669801</v>
+        <v>2.69339175828829</v>
       </c>
       <c r="I95" s="82">
-        <v>3.7286798582703802</v>
+        <v>2.81190401733447</v>
       </c>
       <c r="J95" s="83">
-        <v>7800.0633207788997</v>
+        <v>7515.7449999999999</v>
       </c>
       <c r="K95" s="83">
-        <v>1519.9241909457601</v>
+        <v>3803.0421633457599</v>
       </c>
       <c r="L95" s="83">
-        <v>20262.64</v>
+        <v>20589.8</v>
       </c>
       <c r="M95" s="83">
-        <v>8521.1346892730908</v>
+        <v>9022.8433367626803</v>
       </c>
       <c r="N95" s="84">
-        <v>38103.7622009978</v>
+        <v>40931.430500108399</v>
       </c>
       <c r="O95" s="85">
-        <v>4950.7791116560902</v>
+        <v>6948.6841417034902</v>
       </c>
       <c r="P95" s="86">
-        <v>9035.7798439399903</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8667.7914160177897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="77"/>
       <c r="B96" s="87" t="s">
         <v>164</v>
       </c>
       <c r="C96" s="88">
-        <v>1.82736588346133</v>
+        <v>1.8491024453030001</v>
       </c>
       <c r="D96" s="89">
-        <v>1.19614072049817</v>
+        <v>1.1449716640146499</v>
       </c>
       <c r="E96" s="89">
-        <v>1.3161309455542201</v>
+        <v>2.42019674322867</v>
       </c>
       <c r="F96" s="89">
-        <v>6.7366260660412998</v>
+        <v>6.53443976620804</v>
       </c>
       <c r="G96" s="90">
-        <v>11.076263615555</v>
+        <v>11.948710618754401</v>
       </c>
       <c r="H96" s="88">
-        <v>2.09798290247448</v>
+        <v>2.1361914423560102</v>
       </c>
       <c r="I96" s="91">
-        <v>3.5938584851380799</v>
+        <v>3.5744906144728099</v>
       </c>
       <c r="J96" s="92">
-        <v>10685.926337172101</v>
+        <v>11073.333000000001</v>
       </c>
       <c r="K96" s="92">
-        <v>5466.8257952185304</v>
+        <v>5164.1572817036003</v>
       </c>
       <c r="L96" s="92">
-        <v>11229.59</v>
+        <v>11321.92</v>
       </c>
       <c r="M96" s="92">
-        <v>32256.786596653099</v>
+        <v>32287.174019469101</v>
       </c>
       <c r="N96" s="93">
-        <v>59639.128729043703</v>
+        <v>59846.584301172697</v>
       </c>
       <c r="O96" s="94">
-        <v>10982.8319310476</v>
+        <v>11131.975456125199</v>
       </c>
       <c r="P96" s="95">
-        <v>17156.737813125299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17151.967340183801</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="77"/>
       <c r="B97" s="96" t="s">
         <v>165</v>
       </c>
       <c r="C97" s="97">
-        <v>1.8190956117673101</v>
+        <v>1.4465961123031901</v>
       </c>
       <c r="D97" s="98">
-        <v>0.98331820119424995</v>
+        <v>1.3580227566490799</v>
       </c>
       <c r="E97" s="98">
-        <v>3.5806269247697902</v>
+        <v>2.8245533689770399</v>
       </c>
       <c r="F97" s="98">
-        <v>3.0232511862690798</v>
+        <v>2.7606997983662902</v>
       </c>
       <c r="G97" s="99">
-        <v>9.4062919240004295</v>
+        <v>8.3898720362955999</v>
       </c>
       <c r="H97" s="97">
-        <v>1.44670933907934</v>
+        <v>1.6229173098549901</v>
       </c>
       <c r="I97" s="100">
-        <v>3.6198534262834099</v>
+        <v>2.8264549686926701</v>
       </c>
       <c r="J97" s="101">
-        <v>25499.395600239201</v>
+        <v>16939.208999999999</v>
       </c>
       <c r="K97" s="101">
-        <v>8951.5245118268103</v>
+        <v>12784.1536929679</v>
       </c>
       <c r="L97" s="101">
-        <v>47494.35</v>
+        <v>34134.19</v>
       </c>
       <c r="M97" s="101">
-        <v>40549.222534585002</v>
+        <v>35556.878751371201</v>
       </c>
       <c r="N97" s="102">
-        <v>122494.49264665099</v>
+        <v>99414.431444339105</v>
       </c>
       <c r="O97" s="103">
-        <v>14912.2101420503</v>
+        <v>17845.6197934712</v>
       </c>
       <c r="P97" s="104">
-        <v>36714.757949057297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>32120.130642603599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="77"/>
       <c r="B98" s="87" t="s">
         <v>166</v>
       </c>
       <c r="C98" s="88">
-        <v>0.95741497876546999</v>
+        <v>1.1122169115145599</v>
       </c>
       <c r="D98" s="89">
-        <v>0.387392297941</v>
+        <v>0.42252643652476002</v>
       </c>
       <c r="E98" s="89">
-        <v>1.22358417503261</v>
+        <v>0.98644381845773998</v>
       </c>
       <c r="F98" s="89">
-        <v>7.0028450885262501</v>
+        <v>7.5117009255163296</v>
       </c>
       <c r="G98" s="90">
-        <v>9.5712365402653408</v>
+        <v>10.032888092013399</v>
       </c>
       <c r="H98" s="88">
-        <v>0.96896921420226001</v>
+        <v>1.3034340115727401</v>
       </c>
       <c r="I98" s="91">
-        <v>3.2033965116730498</v>
+        <v>3.9586374584295498</v>
       </c>
       <c r="J98" s="92">
-        <v>16910.5066277642</v>
+        <v>18165.421999999999</v>
       </c>
       <c r="K98" s="92">
-        <v>4312.2249860585498</v>
+        <v>4007.8413487120101</v>
       </c>
       <c r="L98" s="92">
-        <v>36877.980000000003</v>
+        <v>16232.35</v>
       </c>
       <c r="M98" s="92">
-        <v>89883.419029881203</v>
+        <v>86198.399027708598</v>
       </c>
       <c r="N98" s="93">
-        <v>147984.130643704</v>
+        <v>124604.012376421</v>
       </c>
       <c r="O98" s="94">
-        <v>11334.4942674058</v>
+        <v>13755.221797447701</v>
       </c>
       <c r="P98" s="95">
-        <v>34044.705933990597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+        <v>37306.074287804302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="105"/>
       <c r="B99" s="106"/>
       <c r="C99" s="64"/>
@@ -6367,7 +6367,7 @@
       <c r="O99" s="64"/>
       <c r="P99" s="64"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="O100" s="107"/>
       <c r="P100" s="107"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="O101" s="107"/>
       <c r="P101" s="107"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="O102" s="107"/>
       <c r="P102" s="107"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="O103" s="107"/>
       <c r="P103" s="107"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="O104" s="107"/>
       <c r="P104" s="107"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C105" s="107"/>
       <c r="D105" s="107"/>
       <c r="E105" s="107"/>
@@ -6478,7 +6478,7 @@
       <c r="O105" s="107"/>
       <c r="P105" s="107"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C106" s="107"/>
       <c r="D106" s="107"/>
       <c r="E106" s="107"/>
@@ -6494,7 +6494,7 @@
       <c r="O106" s="107"/>
       <c r="P106" s="107"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="108" t="s">
         <v>172</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="O107" s="107"/>
       <c r="P107" s="107"/>
     </row>
-    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="108"/>
       <c r="C108" s="107"/>
       <c r="D108" s="107"/>
@@ -6530,7 +6530,7 @@
       <c r="O108" s="107"/>
       <c r="P108" s="107"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>175</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="O109" s="107"/>
       <c r="P109" s="107"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>176</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="O110" s="107"/>
       <c r="P110" s="107"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>177</v>
       </c>
@@ -6587,7 +6587,7 @@
       <c r="O111" s="107"/>
       <c r="P111" s="107"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="O112" s="107"/>
       <c r="P112" s="107"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>174</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="O113" s="107"/>
       <c r="P113" s="107"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="107"/>
       <c r="D114" s="107"/>
@@ -6644,12 +6644,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8AC3978C-F6E3-43CF-BB77-AC71441F635E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{210890F8-5222-4004-A92E-4EB036E95D25}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{481906A0-B648-4C48-81AC-7EE38A68AECB}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{239CA99A-2F69-4980-AA64-A141B336B507}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{2C0BAC52-207C-4533-B5B2-6A77A5F4C6C1}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{D0DCC60F-A3E4-4205-BA1D-43CEE06D4BC4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5E6F1CDC-8ABB-40E9-9770-4EB0ECCBA6A7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{74CDD24E-54C8-4EEA-80ED-D7CED2D1A56A}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{0E8EFFBD-6D54-4067-B7AF-BB5831AA910F}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{DB301489-DE0C-456A-9CDC-152C647835F9}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{0F8421F7-93DD-4B39-9E68-FBE202D1D387}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{412B7B8B-2DAD-4EB8-9197-C0DB23A12883}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
